--- a/Metrics/rollingTestMetrics.xlsx
+++ b/Metrics/rollingTestMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,601 +468,1901 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>LR192</t>
+          <t>LR340</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.283</v>
+        <v>-10.929</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.034</v>
+        <v>1.542</v>
       </c>
       <c r="D2" t="n">
-        <v>1.21</v>
+        <v>0.324</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1</v>
+        <v>0.569</v>
       </c>
       <c r="F2" t="n">
-        <v>1.029</v>
+        <v>0.379</v>
       </c>
       <c r="G2" t="n">
-        <v>0.545</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RF192</t>
+          <t>RF340</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.21</v>
+        <v>-1.271</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.139</v>
+        <v>1.103</v>
       </c>
       <c r="D3" t="n">
-        <v>1.334</v>
+        <v>0.062</v>
       </c>
       <c r="E3" t="n">
-        <v>1.155</v>
+        <v>0.249</v>
       </c>
       <c r="F3" t="n">
-        <v>0.973</v>
+        <v>0.165</v>
       </c>
       <c r="G3" t="n">
-        <v>0.518</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NN192</t>
+          <t>NN340</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.039</v>
+        <v>-5.097</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.386</v>
+        <v>1.277</v>
       </c>
       <c r="D4" t="n">
-        <v>1.623</v>
+        <v>0.166</v>
       </c>
       <c r="E4" t="n">
-        <v>1.274</v>
+        <v>0.407</v>
       </c>
       <c r="F4" t="n">
-        <v>1.287</v>
+        <v>0.242</v>
       </c>
       <c r="G4" t="n">
-        <v>0.452</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RNN192</t>
+          <t>Ensemble340</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.414</v>
+        <v>-3.72</v>
       </c>
       <c r="C5" t="n">
-        <v>0.276</v>
+        <v>1.215</v>
       </c>
       <c r="D5" t="n">
-        <v>0.947</v>
+        <v>0.128</v>
       </c>
       <c r="E5" t="n">
-        <v>0.973</v>
+        <v>0.358</v>
       </c>
       <c r="F5" t="n">
-        <v>1.125</v>
+        <v>0.231</v>
       </c>
       <c r="G5" t="n">
-        <v>0.766</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>LR220</t>
+          <t>LR342</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.281</v>
+        <v>-4974.569</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.037</v>
+        <v>227.162</v>
       </c>
       <c r="D6" t="n">
-        <v>0.618</v>
+        <v>2121.33</v>
       </c>
       <c r="E6" t="n">
-        <v>0.786</v>
+        <v>46.058</v>
       </c>
       <c r="F6" t="n">
-        <v>0.882</v>
+        <v>35.258</v>
       </c>
       <c r="G6" t="n">
-        <v>0.545</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RF220</t>
+          <t>RF342</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.192</v>
+        <v>-9.221</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.165</v>
+        <v>1.465</v>
       </c>
       <c r="D7" t="n">
-        <v>0.694</v>
+        <v>4.358</v>
       </c>
       <c r="E7" t="n">
-        <v>0.833</v>
+        <v>2.088</v>
       </c>
       <c r="F7" t="n">
-        <v>0.862</v>
+        <v>2.033</v>
       </c>
       <c r="G7" t="n">
-        <v>0.546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NN220</t>
+          <t>NN342</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.037</v>
+        <v>-3.386</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.496</v>
+        <v>1.199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.891</v>
+        <v>1.87</v>
       </c>
       <c r="E8" t="n">
-        <v>0.944</v>
+        <v>1.367</v>
       </c>
       <c r="F8" t="n">
-        <v>0.97</v>
+        <v>1.951</v>
       </c>
       <c r="G8" t="n">
-        <v>0.452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RNN220</t>
+          <t>Ensemble342</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.001</v>
+        <v>-583.717</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.237</v>
+        <v>27.578</v>
       </c>
       <c r="D9" t="n">
-        <v>0.993</v>
+        <v>249.294</v>
       </c>
       <c r="E9" t="n">
-        <v>0.996</v>
+        <v>15.789</v>
       </c>
       <c r="F9" t="n">
-        <v>0.956</v>
+        <v>12.471</v>
       </c>
       <c r="G9" t="n">
-        <v>0.446</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LR248</t>
+          <t>LR344</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.275</v>
+        <v>-1532.713</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.046</v>
+        <v>70.714</v>
       </c>
       <c r="D10" t="n">
-        <v>0.526</v>
+        <v>955.566</v>
       </c>
       <c r="E10" t="n">
-        <v>0.725</v>
+        <v>30.912</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8070000000000001</v>
+        <v>28.504</v>
       </c>
       <c r="G10" t="n">
-        <v>0.549</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF248</t>
+          <t>RF344</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.076</v>
+        <v>-2.229</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.333</v>
+        <v>1.147</v>
       </c>
       <c r="D11" t="n">
-        <v>0.67</v>
+        <v>2.012</v>
       </c>
       <c r="E11" t="n">
-        <v>0.819</v>
+        <v>1.418</v>
       </c>
       <c r="F11" t="n">
-        <v>0.819</v>
+        <v>1.408</v>
       </c>
       <c r="G11" t="n">
-        <v>0.507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NN248</t>
+          <t>NN344</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>-0.969</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.542</v>
+        <v>1.09</v>
       </c>
       <c r="D12" t="n">
-        <v>0.776</v>
+        <v>1.227</v>
       </c>
       <c r="E12" t="n">
-        <v>0.881</v>
+        <v>1.108</v>
       </c>
       <c r="F12" t="n">
-        <v>0.918</v>
+        <v>1.696</v>
       </c>
       <c r="G12" t="n">
-        <v>0.446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RNN248</t>
+          <t>Ensemble344</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.166</v>
+        <v>-221.599</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03</v>
+        <v>11.118</v>
       </c>
       <c r="D13" t="n">
-        <v>0.541</v>
+        <v>138.688</v>
       </c>
       <c r="E13" t="n">
-        <v>0.736</v>
+        <v>11.777</v>
       </c>
       <c r="F13" t="n">
-        <v>0.764</v>
+        <v>10.833</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5639999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>LR276</t>
+          <t>LR346</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.202</v>
+        <v>-1184.095</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.734</v>
+        <v>54.868</v>
       </c>
       <c r="D14" t="n">
-        <v>0.835</v>
+        <v>90.131</v>
       </c>
       <c r="E14" t="n">
-        <v>0.914</v>
+        <v>9.494</v>
       </c>
       <c r="F14" t="n">
-        <v>0.855</v>
+        <v>9.494</v>
       </c>
       <c r="G14" t="n">
-        <v>0.317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RF276</t>
+          <t>RF346</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01</v>
+        <v>-2.695</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.457</v>
+        <v>1.168</v>
       </c>
       <c r="D15" t="n">
-        <v>0.702</v>
+        <v>0.281</v>
       </c>
       <c r="E15" t="n">
-        <v>0.838</v>
+        <v>0.53</v>
       </c>
       <c r="F15" t="n">
-        <v>0.804</v>
+        <v>0.52</v>
       </c>
       <c r="G15" t="n">
-        <v>0.406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>NN276</t>
+          <t>NN346</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.555</v>
+        <v>-0.435</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.243</v>
+        <v>1.065</v>
       </c>
       <c r="D16" t="n">
-        <v>1.081</v>
+        <v>0.109</v>
       </c>
       <c r="E16" t="n">
-        <v>1.04</v>
+        <v>0.33</v>
       </c>
       <c r="F16" t="n">
-        <v>0.99</v>
+        <v>0.486</v>
       </c>
       <c r="G16" t="n">
-        <v>0.369</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RNN276</t>
+          <t>Ensemble346</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.481</v>
+        <v>-104.058</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.829</v>
+        <v>5.775</v>
       </c>
       <c r="D17" t="n">
-        <v>0.827</v>
+        <v>7.99</v>
       </c>
       <c r="E17" t="n">
-        <v>0.909</v>
+        <v>2.827</v>
       </c>
       <c r="F17" t="n">
-        <v>0.735</v>
+        <v>2.821</v>
       </c>
       <c r="G17" t="n">
-        <v>0.083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>LR304</t>
+          <t>LR348</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.423</v>
+        <v>-53.575</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.065</v>
+        <v>3.481</v>
       </c>
       <c r="D18" t="n">
-        <v>1.658</v>
+        <v>1.094</v>
       </c>
       <c r="E18" t="n">
-        <v>1.288</v>
+        <v>1.046</v>
       </c>
       <c r="F18" t="n">
-        <v>1.042</v>
+        <v>0.963</v>
       </c>
       <c r="G18" t="n">
-        <v>0.113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RF304</t>
+          <t>RF348</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.399</v>
+        <v>-2.423</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.03</v>
+        <v>1.156</v>
       </c>
       <c r="D19" t="n">
-        <v>1.63</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>1.277</v>
+        <v>0.263</v>
       </c>
       <c r="F19" t="n">
-        <v>1.014</v>
+        <v>0.238</v>
       </c>
       <c r="G19" t="n">
-        <v>0.092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>NN304</t>
+          <t>NN348</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.345</v>
+        <v>-81.489</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.952</v>
+        <v>4.75</v>
       </c>
       <c r="D20" t="n">
-        <v>1.566</v>
+        <v>1.653</v>
       </c>
       <c r="E20" t="n">
-        <v>1.251</v>
+        <v>1.286</v>
       </c>
       <c r="F20" t="n">
-        <v>0.911</v>
+        <v>1.286</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RNN304</t>
+          <t>Ensemble348</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.917</v>
+        <v>0.329</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.377</v>
+        <v>1.03</v>
       </c>
       <c r="D21" t="n">
-        <v>2.458</v>
+        <v>0.013</v>
       </c>
       <c r="E21" t="n">
-        <v>1.568</v>
+        <v>0.114</v>
       </c>
       <c r="F21" t="n">
-        <v>1.127</v>
+        <v>0.222</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>LRavg</t>
+          <t>LR350</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0428</v>
+        <v>-46.048</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.3832</v>
+        <v>3.139</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9693999999999999</v>
+        <v>2.375</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9626000000000001</v>
+        <v>1.541</v>
       </c>
       <c r="F22" t="n">
-        <v>0.923</v>
+        <v>1.522</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4138000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RFavg</t>
+          <t>RF350</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0138</v>
+        <v>-1.932</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4248</v>
+        <v>1.133</v>
       </c>
       <c r="D23" t="n">
-        <v>1.006</v>
+        <v>0.148</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9843999999999999</v>
+        <v>0.385</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8944000000000001</v>
+        <v>0.355</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4138000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>NNavg</t>
+          <t>NN350</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1786</v>
+        <v>-3.418</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.5816</v>
+        <v>1.201</v>
       </c>
       <c r="D24" t="n">
-        <v>1.1703</v>
+        <v>0.223</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0572</v>
+        <v>0.472</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9783000000000002</v>
+        <v>0.675</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3248</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RNNavg</t>
+          <t>Ensemble350</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1638</v>
+        <v>-1.315</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.4394</v>
+        <v>1.105</v>
       </c>
       <c r="D25" t="n">
-        <v>1.1532</v>
+        <v>0.117</v>
       </c>
       <c r="E25" t="n">
-        <v>1.0364</v>
+        <v>0.342</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9414</v>
+        <v>0.242</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3446</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>LR352</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-110.681</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.076</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.487</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RF352</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-9.653</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>NN352</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-91.992</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5.227</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.903</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.704</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble352</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>LR354</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-13.154</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.643</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>RF354</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-87.155</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.007</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.383</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>NN354</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-44.888</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble354</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-51.912</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3.405</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>LR356</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-34.026</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.592</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>RF356</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-69.244</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.193</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.388</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.545</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>NN356</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-58.72</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.715</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.425</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble356</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-65.669</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>LR358</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>RF358</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.439</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>NN358</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.056</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble358</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.828</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>LR360</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>RF360</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-2.581</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.347</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.335</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>NN360</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble360</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.933</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.188</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>LR362</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RF362</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-40.155</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.871</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>NN362</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-34.794</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.627</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble362</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.282</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.462</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>LR364</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-1645.986</v>
+      </c>
+      <c r="C50" t="n">
+        <v>75.863</v>
+      </c>
+      <c r="D50" t="n">
+        <v>17.863</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.226</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RF364</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-245.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12.186</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.669</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.634</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>NN364</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-1420.105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65.596</v>
+      </c>
+      <c r="D52" t="n">
+        <v>15.413</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.926</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.643</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble364</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-665.952</v>
+      </c>
+      <c r="C53" t="n">
+        <v>31.316</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7.234</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.623</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>LR366</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-1.878</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.641</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>RF366</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-1.133</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.698</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1.643</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>NN366</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-1.508</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.114</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble366</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.776</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.511</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1.874</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>LR368</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-53.217</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>RF368</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-20.823</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.992</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.834</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>NN368</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-16.057</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.775</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble368</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-35.619</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5.647</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>LR370</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-1788.294</v>
+      </c>
+      <c r="C62" t="n">
+        <v>82.33199999999999</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>RF370</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-1783.864</v>
+      </c>
+      <c r="C63" t="n">
+        <v>82.13</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1.445</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.168</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>NN370</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-674.98</v>
+      </c>
+      <c r="C64" t="n">
+        <v>31.726</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble370</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-998.835</v>
+      </c>
+      <c r="C65" t="n">
+        <v>46.447</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>LR372</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-2.572</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>RF372</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-4.086</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.231</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>NN372</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-0.188</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble372</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-4.821</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>LR374</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>RF374</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-19.217</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1.341</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>NN374</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-10.498</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble374</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-13.425</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.656</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.283</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>LRavg</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-636.8617222222223</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29.99366666666667</v>
+      </c>
+      <c r="D74" t="n">
+        <v>178.4007222222222</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.938111111111111</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5.10488888888889</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>RFavg</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-127.9567222222222</v>
+      </c>
+      <c r="C75" t="n">
+        <v>6.861666666666666</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.696444444444444</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1.157555555555556</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.086166666666667</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>NNavg</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-136.0275</v>
+      </c>
+      <c r="C76" t="n">
+        <v>7.228555555555555</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.097611111111112</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1.192777777777778</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.222555555555556</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Ensembleavg</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-153.2339444444445</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8.01061111111111</v>
+      </c>
+      <c r="D77" t="n">
+        <v>23.42438888888888</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2.561333333333333</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2.263444444444445</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics/rollingTestMetrics.xlsx
+++ b/Metrics/rollingTestMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,1901 +468,4610 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>LR340</t>
+          <t>LR200</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-10.929</v>
+        <v>0.248</v>
       </c>
       <c r="C2" t="n">
-        <v>1.542</v>
+        <v>1.483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.324</v>
+        <v>5.192</v>
       </c>
       <c r="E2" t="n">
-        <v>0.569</v>
+        <v>2.279</v>
       </c>
       <c r="F2" t="n">
-        <v>0.379</v>
+        <v>2.347</v>
       </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RF340</t>
+          <t>RF200</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.271</v>
+        <v>0.107</v>
       </c>
       <c r="C3" t="n">
-        <v>1.103</v>
+        <v>1.574</v>
       </c>
       <c r="D3" t="n">
-        <v>0.062</v>
+        <v>6.159</v>
       </c>
       <c r="E3" t="n">
-        <v>0.249</v>
+        <v>2.482</v>
       </c>
       <c r="F3" t="n">
-        <v>0.165</v>
+        <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NN340</t>
+          <t>NN200</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.097</v>
+        <v>0.394</v>
       </c>
       <c r="C4" t="n">
-        <v>1.277</v>
+        <v>1.39</v>
       </c>
       <c r="D4" t="n">
-        <v>0.166</v>
+        <v>4.181</v>
       </c>
       <c r="E4" t="n">
-        <v>0.407</v>
+        <v>2.045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.242</v>
+        <v>2.821</v>
       </c>
       <c r="G4" t="n">
-        <v>-1</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Ensemble340</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.72</v>
+        <v>-0.004</v>
       </c>
       <c r="C5" t="n">
-        <v>1.215</v>
+        <v>4.012</v>
       </c>
       <c r="D5" t="n">
-        <v>0.128</v>
+        <v>6.928</v>
       </c>
       <c r="E5" t="n">
-        <v>0.358</v>
+        <v>2.632</v>
       </c>
       <c r="F5" t="n">
-        <v>0.231</v>
+        <v>2.34</v>
       </c>
       <c r="G5" t="n">
-        <v>-1</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>LR342</t>
+          <t>Ensemble200</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4974.569</v>
+        <v>0.079</v>
       </c>
       <c r="C6" t="n">
-        <v>227.162</v>
+        <v>1.592</v>
       </c>
       <c r="D6" t="n">
-        <v>2121.33</v>
+        <v>6.357</v>
       </c>
       <c r="E6" t="n">
-        <v>46.058</v>
+        <v>2.521</v>
       </c>
       <c r="F6" t="n">
-        <v>35.258</v>
+        <v>2.268</v>
       </c>
       <c r="G6" t="n">
-        <v>-1</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RF342</t>
+          <t>LR210</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.221</v>
+        <v>-0.6919999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>1.465</v>
+        <v>2.088</v>
       </c>
       <c r="D7" t="n">
-        <v>4.358</v>
+        <v>1.075</v>
       </c>
       <c r="E7" t="n">
-        <v>2.088</v>
+        <v>1.037</v>
       </c>
       <c r="F7" t="n">
-        <v>2.033</v>
+        <v>0.74</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>-0.144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NN342</t>
+          <t>RF210</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.386</v>
+        <v>0.156</v>
       </c>
       <c r="C8" t="n">
-        <v>1.199</v>
+        <v>1.543</v>
       </c>
       <c r="D8" t="n">
-        <v>1.87</v>
+        <v>0.536</v>
       </c>
       <c r="E8" t="n">
-        <v>1.367</v>
+        <v>0.732</v>
       </c>
       <c r="F8" t="n">
-        <v>1.951</v>
+        <v>0.655</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Ensemble342</t>
+          <t>NN210</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-583.717</v>
+        <v>-5.709</v>
       </c>
       <c r="C9" t="n">
-        <v>27.578</v>
+        <v>5.313</v>
       </c>
       <c r="D9" t="n">
-        <v>249.294</v>
+        <v>4.261</v>
       </c>
       <c r="E9" t="n">
-        <v>15.789</v>
+        <v>2.064</v>
       </c>
       <c r="F9" t="n">
-        <v>12.471</v>
+        <v>1.357</v>
       </c>
       <c r="G9" t="n">
-        <v>-1</v>
+        <v>-0.492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>LR344</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1532.713</v>
+        <v>-1.803</v>
       </c>
       <c r="C10" t="n">
-        <v>70.714</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>955.566</v>
+        <v>1.78</v>
       </c>
       <c r="E10" t="n">
-        <v>30.912</v>
+        <v>1.334</v>
       </c>
       <c r="F10" t="n">
-        <v>28.504</v>
+        <v>0.952</v>
       </c>
       <c r="G10" t="n">
-        <v>-1</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF344</t>
+          <t>Ensemble210</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.229</v>
+        <v>-0.205</v>
       </c>
       <c r="C11" t="n">
-        <v>1.147</v>
+        <v>1.775</v>
       </c>
       <c r="D11" t="n">
-        <v>2.012</v>
+        <v>0.765</v>
       </c>
       <c r="E11" t="n">
-        <v>1.418</v>
+        <v>0.875</v>
       </c>
       <c r="F11" t="n">
-        <v>1.408</v>
+        <v>0.638</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NN344</t>
+          <t>LR220</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.969</v>
+        <v>-1.657</v>
       </c>
       <c r="C12" t="n">
-        <v>1.09</v>
+        <v>2.708</v>
       </c>
       <c r="D12" t="n">
-        <v>1.227</v>
+        <v>0.464</v>
       </c>
       <c r="E12" t="n">
-        <v>1.108</v>
+        <v>0.681</v>
       </c>
       <c r="F12" t="n">
-        <v>1.696</v>
+        <v>0.513</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>-0.167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Ensemble344</t>
+          <t>RF220</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-221.599</v>
+        <v>-1.031</v>
       </c>
       <c r="C13" t="n">
-        <v>11.118</v>
+        <v>2.306</v>
       </c>
       <c r="D13" t="n">
-        <v>138.688</v>
+        <v>0.354</v>
       </c>
       <c r="E13" t="n">
-        <v>11.777</v>
+        <v>0.595</v>
       </c>
       <c r="F13" t="n">
-        <v>10.833</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-1</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>LR346</t>
+          <t>NN220</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1184.095</v>
+        <v>-0.753</v>
       </c>
       <c r="C14" t="n">
-        <v>54.868</v>
+        <v>2.127</v>
       </c>
       <c r="D14" t="n">
-        <v>90.131</v>
+        <v>0.306</v>
       </c>
       <c r="E14" t="n">
-        <v>9.494</v>
+        <v>0.553</v>
       </c>
       <c r="F14" t="n">
-        <v>9.494</v>
+        <v>0.396</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>-0.211</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RF346</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.695</v>
+        <v>-1.962</v>
       </c>
       <c r="C15" t="n">
-        <v>1.168</v>
+        <v>9.885999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.281</v>
+        <v>0.517</v>
       </c>
       <c r="E15" t="n">
-        <v>0.53</v>
+        <v>0.719</v>
       </c>
       <c r="F15" t="n">
-        <v>0.52</v>
+        <v>0.484</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>-0.453</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>NN346</t>
+          <t>Ensemble220</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.435</v>
+        <v>-0.877</v>
       </c>
       <c r="C16" t="n">
-        <v>1.065</v>
+        <v>2.207</v>
       </c>
       <c r="D16" t="n">
-        <v>0.109</v>
+        <v>0.328</v>
       </c>
       <c r="E16" t="n">
-        <v>0.33</v>
+        <v>0.573</v>
       </c>
       <c r="F16" t="n">
-        <v>0.486</v>
+        <v>0.453</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ensemble346</t>
+          <t>LR230</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-104.058</v>
+        <v>0.031</v>
       </c>
       <c r="C17" t="n">
-        <v>5.775</v>
+        <v>1.623</v>
       </c>
       <c r="D17" t="n">
-        <v>7.99</v>
+        <v>0.761</v>
       </c>
       <c r="E17" t="n">
-        <v>2.827</v>
+        <v>0.872</v>
       </c>
       <c r="F17" t="n">
-        <v>2.821</v>
+        <v>0.917</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>LR348</t>
+          <t>RF230</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-53.575</v>
+        <v>0.099</v>
       </c>
       <c r="C18" t="n">
-        <v>3.481</v>
+        <v>1.579</v>
       </c>
       <c r="D18" t="n">
-        <v>1.094</v>
+        <v>0.708</v>
       </c>
       <c r="E18" t="n">
-        <v>1.046</v>
+        <v>0.841</v>
       </c>
       <c r="F18" t="n">
-        <v>0.963</v>
+        <v>0.907</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RF348</t>
+          <t>NN230</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2.423</v>
+        <v>0.007</v>
       </c>
       <c r="C19" t="n">
-        <v>1.156</v>
+        <v>1.638</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.781</v>
       </c>
       <c r="E19" t="n">
-        <v>0.263</v>
+        <v>0.884</v>
       </c>
       <c r="F19" t="n">
-        <v>0.238</v>
+        <v>0.779</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>NN348</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-81.489</v>
+        <v>-0.048</v>
       </c>
       <c r="C20" t="n">
-        <v>4.75</v>
+        <v>4.144</v>
       </c>
       <c r="D20" t="n">
-        <v>1.653</v>
+        <v>0.823</v>
       </c>
       <c r="E20" t="n">
-        <v>1.286</v>
+        <v>0.907</v>
       </c>
       <c r="F20" t="n">
-        <v>1.286</v>
+        <v>0.823</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Ensemble348</t>
+          <t>Ensemble230</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.329</v>
+        <v>0.179</v>
       </c>
       <c r="C21" t="n">
-        <v>1.03</v>
+        <v>1.528</v>
       </c>
       <c r="D21" t="n">
-        <v>0.013</v>
+        <v>0.645</v>
       </c>
       <c r="E21" t="n">
-        <v>0.114</v>
+        <v>0.803</v>
       </c>
       <c r="F21" t="n">
-        <v>0.222</v>
+        <v>0.858</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>LR350</t>
+          <t>LR240</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-46.048</v>
+        <v>0.283</v>
       </c>
       <c r="C22" t="n">
-        <v>3.139</v>
+        <v>1.461</v>
       </c>
       <c r="D22" t="n">
-        <v>2.375</v>
+        <v>0.636</v>
       </c>
       <c r="E22" t="n">
-        <v>1.541</v>
+        <v>0.797</v>
       </c>
       <c r="F22" t="n">
-        <v>1.522</v>
+        <v>0.967</v>
       </c>
       <c r="G22" t="n">
-        <v>-1</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RF350</t>
+          <t>RF240</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.932</v>
+        <v>0.122</v>
       </c>
       <c r="C23" t="n">
-        <v>1.133</v>
+        <v>1.564</v>
       </c>
       <c r="D23" t="n">
-        <v>0.148</v>
+        <v>0.779</v>
       </c>
       <c r="E23" t="n">
-        <v>0.385</v>
+        <v>0.883</v>
       </c>
       <c r="F23" t="n">
-        <v>0.355</v>
+        <v>0.946</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>NN350</t>
+          <t>NN240</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3.418</v>
+        <v>-0.007</v>
       </c>
       <c r="C24" t="n">
-        <v>1.201</v>
+        <v>1.647</v>
       </c>
       <c r="D24" t="n">
-        <v>0.223</v>
+        <v>0.892</v>
       </c>
       <c r="E24" t="n">
-        <v>0.472</v>
+        <v>0.944</v>
       </c>
       <c r="F24" t="n">
-        <v>0.675</v>
+        <v>0.956</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Ensemble350</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.315</v>
+        <v>0.418</v>
       </c>
       <c r="C25" t="n">
-        <v>1.105</v>
+        <v>2.746</v>
       </c>
       <c r="D25" t="n">
-        <v>0.117</v>
+        <v>0.516</v>
       </c>
       <c r="E25" t="n">
-        <v>0.342</v>
+        <v>0.718</v>
       </c>
       <c r="F25" t="n">
-        <v>0.242</v>
+        <v>0.877</v>
       </c>
       <c r="G25" t="n">
-        <v>-1</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>LR352</t>
+          <t>Ensemble240</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-110.681</v>
+        <v>0.36</v>
       </c>
       <c r="C26" t="n">
-        <v>6.076</v>
+        <v>1.411</v>
       </c>
       <c r="D26" t="n">
-        <v>3.487</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>1.867</v>
+        <v>0.753</v>
       </c>
       <c r="F26" t="n">
-        <v>1.703</v>
+        <v>0.915</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RF352</t>
+          <t>LR250</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-9.653</v>
+        <v>0.411</v>
       </c>
       <c r="C27" t="n">
-        <v>1.484</v>
+        <v>1.379</v>
       </c>
       <c r="D27" t="n">
-        <v>0.333</v>
+        <v>0.737</v>
       </c>
       <c r="E27" t="n">
-        <v>0.577</v>
+        <v>0.858</v>
       </c>
       <c r="F27" t="n">
-        <v>0.576</v>
+        <v>1.068</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>NN352</t>
+          <t>RF250</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-91.992</v>
+        <v>0.115</v>
       </c>
       <c r="C28" t="n">
-        <v>5.227</v>
+        <v>1.569</v>
       </c>
       <c r="D28" t="n">
-        <v>2.903</v>
+        <v>1.109</v>
       </c>
       <c r="E28" t="n">
-        <v>1.704</v>
+        <v>1.053</v>
       </c>
       <c r="F28" t="n">
-        <v>1.704</v>
+        <v>1.028</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Ensemble352</t>
+          <t>NN250</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2</v>
+        <v>0.078</v>
       </c>
       <c r="C29" t="n">
-        <v>1.036</v>
+        <v>1.593</v>
       </c>
       <c r="D29" t="n">
-        <v>0.025</v>
+        <v>1.155</v>
       </c>
       <c r="E29" t="n">
-        <v>0.158</v>
+        <v>1.075</v>
       </c>
       <c r="F29" t="n">
-        <v>0.329</v>
+        <v>1.067</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>LR354</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-13.154</v>
+        <v>0.226</v>
       </c>
       <c r="C30" t="n">
-        <v>1.643</v>
+        <v>3.322</v>
       </c>
       <c r="D30" t="n">
-        <v>0.383</v>
+        <v>0.97</v>
       </c>
       <c r="E30" t="n">
-        <v>0.619</v>
+        <v>0.985</v>
       </c>
       <c r="F30" t="n">
-        <v>0.553</v>
+        <v>1.019</v>
       </c>
       <c r="G30" t="n">
-        <v>-1</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>RF354</t>
+          <t>Ensemble250</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-87.155</v>
+        <v>0.315</v>
       </c>
       <c r="C31" t="n">
-        <v>5.007</v>
+        <v>1.44</v>
       </c>
       <c r="D31" t="n">
-        <v>2.383</v>
+        <v>0.858</v>
       </c>
       <c r="E31" t="n">
-        <v>1.544</v>
+        <v>0.926</v>
       </c>
       <c r="F31" t="n">
-        <v>1.53</v>
+        <v>1.023</v>
       </c>
       <c r="G31" t="n">
-        <v>-1</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>NN354</t>
+          <t>LR260</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-44.888</v>
+        <v>0.137</v>
       </c>
       <c r="C32" t="n">
-        <v>3.086</v>
+        <v>1.555</v>
       </c>
       <c r="D32" t="n">
-        <v>1.24</v>
+        <v>0.296</v>
       </c>
       <c r="E32" t="n">
-        <v>1.114</v>
+        <v>0.544</v>
       </c>
       <c r="F32" t="n">
-        <v>1.112</v>
+        <v>0.584</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Ensemble354</t>
+          <t>RF260</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-51.912</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>3.405</v>
+        <v>1.643</v>
       </c>
       <c r="D33" t="n">
-        <v>1.43</v>
+        <v>0.343</v>
       </c>
       <c r="E33" t="n">
-        <v>1.196</v>
+        <v>0.586</v>
       </c>
       <c r="F33" t="n">
-        <v>1.155</v>
+        <v>0.62</v>
       </c>
       <c r="G33" t="n">
-        <v>-1</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>LR356</t>
+          <t>NN260</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-34.026</v>
+        <v>-1.171</v>
       </c>
       <c r="C34" t="n">
-        <v>2.592</v>
+        <v>2.396</v>
       </c>
       <c r="D34" t="n">
-        <v>1.191</v>
+        <v>0.744</v>
       </c>
       <c r="E34" t="n">
-        <v>1.091</v>
+        <v>0.863</v>
       </c>
       <c r="F34" t="n">
-        <v>0.98</v>
+        <v>0.778</v>
       </c>
       <c r="G34" t="n">
-        <v>-1</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>RF356</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-69.244</v>
+        <v>-0.336</v>
       </c>
       <c r="C35" t="n">
-        <v>4.193</v>
+        <v>5.008</v>
       </c>
       <c r="D35" t="n">
-        <v>2.388</v>
+        <v>0.458</v>
       </c>
       <c r="E35" t="n">
-        <v>1.545</v>
+        <v>0.677</v>
       </c>
       <c r="F35" t="n">
-        <v>1.545</v>
+        <v>0.612</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>NN356</t>
+          <t>Ensemble260</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-58.72</v>
+        <v>0.247</v>
       </c>
       <c r="C36" t="n">
-        <v>3.715</v>
+        <v>1.484</v>
       </c>
       <c r="D36" t="n">
-        <v>2.03</v>
+        <v>0.258</v>
       </c>
       <c r="E36" t="n">
-        <v>1.425</v>
+        <v>0.508</v>
       </c>
       <c r="F36" t="n">
-        <v>1.402</v>
+        <v>0.538</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Ensemble356</t>
+          <t>LR270</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-65.669</v>
+        <v>0.346</v>
       </c>
       <c r="C37" t="n">
-        <v>4.03</v>
+        <v>1.42</v>
       </c>
       <c r="D37" t="n">
-        <v>2.266</v>
+        <v>0.763</v>
       </c>
       <c r="E37" t="n">
-        <v>1.505</v>
+        <v>0.873</v>
       </c>
       <c r="F37" t="n">
-        <v>1.492</v>
+        <v>0.995</v>
       </c>
       <c r="G37" t="n">
-        <v>-1</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>LR358</t>
+          <t>RF270</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.922</v>
+        <v>0.227</v>
       </c>
       <c r="C38" t="n">
-        <v>1.004</v>
+        <v>1.497</v>
       </c>
       <c r="D38" t="n">
-        <v>0.012</v>
+        <v>0.902</v>
       </c>
       <c r="E38" t="n">
-        <v>0.11</v>
+        <v>0.95</v>
       </c>
       <c r="F38" t="n">
-        <v>0.486</v>
+        <v>1.035</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RF358</t>
+          <t>NN270</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.439</v>
+        <v>0.328</v>
       </c>
       <c r="C39" t="n">
-        <v>1.065</v>
+        <v>1.432</v>
       </c>
       <c r="D39" t="n">
-        <v>0.227</v>
+        <v>0.784</v>
       </c>
       <c r="E39" t="n">
-        <v>0.476</v>
+        <v>0.885</v>
       </c>
       <c r="F39" t="n">
-        <v>0.523</v>
+        <v>0.969</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>NN358</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.241</v>
+        <v>0.453</v>
       </c>
       <c r="C40" t="n">
-        <v>1.056</v>
+        <v>2.641</v>
       </c>
       <c r="D40" t="n">
-        <v>0.196</v>
+        <v>0.638</v>
       </c>
       <c r="E40" t="n">
-        <v>0.443</v>
+        <v>0.799</v>
       </c>
       <c r="F40" t="n">
-        <v>0.397</v>
+        <v>0.986</v>
       </c>
       <c r="G40" t="n">
-        <v>-1</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Ensemble358</t>
+          <t>Ensemble270</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.828</v>
+        <v>0.257</v>
       </c>
       <c r="C41" t="n">
-        <v>1.008</v>
+        <v>1.478</v>
       </c>
       <c r="D41" t="n">
-        <v>0.027</v>
+        <v>0.867</v>
       </c>
       <c r="E41" t="n">
-        <v>0.164</v>
+        <v>0.931</v>
       </c>
       <c r="F41" t="n">
-        <v>0.397</v>
+        <v>0.986</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>LR360</t>
+          <t>LR280</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-2</v>
+        <v>0.374</v>
       </c>
       <c r="C42" t="n">
-        <v>1.136</v>
+        <v>1.402</v>
       </c>
       <c r="D42" t="n">
-        <v>1.966</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>1.402</v>
+        <v>0.749</v>
       </c>
       <c r="F42" t="n">
-        <v>1.264</v>
+        <v>0.905</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>RF360</t>
+          <t>RF280</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-2.581</v>
+        <v>0.045</v>
       </c>
       <c r="C43" t="n">
-        <v>1.163</v>
+        <v>1.614</v>
       </c>
       <c r="D43" t="n">
-        <v>2.347</v>
+        <v>0.856</v>
       </c>
       <c r="E43" t="n">
-        <v>1.532</v>
+        <v>0.925</v>
       </c>
       <c r="F43" t="n">
-        <v>1.335</v>
+        <v>0.901</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>NN360</t>
+          <t>NN280</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="C44" t="n">
-        <v>1.033</v>
+        <v>1.469</v>
       </c>
       <c r="D44" t="n">
-        <v>0.478</v>
+        <v>0.653</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.926</v>
+        <v>1.063</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Ensemble360</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1.95</v>
+        <v>0.47</v>
       </c>
       <c r="C45" t="n">
-        <v>1.134</v>
+        <v>2.59</v>
       </c>
       <c r="D45" t="n">
-        <v>1.933</v>
+        <v>0.475</v>
       </c>
       <c r="E45" t="n">
-        <v>1.39</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>1.188</v>
+        <v>0.888</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>LR362</t>
+          <t>Ensemble280</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.764</v>
+        <v>0.251</v>
       </c>
       <c r="C46" t="n">
-        <v>1.011</v>
+        <v>1.482</v>
       </c>
       <c r="D46" t="n">
-        <v>0.017</v>
+        <v>0.672</v>
       </c>
       <c r="E46" t="n">
-        <v>0.13</v>
+        <v>0.82</v>
       </c>
       <c r="F46" t="n">
-        <v>0.333</v>
+        <v>0.885</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>RF362</t>
+          <t>LR290</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-40.155</v>
+        <v>0.133</v>
       </c>
       <c r="C47" t="n">
-        <v>2.871</v>
+        <v>1.557</v>
       </c>
       <c r="D47" t="n">
-        <v>2.923</v>
+        <v>0.547</v>
       </c>
       <c r="E47" t="n">
-        <v>1.71</v>
+        <v>0.74</v>
       </c>
       <c r="F47" t="n">
-        <v>1.192</v>
+        <v>0.788</v>
       </c>
       <c r="G47" t="n">
-        <v>-1</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>NN362</t>
+          <t>RF290</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-34.794</v>
+        <v>0.109</v>
       </c>
       <c r="C48" t="n">
-        <v>2.627</v>
+        <v>1.573</v>
       </c>
       <c r="D48" t="n">
-        <v>2.542</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>1.594</v>
+        <v>0.75</v>
       </c>
       <c r="F48" t="n">
-        <v>1.593</v>
+        <v>0.759</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Ensemble362</t>
+          <t>NN290</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-5.2</v>
+        <v>0.372</v>
       </c>
       <c r="C49" t="n">
-        <v>1.282</v>
+        <v>1.404</v>
       </c>
       <c r="D49" t="n">
-        <v>0.44</v>
+        <v>0.396</v>
       </c>
       <c r="E49" t="n">
-        <v>0.663</v>
+        <v>0.629</v>
       </c>
       <c r="F49" t="n">
-        <v>0.462</v>
+        <v>0.883</v>
       </c>
       <c r="G49" t="n">
-        <v>-1</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>LR364</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1645.986</v>
+        <v>0.569</v>
       </c>
       <c r="C50" t="n">
-        <v>75.863</v>
+        <v>2.293</v>
       </c>
       <c r="D50" t="n">
-        <v>17.863</v>
+        <v>0.272</v>
       </c>
       <c r="E50" t="n">
-        <v>4.226</v>
+        <v>0.522</v>
       </c>
       <c r="F50" t="n">
-        <v>3.69</v>
+        <v>0.966</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>RF364</t>
+          <t>Ensemble290</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-245.1</v>
+        <v>0.224</v>
       </c>
       <c r="C51" t="n">
-        <v>12.186</v>
+        <v>1.499</v>
       </c>
       <c r="D51" t="n">
-        <v>2.669</v>
+        <v>0.489</v>
       </c>
       <c r="E51" t="n">
-        <v>1.634</v>
+        <v>0.699</v>
       </c>
       <c r="F51" t="n">
-        <v>1.622</v>
+        <v>0.741</v>
       </c>
       <c r="G51" t="n">
-        <v>-1</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>NN364</t>
+          <t>LR300</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1420.105</v>
+        <v>0.006</v>
       </c>
       <c r="C52" t="n">
-        <v>65.596</v>
+        <v>1.639</v>
       </c>
       <c r="D52" t="n">
-        <v>15.413</v>
+        <v>0.3</v>
       </c>
       <c r="E52" t="n">
-        <v>3.926</v>
+        <v>0.548</v>
       </c>
       <c r="F52" t="n">
-        <v>3.643</v>
+        <v>0.582</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Ensemble364</t>
+          <t>RF300</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-665.952</v>
+        <v>0.007</v>
       </c>
       <c r="C53" t="n">
-        <v>31.316</v>
+        <v>1.638</v>
       </c>
       <c r="D53" t="n">
-        <v>7.234</v>
+        <v>0.3</v>
       </c>
       <c r="E53" t="n">
-        <v>2.69</v>
+        <v>0.548</v>
       </c>
       <c r="F53" t="n">
-        <v>2.623</v>
+        <v>0.599</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>LR366</t>
+          <t>NN300</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.878</v>
+        <v>-1.956</v>
       </c>
       <c r="C54" t="n">
-        <v>1.131</v>
+        <v>2.9</v>
       </c>
       <c r="D54" t="n">
-        <v>3.641</v>
+        <v>0.893</v>
       </c>
       <c r="E54" t="n">
-        <v>1.908</v>
+        <v>0.945</v>
       </c>
       <c r="F54" t="n">
-        <v>1.326</v>
+        <v>0.782</v>
       </c>
       <c r="G54" t="n">
-        <v>-1</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>RF366</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-1.133</v>
+        <v>-0.551</v>
       </c>
       <c r="C55" t="n">
-        <v>1.097</v>
+        <v>5.653</v>
       </c>
       <c r="D55" t="n">
-        <v>2.698</v>
+        <v>0.469</v>
       </c>
       <c r="E55" t="n">
-        <v>1.643</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>1.271</v>
+        <v>0.581</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>NN366</t>
+          <t>Ensemble300</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-1.508</v>
+        <v>0.185</v>
       </c>
       <c r="C56" t="n">
-        <v>1.114</v>
+        <v>1.524</v>
       </c>
       <c r="D56" t="n">
-        <v>3.173</v>
+        <v>0.246</v>
       </c>
       <c r="E56" t="n">
-        <v>1.781</v>
+        <v>0.496</v>
       </c>
       <c r="F56" t="n">
-        <v>1.125</v>
+        <v>0.54</v>
       </c>
       <c r="G56" t="n">
-        <v>-1</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Ensemble366</t>
+          <t>LR310</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-1.776</v>
+        <v>-0.411</v>
       </c>
       <c r="C57" t="n">
-        <v>1.126</v>
+        <v>1.907</v>
       </c>
       <c r="D57" t="n">
-        <v>3.511</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>1.874</v>
+        <v>0.83</v>
       </c>
       <c r="F57" t="n">
-        <v>1.325</v>
+        <v>0.751</v>
       </c>
       <c r="G57" t="n">
-        <v>-1</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>LR368</t>
+          <t>RF310</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-53.217</v>
+        <v>-0.367</v>
       </c>
       <c r="C58" t="n">
-        <v>3.464</v>
+        <v>1.879</v>
       </c>
       <c r="D58" t="n">
-        <v>8.359999999999999</v>
+        <v>0.667</v>
       </c>
       <c r="E58" t="n">
-        <v>2.891</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>2.845</v>
+        <v>0.763</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>RF368</t>
+          <t>NN310</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-20.823</v>
+        <v>0.08</v>
       </c>
       <c r="C59" t="n">
-        <v>1.992</v>
+        <v>1.591</v>
       </c>
       <c r="D59" t="n">
-        <v>3.365</v>
+        <v>0.449</v>
       </c>
       <c r="E59" t="n">
-        <v>1.834</v>
+        <v>0.67</v>
       </c>
       <c r="F59" t="n">
-        <v>1.768</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>-1</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>NN368</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-16.057</v>
+        <v>0.405</v>
       </c>
       <c r="C60" t="n">
-        <v>1.775</v>
+        <v>2.785</v>
       </c>
       <c r="D60" t="n">
-        <v>2.63</v>
+        <v>0.291</v>
       </c>
       <c r="E60" t="n">
-        <v>1.622</v>
+        <v>0.539</v>
       </c>
       <c r="F60" t="n">
-        <v>1.62</v>
+        <v>0.702</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Ensemble368</t>
+          <t>Ensemble310</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-35.619</v>
+        <v>-0.122</v>
       </c>
       <c r="C61" t="n">
-        <v>2.665</v>
+        <v>1.721</v>
       </c>
       <c r="D61" t="n">
-        <v>5.647</v>
+        <v>0.547</v>
       </c>
       <c r="E61" t="n">
-        <v>2.376</v>
+        <v>0.74</v>
       </c>
       <c r="F61" t="n">
-        <v>2.375</v>
+        <v>0.703</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>LR370</t>
+          <t>LR320</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-1788.294</v>
+        <v>0.418</v>
       </c>
       <c r="C62" t="n">
-        <v>82.33199999999999</v>
+        <v>1.374</v>
       </c>
       <c r="D62" t="n">
-        <v>2.093</v>
+        <v>0.291</v>
       </c>
       <c r="E62" t="n">
-        <v>1.447</v>
+        <v>0.539</v>
       </c>
       <c r="F62" t="n">
-        <v>1.096</v>
+        <v>0.664</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>RF370</t>
+          <t>RF320</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1783.864</v>
+        <v>0.608</v>
       </c>
       <c r="C63" t="n">
-        <v>82.13</v>
+        <v>1.252</v>
       </c>
       <c r="D63" t="n">
-        <v>2.088</v>
+        <v>0.196</v>
       </c>
       <c r="E63" t="n">
-        <v>1.445</v>
+        <v>0.443</v>
       </c>
       <c r="F63" t="n">
-        <v>1.168</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>NN370</t>
+          <t>NN320</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-674.98</v>
+        <v>-1.248</v>
       </c>
       <c r="C64" t="n">
-        <v>31.726</v>
+        <v>2.445</v>
       </c>
       <c r="D64" t="n">
-        <v>0.791</v>
+        <v>1.124</v>
       </c>
       <c r="E64" t="n">
-        <v>0.889</v>
+        <v>1.06</v>
       </c>
       <c r="F64" t="n">
-        <v>0.889</v>
+        <v>0.709</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>-0.496</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Ensemble370</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-998.835</v>
+        <v>-0.188</v>
       </c>
       <c r="C65" t="n">
-        <v>46.447</v>
+        <v>4.564</v>
       </c>
       <c r="D65" t="n">
-        <v>1.17</v>
+        <v>0.594</v>
       </c>
       <c r="E65" t="n">
-        <v>1.082</v>
+        <v>0.771</v>
       </c>
       <c r="F65" t="n">
-        <v>0.859</v>
+        <v>0.653</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>LR372</t>
+          <t>Ensemble320</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-2.572</v>
+        <v>0.439</v>
       </c>
       <c r="C66" t="n">
-        <v>1.162</v>
+        <v>1.361</v>
       </c>
       <c r="D66" t="n">
-        <v>0.272</v>
+        <v>0.281</v>
       </c>
       <c r="E66" t="n">
-        <v>0.522</v>
+        <v>0.53</v>
       </c>
       <c r="F66" t="n">
-        <v>0.504</v>
+        <v>0.633</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>RF372</t>
+          <t>LR330</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-4.086</v>
+        <v>0.441</v>
       </c>
       <c r="C67" t="n">
-        <v>1.231</v>
+        <v>1.359</v>
       </c>
       <c r="D67" t="n">
-        <v>0.387</v>
+        <v>0.22</v>
       </c>
       <c r="E67" t="n">
-        <v>0.622</v>
+        <v>0.469</v>
       </c>
       <c r="F67" t="n">
-        <v>0.714</v>
+        <v>0.62</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>NN372</t>
+          <t>RF330</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.188</v>
+        <v>0.545</v>
       </c>
       <c r="C68" t="n">
-        <v>1.054</v>
+        <v>1.292</v>
       </c>
       <c r="D68" t="n">
-        <v>0.09</v>
+        <v>0.179</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3</v>
+        <v>0.423</v>
       </c>
       <c r="F68" t="n">
-        <v>0.306</v>
+        <v>0.653</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Ensemble372</t>
+          <t>NN330</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-4.821</v>
+        <v>0.235</v>
       </c>
       <c r="C69" t="n">
-        <v>1.265</v>
+        <v>1.492</v>
       </c>
       <c r="D69" t="n">
-        <v>0.443</v>
+        <v>0.301</v>
       </c>
       <c r="E69" t="n">
-        <v>0.666</v>
+        <v>0.549</v>
       </c>
       <c r="F69" t="n">
-        <v>0.665</v>
+        <v>0.61</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>LR374</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-11.46</v>
+        <v>0.499</v>
       </c>
       <c r="C70" t="n">
-        <v>1.566</v>
+        <v>2.503</v>
       </c>
       <c r="D70" t="n">
-        <v>1.108</v>
+        <v>0.197</v>
       </c>
       <c r="E70" t="n">
-        <v>1.053</v>
+        <v>0.444</v>
       </c>
       <c r="F70" t="n">
-        <v>0.988</v>
+        <v>0.553</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>RF374</t>
+          <t>Ensemble330</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-19.217</v>
+        <v>0.523</v>
       </c>
       <c r="C71" t="n">
-        <v>1.919</v>
+        <v>1.307</v>
       </c>
       <c r="D71" t="n">
-        <v>1.798</v>
+        <v>0.188</v>
       </c>
       <c r="E71" t="n">
-        <v>1.341</v>
+        <v>0.434</v>
       </c>
       <c r="F71" t="n">
-        <v>1.588</v>
+        <v>0.58</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>NN374</t>
+          <t>LR340</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-10.498</v>
+        <v>-1.746</v>
       </c>
       <c r="C72" t="n">
-        <v>1.523</v>
+        <v>2.765</v>
       </c>
       <c r="D72" t="n">
-        <v>1.023</v>
+        <v>2.808</v>
       </c>
       <c r="E72" t="n">
-        <v>1.011</v>
+        <v>1.676</v>
       </c>
       <c r="F72" t="n">
-        <v>0.953</v>
+        <v>1.287</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Ensemble374</t>
+          <t>RF340</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-13.425</v>
+        <v>-0.139</v>
       </c>
       <c r="C73" t="n">
-        <v>1.656</v>
+        <v>1.732</v>
       </c>
       <c r="D73" t="n">
-        <v>1.283</v>
+        <v>1.165</v>
       </c>
       <c r="E73" t="n">
-        <v>1.133</v>
+        <v>1.079</v>
       </c>
       <c r="F73" t="n">
-        <v>1.052</v>
+        <v>0.879</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>LRavg</t>
+          <t>NN340</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-636.8617222222223</v>
+        <v>-0.142</v>
       </c>
       <c r="C74" t="n">
-        <v>29.99366666666667</v>
+        <v>1.734</v>
       </c>
       <c r="D74" t="n">
-        <v>178.4007222222222</v>
+        <v>1.168</v>
       </c>
       <c r="E74" t="n">
-        <v>5.938111111111111</v>
+        <v>1.081</v>
       </c>
       <c r="F74" t="n">
-        <v>5.10488888888889</v>
+        <v>0.903</v>
       </c>
       <c r="G74" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>RFavg</t>
+          <t>RNN</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-127.9567222222222</v>
+        <v>-1.465</v>
       </c>
       <c r="C75" t="n">
-        <v>6.861666666666666</v>
+        <v>8.395</v>
       </c>
       <c r="D75" t="n">
-        <v>1.696444444444444</v>
+        <v>2.521</v>
       </c>
       <c r="E75" t="n">
-        <v>1.157555555555556</v>
+        <v>1.588</v>
       </c>
       <c r="F75" t="n">
-        <v>1.086166666666667</v>
+        <v>1.255</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>NNavg</t>
+          <t>Ensemble340</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-136.0275</v>
+        <v>-0.415</v>
       </c>
       <c r="C76" t="n">
-        <v>7.228555555555555</v>
+        <v>1.91</v>
       </c>
       <c r="D76" t="n">
-        <v>2.097611111111112</v>
+        <v>1.447</v>
       </c>
       <c r="E76" t="n">
-        <v>1.192777777777778</v>
+        <v>1.203</v>
       </c>
       <c r="F76" t="n">
-        <v>1.222555555555556</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Ensembleavg</t>
+          <t>LR340</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-153.2339444444445</v>
+        <v>-10.929</v>
       </c>
       <c r="C77" t="n">
-        <v>8.01061111111111</v>
+        <v>1.542</v>
       </c>
       <c r="D77" t="n">
-        <v>23.42438888888888</v>
+        <v>0.324</v>
       </c>
       <c r="E77" t="n">
-        <v>2.561333333333333</v>
+        <v>0.569</v>
       </c>
       <c r="F77" t="n">
-        <v>2.263444444444445</v>
+        <v>0.379</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1111111111111111</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>RF340</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-2.325</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>NN340</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-26.697</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-10.206</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.019</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble340</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-7.57</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>LR342</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-4974.569</v>
+      </c>
+      <c r="C82" t="n">
+        <v>227.162</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2121.33</v>
+      </c>
+      <c r="E82" t="n">
+        <v>46.058</v>
+      </c>
+      <c r="F82" t="n">
+        <v>35.258</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>RF342</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-8.898</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2.054</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.989</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>NN342</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-14.076</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6.428</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-10.752</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.068</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.011</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.239</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2.143</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble342</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-643.796</v>
+      </c>
+      <c r="C86" t="n">
+        <v>30.309</v>
+      </c>
+      <c r="D86" t="n">
+        <v>274.908</v>
+      </c>
+      <c r="E86" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="F86" t="n">
+        <v>13.041</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>LR344</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-1532.713</v>
+      </c>
+      <c r="C87" t="n">
+        <v>70.714</v>
+      </c>
+      <c r="D87" t="n">
+        <v>955.566</v>
+      </c>
+      <c r="E87" t="n">
+        <v>30.912</v>
+      </c>
+      <c r="F87" t="n">
+        <v>28.504</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>RF344</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-1.123</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.234</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>NN344</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-12.487</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.613</v>
+      </c>
+      <c r="D89" t="n">
+        <v>8.403</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2.559</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-84.627</v>
+      </c>
+      <c r="C90" t="n">
+        <v>8.784000000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>53.349</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7.304</v>
+      </c>
+      <c r="F90" t="n">
+        <v>6.062</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble344</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-200.311</v>
+      </c>
+      <c r="C91" t="n">
+        <v>10.151</v>
+      </c>
+      <c r="D91" t="n">
+        <v>125.425</v>
+      </c>
+      <c r="E91" t="n">
+        <v>11.199</v>
+      </c>
+      <c r="F91" t="n">
+        <v>10.328</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>LR346</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-1184.095</v>
+      </c>
+      <c r="C92" t="n">
+        <v>54.868</v>
+      </c>
+      <c r="D92" t="n">
+        <v>90.131</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9.494</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9.494</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>RF346</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-2.888</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.177</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>NN346</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-12.602</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-17.912</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.719</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.268</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble346</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-115.067</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.276</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8.827</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>LR348</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-53.575</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.046</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>RF348</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-2.161</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>NN348</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-23.87</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-168.628</v>
+      </c>
+      <c r="C100" t="n">
+        <v>16.421</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.399</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble348</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-1.624</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>LR350</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-46.048</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.541</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>RF350</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-2.061</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.394</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>NN350</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-1.692</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-2.871</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.352</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble350</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-5.369</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.289</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>LR352</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-110.681</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.076</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.487</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>RF352</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-8.531000000000001</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.546</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>NN352</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-52.62</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.437</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-14.533</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.412</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble352</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.736</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>LR354</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-13.154</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.643</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>RF354</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-84.004</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4.864</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.297</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>NN354</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-2.373</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-427.406</v>
+      </c>
+      <c r="C115" t="n">
+        <v>39.946</v>
+      </c>
+      <c r="D115" t="n">
+        <v>11.578</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.403</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.599</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble354</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-56.886</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.631</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.251</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>LR356</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-34.026</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.592</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.091</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>RF356</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-76.87</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.647</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.627</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>NN356</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-3.248</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.193</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-67.245</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.204</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble356</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-49.23</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3.283</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.307</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>LR358</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>RF358</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-0.394</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>NN358</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-14.271</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.694</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.411</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-5.528</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble358</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-0.093</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>LR360</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>RF360</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-2.991</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.181</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.616</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>NN360</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble360</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-2.069</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.012</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.192</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>LR362</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>RF362</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-29.726</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.477</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>NN362</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-2.377</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.411</v>
+      </c>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-765.037</v>
+      </c>
+      <c r="C135" t="n">
+        <v>70.64</v>
+      </c>
+      <c r="D135" t="n">
+        <v>54.404</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7.376</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6.165</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble362</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-4.823</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>LR364</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-1645.986</v>
+      </c>
+      <c r="C137" t="n">
+        <v>75.863</v>
+      </c>
+      <c r="D137" t="n">
+        <v>17.863</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.226</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>RF364</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-271.718</v>
+      </c>
+      <c r="C138" t="n">
+        <v>13.396</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.958</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.706</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>NN364</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-172.012</v>
+      </c>
+      <c r="C139" t="n">
+        <v>8.864000000000001</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.876</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.366</v>
+      </c>
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-1001.464</v>
+      </c>
+      <c r="C140" t="n">
+        <v>92.133</v>
+      </c>
+      <c r="D140" t="n">
+        <v>10.873</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.297</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.874</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble364</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-637.718</v>
+      </c>
+      <c r="C141" t="n">
+        <v>30.033</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.927</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.512</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>LR366</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-1.878</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3.641</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>RF366</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-1.126</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.689</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>NN366</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.347</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.161</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-4.373</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.795</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.607</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2.607</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble366</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-1.756</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3.486</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>LR368</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-53.217</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>RF368</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-17.511</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.841</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2.854</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.689</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.654</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>NN368</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-4.759</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.262</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.857</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-106.947</v>
+      </c>
+      <c r="C150" t="n">
+        <v>10.813</v>
+      </c>
+      <c r="D150" t="n">
+        <v>16.645</v>
+      </c>
+      <c r="E150" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble368</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-37.369</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.744</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.916</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.432</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>LR370</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-1788.294</v>
+      </c>
+      <c r="C152" t="n">
+        <v>82.33199999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>RF370</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-1776.335</v>
+      </c>
+      <c r="C153" t="n">
+        <v>81.788</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>NN370</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-11121.41</v>
+      </c>
+      <c r="C154" t="n">
+        <v>506.564</v>
+      </c>
+      <c r="D154" t="n">
+        <v>13.013</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.607</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3.607</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-10682.119</v>
+      </c>
+      <c r="C155" t="n">
+        <v>972.193</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12.499</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble370</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-2468.688</v>
+      </c>
+      <c r="C156" t="n">
+        <v>113.259</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>LR372</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-2.572</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>RF372</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-3.426</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>NN372</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.057</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-770.99</v>
+      </c>
+      <c r="C160" t="n">
+        <v>71.181</v>
+      </c>
+      <c r="D160" t="n">
+        <v>58.755</v>
+      </c>
+      <c r="E160" t="n">
+        <v>7.665</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7.387</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble372</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-2.461</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>LR374</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-11.46</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>RF374</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-22.689</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.107</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>NN374</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>-22.686</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="D164" t="n">
+        <v>2.107</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-1425.651</v>
+      </c>
+      <c r="C165" t="n">
+        <v>130.696</v>
+      </c>
+      <c r="D165" t="n">
+        <v>126.881</v>
+      </c>
+      <c r="E165" t="n">
+        <v>11.264</v>
+      </c>
+      <c r="F165" t="n">
+        <v>10.663</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble374</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>-15.56</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.753</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>LR376</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>-28.328</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3.579</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>RF376</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>-17.246</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2.227</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>NN376</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-39.314</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.218</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>RNN</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-689.691</v>
+      </c>
+      <c r="C170" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="D170" t="n">
+        <v>84.29600000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.180999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Ensemble376</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-17.898</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2.306</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>Pre2020LRavg</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.1118666666666667</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.714666666666667</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.022666666666667</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.8994666666666666</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.9151999999999999</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.4269333333333333</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>Pre2020RFavg</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.0402</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.9876666666666668</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.8738</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.8831333333333333</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.5176666666666666</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>Pre2020NNavg</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.4179333333333333</v>
+      </c>
+      <c r="C174" t="n">
+        <v>3.350733333333333</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.184566666666667</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.9484333333333332</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.3671333333333333</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>Pre2020RNNavg</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.2211333333333333</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.663399999999999</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.163266666666666</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.9339333333333336</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.9127333333333333</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.4172666666666667</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>Pre2020Ensembleavg</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.581266666666667</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.9676666666666669</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.8541333333333333</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.8467999999999999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.4808666666666666</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>Post2020LRavg</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>-604.8336315789473</v>
+      </c>
+      <c r="C177" t="n">
+        <v>28.53784210526316</v>
+      </c>
+      <c r="D177" t="n">
+        <v>169.1995789473685</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.725157894736841</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4.915526315789475</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>Post2020RFavg</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>-122.738052631579</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6.624421052631578</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.66621052631579</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.155842105263158</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1.057263157894737</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>Post2020NNavg</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>-731.1139736842106</v>
+      </c>
+      <c r="C179" t="n">
+        <v>53.74447368421053</v>
+      </c>
+      <c r="D179" t="n">
+        <v>13.0876052631579</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.472368421052632</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.258578947368421</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>Post2020RNNavg</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>-855.5323157894737</v>
+      </c>
+      <c r="C180" t="n">
+        <v>78.86652631578947</v>
+      </c>
+      <c r="D180" t="n">
+        <v>23.70247368421052</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.658894736842106</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3.314157894736842</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>Post2020Ensembleavg</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>-224.6854736842106</v>
+      </c>
+      <c r="C181" t="n">
+        <v>11.25852631578947</v>
+      </c>
+      <c r="D181" t="n">
+        <v>23.10273684210526</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.588105263157894</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2.259210526315789</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>TotalLRAvg</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>-100.8988274853801</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.185195906432749</v>
+      </c>
+      <c r="D182" t="n">
+        <v>29.05215204678363</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.703748538011696</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.581921052631579</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.382093567251462</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>TotalRFAvg</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>-20.42284210526316</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.451570175438597</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.100757309941521</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.9208070175438596</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.9121549707602338</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.4752485380116958</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>TotalNNAvg</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>-122.2006067251462</v>
+      </c>
+      <c r="C184" t="n">
+        <v>11.74969005847953</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3.168406432748538</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1.219394736842105</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.166790935672515</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.2948333333333333</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>TotalRNNAvg</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>-142.7729970760234</v>
+      </c>
+      <c r="C185" t="n">
+        <v>17.03058771929824</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.919801169590643</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1.388093567251462</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.312970760233918</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.3915818713450292</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>TotalEnsembleAvg</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>-37.36757894736844</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.194143274853801</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.656845029239766</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.14312865497076</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.082201754385965</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.4094941520467836</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics/rollingTestMetrics.xlsx
+++ b/Metrics/rollingTestMetrics.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.248</v>
+        <v>0.237</v>
       </c>
       <c r="C2" t="n">
-        <v>1.483</v>
+        <v>1.49</v>
       </c>
       <c r="D2" t="n">
-        <v>5.192</v>
+        <v>5.263</v>
       </c>
       <c r="E2" t="n">
-        <v>2.279</v>
+        <v>2.294</v>
       </c>
       <c r="F2" t="n">
-        <v>2.347</v>
+        <v>2.388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.714</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.107</v>
+        <v>0.181</v>
       </c>
       <c r="C3" t="n">
-        <v>1.574</v>
+        <v>1.526</v>
       </c>
       <c r="D3" t="n">
-        <v>6.159</v>
+        <v>5.65</v>
       </c>
       <c r="E3" t="n">
-        <v>2.482</v>
+        <v>2.377</v>
       </c>
       <c r="F3" t="n">
         <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.655</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.394</v>
+        <v>0.238</v>
       </c>
       <c r="C4" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="D4" t="n">
-        <v>4.181</v>
+        <v>5.259</v>
       </c>
       <c r="E4" t="n">
-        <v>2.045</v>
+        <v>2.293</v>
       </c>
       <c r="F4" t="n">
-        <v>2.821</v>
+        <v>2.558</v>
       </c>
       <c r="G4" t="n">
-        <v>0.796</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="5">
@@ -547,47 +547,47 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.004</v>
+        <v>0.239</v>
       </c>
       <c r="C5" t="n">
-        <v>4.012</v>
+        <v>3.283</v>
       </c>
       <c r="D5" t="n">
-        <v>6.928</v>
+        <v>5.254</v>
       </c>
       <c r="E5" t="n">
-        <v>2.632</v>
+        <v>2.292</v>
       </c>
       <c r="F5" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.313</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Ensemble200</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.079</v>
+        <v>0.149</v>
       </c>
       <c r="C6" t="n">
-        <v>1.592</v>
+        <v>1.547</v>
       </c>
       <c r="D6" t="n">
-        <v>6.357</v>
+        <v>5.873</v>
       </c>
       <c r="E6" t="n">
-        <v>2.521</v>
+        <v>2.423</v>
       </c>
       <c r="F6" t="n">
-        <v>2.268</v>
+        <v>2.279</v>
       </c>
       <c r="G6" t="n">
-        <v>0.736</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6919999999999999</v>
+        <v>-0.906</v>
       </c>
       <c r="C7" t="n">
-        <v>2.088</v>
+        <v>2.225</v>
       </c>
       <c r="D7" t="n">
-        <v>1.075</v>
+        <v>1.211</v>
       </c>
       <c r="E7" t="n">
-        <v>1.037</v>
+        <v>1.1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.74</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.144</v>
+        <v>-0.07099999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.156</v>
+        <v>-0.005</v>
       </c>
       <c r="C8" t="n">
-        <v>1.543</v>
+        <v>1.646</v>
       </c>
       <c r="D8" t="n">
-        <v>0.536</v>
+        <v>0.638</v>
       </c>
       <c r="E8" t="n">
-        <v>0.732</v>
+        <v>0.799</v>
       </c>
       <c r="F8" t="n">
-        <v>0.655</v>
+        <v>0.664</v>
       </c>
       <c r="G8" t="n">
-        <v>0.455</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-5.709</v>
+        <v>-2.665</v>
       </c>
       <c r="C9" t="n">
-        <v>5.313</v>
+        <v>3.356</v>
       </c>
       <c r="D9" t="n">
-        <v>4.261</v>
+        <v>2.328</v>
       </c>
       <c r="E9" t="n">
-        <v>2.064</v>
+        <v>1.526</v>
       </c>
       <c r="F9" t="n">
-        <v>1.357</v>
+        <v>0.988</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.492</v>
+        <v>-0.498</v>
       </c>
     </row>
     <row r="10">
@@ -672,47 +672,47 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.803</v>
+        <v>-0.246</v>
       </c>
       <c r="C10" t="n">
-        <v>9.409000000000001</v>
+        <v>4.738</v>
       </c>
       <c r="D10" t="n">
-        <v>1.78</v>
+        <v>0.791</v>
       </c>
       <c r="E10" t="n">
-        <v>1.334</v>
+        <v>0.889</v>
       </c>
       <c r="F10" t="n">
-        <v>0.952</v>
+        <v>0.71</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.17</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Ensemble210</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.205</v>
+        <v>-0.075</v>
       </c>
       <c r="C11" t="n">
-        <v>1.775</v>
+        <v>1.691</v>
       </c>
       <c r="D11" t="n">
-        <v>0.765</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.875</v>
+        <v>0.826</v>
       </c>
       <c r="F11" t="n">
-        <v>0.638</v>
+        <v>0.656</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.031</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.657</v>
+        <v>-2.652</v>
       </c>
       <c r="C12" t="n">
-        <v>2.708</v>
+        <v>3.348</v>
       </c>
       <c r="D12" t="n">
-        <v>0.464</v>
+        <v>0.637</v>
       </c>
       <c r="E12" t="n">
-        <v>0.681</v>
+        <v>0.798</v>
       </c>
       <c r="F12" t="n">
-        <v>0.513</v>
+        <v>0.628</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.167</v>
+        <v>-0.097</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.031</v>
+        <v>-1.156</v>
       </c>
       <c r="C13" t="n">
-        <v>2.306</v>
+        <v>2.386</v>
       </c>
       <c r="D13" t="n">
-        <v>0.354</v>
+        <v>0.376</v>
       </c>
       <c r="E13" t="n">
-        <v>0.595</v>
+        <v>0.613</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.528</v>
       </c>
       <c r="G13" t="n">
-        <v>0.33</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.753</v>
+        <v>-0.843</v>
       </c>
       <c r="C14" t="n">
-        <v>2.127</v>
+        <v>2.185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.306</v>
+        <v>0.321</v>
       </c>
       <c r="E14" t="n">
-        <v>0.553</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.396</v>
+        <v>0.525</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.211</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="15">
@@ -797,47 +797,47 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.962</v>
+        <v>-0.385</v>
       </c>
       <c r="C15" t="n">
-        <v>9.885999999999999</v>
+        <v>5.155</v>
       </c>
       <c r="D15" t="n">
-        <v>0.517</v>
+        <v>0.242</v>
       </c>
       <c r="E15" t="n">
-        <v>0.719</v>
+        <v>0.492</v>
       </c>
       <c r="F15" t="n">
-        <v>0.484</v>
+        <v>0.43</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.453</v>
+        <v>-0.003</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Ensemble220</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.877</v>
+        <v>-0.719</v>
       </c>
       <c r="C16" t="n">
-        <v>2.207</v>
+        <v>2.105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.328</v>
+        <v>0.3</v>
       </c>
       <c r="E16" t="n">
-        <v>0.573</v>
+        <v>0.548</v>
       </c>
       <c r="F16" t="n">
-        <v>0.453</v>
+        <v>0.432</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.215</v>
+        <v>-0.105</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.031</v>
+        <v>-0.096</v>
       </c>
       <c r="C17" t="n">
-        <v>1.623</v>
+        <v>1.705</v>
       </c>
       <c r="D17" t="n">
-        <v>0.761</v>
+        <v>0.861</v>
       </c>
       <c r="E17" t="n">
-        <v>0.872</v>
+        <v>0.928</v>
       </c>
       <c r="F17" t="n">
-        <v>0.917</v>
+        <v>0.971</v>
       </c>
       <c r="G17" t="n">
-        <v>0.535</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.099</v>
+        <v>-0.059</v>
       </c>
       <c r="C18" t="n">
-        <v>1.579</v>
+        <v>1.681</v>
       </c>
       <c r="D18" t="n">
-        <v>0.708</v>
+        <v>0.832</v>
       </c>
       <c r="E18" t="n">
-        <v>0.841</v>
+        <v>0.912</v>
       </c>
       <c r="F18" t="n">
-        <v>0.907</v>
+        <v>0.97</v>
       </c>
       <c r="G18" t="n">
-        <v>0.634</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.007</v>
+        <v>-0.208</v>
       </c>
       <c r="C19" t="n">
-        <v>1.638</v>
+        <v>1.777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.781</v>
+        <v>0.949</v>
       </c>
       <c r="E19" t="n">
-        <v>0.884</v>
+        <v>0.974</v>
       </c>
       <c r="F19" t="n">
-        <v>0.779</v>
+        <v>0.908</v>
       </c>
       <c r="G19" t="n">
-        <v>0.508</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="20">
@@ -922,47 +922,47 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.048</v>
+        <v>-0.206</v>
       </c>
       <c r="C20" t="n">
-        <v>4.144</v>
+        <v>4.618</v>
       </c>
       <c r="D20" t="n">
-        <v>0.823</v>
+        <v>0.947</v>
       </c>
       <c r="E20" t="n">
-        <v>0.907</v>
+        <v>0.973</v>
       </c>
       <c r="F20" t="n">
-        <v>0.823</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.552</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Ensemble230</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.179</v>
+        <v>0.029</v>
       </c>
       <c r="C21" t="n">
-        <v>1.528</v>
+        <v>1.624</v>
       </c>
       <c r="D21" t="n">
-        <v>0.645</v>
+        <v>0.763</v>
       </c>
       <c r="E21" t="n">
-        <v>0.803</v>
+        <v>0.873</v>
       </c>
       <c r="F21" t="n">
-        <v>0.858</v>
+        <v>0.863</v>
       </c>
       <c r="G21" t="n">
-        <v>0.598</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.283</v>
+        <v>0.254</v>
       </c>
       <c r="C22" t="n">
-        <v>1.461</v>
+        <v>1.48</v>
       </c>
       <c r="D22" t="n">
-        <v>0.636</v>
+        <v>0.661</v>
       </c>
       <c r="E22" t="n">
-        <v>0.797</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.967</v>
+        <v>1.025</v>
       </c>
       <c r="G22" t="n">
-        <v>0.577</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.122</v>
+        <v>0.202</v>
       </c>
       <c r="C23" t="n">
-        <v>1.564</v>
+        <v>1.513</v>
       </c>
       <c r="D23" t="n">
-        <v>0.779</v>
+        <v>0.707</v>
       </c>
       <c r="E23" t="n">
-        <v>0.883</v>
+        <v>0.841</v>
       </c>
       <c r="F23" t="n">
-        <v>0.946</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.714</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.007</v>
+        <v>0.119</v>
       </c>
       <c r="C24" t="n">
-        <v>1.647</v>
+        <v>1.566</v>
       </c>
       <c r="D24" t="n">
-        <v>0.892</v>
+        <v>0.781</v>
       </c>
       <c r="E24" t="n">
-        <v>0.944</v>
+        <v>0.884</v>
       </c>
       <c r="F24" t="n">
-        <v>0.956</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.552</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="25">
@@ -1047,47 +1047,47 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.418</v>
+        <v>0.082</v>
       </c>
       <c r="C25" t="n">
-        <v>2.746</v>
+        <v>3.754</v>
       </c>
       <c r="D25" t="n">
-        <v>0.516</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.718</v>
+        <v>0.902</v>
       </c>
       <c r="F25" t="n">
-        <v>0.877</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.731</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Ensemble240</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="C26" t="n">
-        <v>1.411</v>
+        <v>1.489</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.674</v>
       </c>
       <c r="E26" t="n">
-        <v>0.753</v>
+        <v>0.821</v>
       </c>
       <c r="F26" t="n">
-        <v>0.915</v>
+        <v>0.927</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.411</v>
+        <v>0.404</v>
       </c>
       <c r="C27" t="n">
-        <v>1.379</v>
+        <v>1.383</v>
       </c>
       <c r="D27" t="n">
-        <v>0.737</v>
+        <v>0.747</v>
       </c>
       <c r="E27" t="n">
-        <v>0.858</v>
+        <v>0.864</v>
       </c>
       <c r="F27" t="n">
-        <v>1.068</v>
+        <v>1.097</v>
       </c>
       <c r="G27" t="n">
-        <v>0.646</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.115</v>
+        <v>0.065</v>
       </c>
       <c r="C28" t="n">
-        <v>1.569</v>
+        <v>1.601</v>
       </c>
       <c r="D28" t="n">
-        <v>1.109</v>
+        <v>1.171</v>
       </c>
       <c r="E28" t="n">
-        <v>1.053</v>
+        <v>1.082</v>
       </c>
       <c r="F28" t="n">
-        <v>1.028</v>
+        <v>1.024</v>
       </c>
       <c r="G28" t="n">
-        <v>0.376</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.078</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>1.593</v>
+        <v>1.278</v>
       </c>
       <c r="D29" t="n">
-        <v>1.155</v>
+        <v>0.541</v>
       </c>
       <c r="E29" t="n">
-        <v>1.075</v>
+        <v>0.736</v>
       </c>
       <c r="F29" t="n">
-        <v>1.067</v>
+        <v>1.036</v>
       </c>
       <c r="G29" t="n">
-        <v>0.364</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="30">
@@ -1172,47 +1172,47 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.226</v>
+        <v>0.382</v>
       </c>
       <c r="C30" t="n">
-        <v>3.322</v>
+        <v>2.854</v>
       </c>
       <c r="D30" t="n">
-        <v>0.97</v>
+        <v>0.775</v>
       </c>
       <c r="E30" t="n">
-        <v>0.985</v>
+        <v>0.88</v>
       </c>
       <c r="F30" t="n">
-        <v>1.019</v>
+        <v>1.036</v>
       </c>
       <c r="G30" t="n">
-        <v>0.632</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Ensemble250</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.315</v>
+        <v>0.328</v>
       </c>
       <c r="C31" t="n">
-        <v>1.44</v>
+        <v>1.432</v>
       </c>
       <c r="D31" t="n">
-        <v>0.858</v>
+        <v>0.842</v>
       </c>
       <c r="E31" t="n">
-        <v>0.926</v>
+        <v>0.918</v>
       </c>
       <c r="F31" t="n">
         <v>1.023</v>
       </c>
       <c r="G31" t="n">
-        <v>0.627</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.137</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>1.555</v>
+        <v>1.588</v>
       </c>
       <c r="D32" t="n">
-        <v>0.296</v>
+        <v>0.313</v>
       </c>
       <c r="E32" t="n">
-        <v>0.544</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.584</v>
+        <v>0.615</v>
       </c>
       <c r="G32" t="n">
-        <v>0.467</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.124</v>
       </c>
       <c r="C33" t="n">
-        <v>1.643</v>
+        <v>1.563</v>
       </c>
       <c r="D33" t="n">
-        <v>0.343</v>
+        <v>0.3</v>
       </c>
       <c r="E33" t="n">
-        <v>0.586</v>
+        <v>0.548</v>
       </c>
       <c r="F33" t="n">
-        <v>0.62</v>
+        <v>0.603</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.171</v>
+        <v>-1.396</v>
       </c>
       <c r="C34" t="n">
-        <v>2.396</v>
+        <v>2.54</v>
       </c>
       <c r="D34" t="n">
-        <v>0.744</v>
+        <v>0.821</v>
       </c>
       <c r="E34" t="n">
-        <v>0.863</v>
+        <v>0.906</v>
       </c>
       <c r="F34" t="n">
-        <v>0.778</v>
+        <v>0.962</v>
       </c>
       <c r="G34" t="n">
-        <v>0.183</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="35">
@@ -1297,47 +1297,47 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.336</v>
+        <v>0.007</v>
       </c>
       <c r="C35" t="n">
-        <v>5.008</v>
+        <v>3.979</v>
       </c>
       <c r="D35" t="n">
-        <v>0.458</v>
+        <v>0.34</v>
       </c>
       <c r="E35" t="n">
-        <v>0.677</v>
+        <v>0.583</v>
       </c>
       <c r="F35" t="n">
-        <v>0.612</v>
+        <v>0.591</v>
       </c>
       <c r="G35" t="n">
-        <v>0.211</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ensemble260</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.247</v>
+        <v>0.328</v>
       </c>
       <c r="C36" t="n">
-        <v>1.484</v>
+        <v>1.432</v>
       </c>
       <c r="D36" t="n">
-        <v>0.258</v>
+        <v>0.23</v>
       </c>
       <c r="E36" t="n">
-        <v>0.508</v>
+        <v>0.48</v>
       </c>
       <c r="F36" t="n">
-        <v>0.538</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.618</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.346</v>
+        <v>0.312</v>
       </c>
       <c r="C37" t="n">
-        <v>1.42</v>
+        <v>1.442</v>
       </c>
       <c r="D37" t="n">
-        <v>0.763</v>
+        <v>0.802</v>
       </c>
       <c r="E37" t="n">
-        <v>0.873</v>
+        <v>0.896</v>
       </c>
       <c r="F37" t="n">
-        <v>0.995</v>
+        <v>1.007</v>
       </c>
       <c r="G37" t="n">
-        <v>0.756</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.227</v>
+        <v>0.199</v>
       </c>
       <c r="C38" t="n">
-        <v>1.497</v>
+        <v>1.515</v>
       </c>
       <c r="D38" t="n">
-        <v>0.902</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.95</v>
+        <v>0.966</v>
       </c>
       <c r="F38" t="n">
-        <v>1.035</v>
+        <v>1.037</v>
       </c>
       <c r="G38" t="n">
-        <v>0.782</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.328</v>
+        <v>0.261</v>
       </c>
       <c r="C39" t="n">
-        <v>1.432</v>
+        <v>1.475</v>
       </c>
       <c r="D39" t="n">
-        <v>0.784</v>
+        <v>0.862</v>
       </c>
       <c r="E39" t="n">
-        <v>0.885</v>
+        <v>0.928</v>
       </c>
       <c r="F39" t="n">
-        <v>0.969</v>
+        <v>0.965</v>
       </c>
       <c r="G39" t="n">
-        <v>0.664</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="40">
@@ -1422,47 +1422,47 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.453</v>
+        <v>0.246</v>
       </c>
       <c r="C40" t="n">
-        <v>2.641</v>
+        <v>3.262</v>
       </c>
       <c r="D40" t="n">
-        <v>0.638</v>
+        <v>0.88</v>
       </c>
       <c r="E40" t="n">
-        <v>0.799</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>0.986</v>
+        <v>0.97</v>
       </c>
       <c r="G40" t="n">
-        <v>0.826</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Ensemble270</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.257</v>
+        <v>0.317</v>
       </c>
       <c r="C41" t="n">
-        <v>1.478</v>
+        <v>1.439</v>
       </c>
       <c r="D41" t="n">
-        <v>0.867</v>
+        <v>0.796</v>
       </c>
       <c r="E41" t="n">
-        <v>0.931</v>
+        <v>0.892</v>
       </c>
       <c r="F41" t="n">
-        <v>0.986</v>
+        <v>0.993</v>
       </c>
       <c r="G41" t="n">
-        <v>0.864</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +1472,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.374</v>
+        <v>0.331</v>
       </c>
       <c r="C42" t="n">
-        <v>1.402</v>
+        <v>1.43</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.599</v>
       </c>
       <c r="E42" t="n">
-        <v>0.749</v>
+        <v>0.774</v>
       </c>
       <c r="F42" t="n">
-        <v>0.905</v>
+        <v>0.949</v>
       </c>
       <c r="G42" t="n">
-        <v>0.617</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.045</v>
+        <v>0.078</v>
       </c>
       <c r="C43" t="n">
-        <v>1.614</v>
+        <v>1.593</v>
       </c>
       <c r="D43" t="n">
-        <v>0.856</v>
+        <v>0.826</v>
       </c>
       <c r="E43" t="n">
-        <v>0.925</v>
+        <v>0.909</v>
       </c>
       <c r="F43" t="n">
-        <v>0.901</v>
+        <v>0.924</v>
       </c>
       <c r="G43" t="n">
-        <v>0.379</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.271</v>
+        <v>0.121</v>
       </c>
       <c r="C44" t="n">
-        <v>1.469</v>
+        <v>1.565</v>
       </c>
       <c r="D44" t="n">
-        <v>0.653</v>
+        <v>0.788</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.888</v>
       </c>
       <c r="F44" t="n">
-        <v>1.063</v>
+        <v>0.952</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="45">
@@ -1547,47 +1547,47 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.47</v>
+        <v>0.127</v>
       </c>
       <c r="C45" t="n">
-        <v>2.59</v>
+        <v>3.619</v>
       </c>
       <c r="D45" t="n">
-        <v>0.475</v>
+        <v>0.782</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.884</v>
       </c>
       <c r="F45" t="n">
-        <v>0.888</v>
+        <v>0.871</v>
       </c>
       <c r="G45" t="n">
-        <v>0.723</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Ensemble280</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.251</v>
+        <v>0.342</v>
       </c>
       <c r="C46" t="n">
-        <v>1.482</v>
+        <v>1.423</v>
       </c>
       <c r="D46" t="n">
-        <v>0.672</v>
+        <v>0.59</v>
       </c>
       <c r="E46" t="n">
-        <v>0.82</v>
+        <v>0.768</v>
       </c>
       <c r="F46" t="n">
-        <v>0.885</v>
+        <v>0.897</v>
       </c>
       <c r="G46" t="n">
-        <v>0.507</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="47">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.133</v>
+        <v>0.158</v>
       </c>
       <c r="C47" t="n">
-        <v>1.557</v>
+        <v>1.541</v>
       </c>
       <c r="D47" t="n">
-        <v>0.547</v>
+        <v>0.531</v>
       </c>
       <c r="E47" t="n">
-        <v>0.74</v>
+        <v>0.729</v>
       </c>
       <c r="F47" t="n">
-        <v>0.788</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>0.447</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="48">
@@ -1622,22 +1622,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.109</v>
+        <v>0.083</v>
       </c>
       <c r="C48" t="n">
-        <v>1.573</v>
+        <v>1.59</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.578</v>
       </c>
       <c r="E48" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="F48" t="n">
-        <v>0.759</v>
+        <v>0.764</v>
       </c>
       <c r="G48" t="n">
-        <v>0.426</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.372</v>
+        <v>0.235</v>
       </c>
       <c r="C49" t="n">
-        <v>1.404</v>
+        <v>1.492</v>
       </c>
       <c r="D49" t="n">
-        <v>0.396</v>
+        <v>0.482</v>
       </c>
       <c r="E49" t="n">
-        <v>0.629</v>
+        <v>0.694</v>
       </c>
       <c r="F49" t="n">
-        <v>0.883</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>0.667</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="50">
@@ -1672,47 +1672,47 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.569</v>
+        <v>0.497</v>
       </c>
       <c r="C50" t="n">
-        <v>2.293</v>
+        <v>2.509</v>
       </c>
       <c r="D50" t="n">
-        <v>0.272</v>
+        <v>0.317</v>
       </c>
       <c r="E50" t="n">
-        <v>0.522</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.966</v>
+        <v>0.736</v>
       </c>
       <c r="G50" t="n">
-        <v>0.847</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Ensemble290</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.224</v>
+        <v>0.302</v>
       </c>
       <c r="C51" t="n">
-        <v>1.499</v>
+        <v>1.449</v>
       </c>
       <c r="D51" t="n">
-        <v>0.489</v>
+        <v>0.44</v>
       </c>
       <c r="E51" t="n">
-        <v>0.699</v>
+        <v>0.663</v>
       </c>
       <c r="F51" t="n">
-        <v>0.741</v>
+        <v>0.748</v>
       </c>
       <c r="G51" t="n">
-        <v>0.523</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="52">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.006</v>
+        <v>-0.319</v>
       </c>
       <c r="C52" t="n">
-        <v>1.639</v>
+        <v>1.848</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3</v>
+        <v>0.399</v>
       </c>
       <c r="E52" t="n">
-        <v>0.548</v>
+        <v>0.632</v>
       </c>
       <c r="F52" t="n">
-        <v>0.582</v>
+        <v>0.611</v>
       </c>
       <c r="G52" t="n">
-        <v>0.468</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="53">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.007</v>
+        <v>-0.051</v>
       </c>
       <c r="C53" t="n">
-        <v>1.638</v>
+        <v>1.676</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3</v>
+        <v>0.318</v>
       </c>
       <c r="E53" t="n">
-        <v>0.548</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.599</v>
+        <v>0.604</v>
       </c>
       <c r="G53" t="n">
-        <v>0.473</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="54">
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.956</v>
+        <v>0.14</v>
       </c>
       <c r="C54" t="n">
-        <v>2.9</v>
+        <v>1.553</v>
       </c>
       <c r="D54" t="n">
-        <v>0.893</v>
+        <v>0.26</v>
       </c>
       <c r="E54" t="n">
-        <v>0.945</v>
+        <v>0.51</v>
       </c>
       <c r="F54" t="n">
-        <v>0.782</v>
+        <v>0.606</v>
       </c>
       <c r="G54" t="n">
-        <v>0.295</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="55">
@@ -1797,47 +1797,47 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.551</v>
+        <v>0.022</v>
       </c>
       <c r="C55" t="n">
-        <v>5.653</v>
+        <v>3.934</v>
       </c>
       <c r="D55" t="n">
-        <v>0.469</v>
+        <v>0.295</v>
       </c>
       <c r="E55" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.543</v>
       </c>
       <c r="F55" t="n">
-        <v>0.581</v>
+        <v>0.515</v>
       </c>
       <c r="G55" t="n">
-        <v>0.114</v>
+        <v>0.368</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Ensemble300</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.185</v>
+        <v>-0.042</v>
       </c>
       <c r="C56" t="n">
-        <v>1.524</v>
+        <v>1.67</v>
       </c>
       <c r="D56" t="n">
-        <v>0.246</v>
+        <v>0.315</v>
       </c>
       <c r="E56" t="n">
-        <v>0.496</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.54</v>
+        <v>0.552</v>
       </c>
       <c r="G56" t="n">
-        <v>0.499</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="57">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.411</v>
+        <v>-0.407</v>
       </c>
       <c r="C57" t="n">
-        <v>1.907</v>
+        <v>1.904</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.83</v>
+        <v>0.828</v>
       </c>
       <c r="F57" t="n">
-        <v>0.751</v>
+        <v>0.763</v>
       </c>
       <c r="G57" t="n">
-        <v>0.133</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="58">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.367</v>
+        <v>-0.293</v>
       </c>
       <c r="C58" t="n">
-        <v>1.879</v>
+        <v>1.831</v>
       </c>
       <c r="D58" t="n">
-        <v>0.667</v>
+        <v>0.631</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="F58" t="n">
-        <v>0.763</v>
+        <v>0.75</v>
       </c>
       <c r="G58" t="n">
-        <v>0.228</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="59">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.08</v>
+        <v>0.126</v>
       </c>
       <c r="C59" t="n">
-        <v>1.591</v>
+        <v>1.562</v>
       </c>
       <c r="D59" t="n">
-        <v>0.449</v>
+        <v>0.426</v>
       </c>
       <c r="E59" t="n">
-        <v>0.67</v>
+        <v>0.653</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.664</v>
       </c>
       <c r="G59" t="n">
-        <v>0.365</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="60">
@@ -1922,47 +1922,47 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.405</v>
+        <v>0.11</v>
       </c>
       <c r="C60" t="n">
-        <v>2.785</v>
+        <v>3.67</v>
       </c>
       <c r="D60" t="n">
-        <v>0.291</v>
+        <v>0.434</v>
       </c>
       <c r="E60" t="n">
-        <v>0.539</v>
+        <v>0.659</v>
       </c>
       <c r="F60" t="n">
-        <v>0.702</v>
+        <v>0.721</v>
       </c>
       <c r="G60" t="n">
-        <v>0.724</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Ensemble310</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.122</v>
+        <v>-0.281</v>
       </c>
       <c r="C61" t="n">
-        <v>1.721</v>
+        <v>1.824</v>
       </c>
       <c r="D61" t="n">
-        <v>0.547</v>
+        <v>0.625</v>
       </c>
       <c r="E61" t="n">
-        <v>0.74</v>
+        <v>0.791</v>
       </c>
       <c r="F61" t="n">
-        <v>0.703</v>
+        <v>0.721</v>
       </c>
       <c r="G61" t="n">
-        <v>0.214</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="62">
@@ -1972,22 +1972,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.418</v>
+        <v>0.318</v>
       </c>
       <c r="C62" t="n">
-        <v>1.374</v>
+        <v>1.438</v>
       </c>
       <c r="D62" t="n">
-        <v>0.291</v>
+        <v>0.341</v>
       </c>
       <c r="E62" t="n">
-        <v>0.539</v>
+        <v>0.584</v>
       </c>
       <c r="F62" t="n">
-        <v>0.664</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>0.721</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="63">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.608</v>
+        <v>0.449</v>
       </c>
       <c r="C63" t="n">
-        <v>1.252</v>
+        <v>1.354</v>
       </c>
       <c r="D63" t="n">
-        <v>0.196</v>
+        <v>0.275</v>
       </c>
       <c r="E63" t="n">
-        <v>0.443</v>
+        <v>0.524</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.662</v>
       </c>
       <c r="G63" t="n">
-        <v>0.839</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="64">
@@ -2022,22 +2022,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-1.248</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>2.445</v>
+        <v>1.688</v>
       </c>
       <c r="D64" t="n">
-        <v>1.124</v>
+        <v>0.536</v>
       </c>
       <c r="E64" t="n">
-        <v>1.06</v>
+        <v>0.732</v>
       </c>
       <c r="F64" t="n">
-        <v>0.709</v>
+        <v>0.595</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.496</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="65">
@@ -2047,47 +2047,47 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.188</v>
+        <v>0.215</v>
       </c>
       <c r="C65" t="n">
-        <v>4.564</v>
+        <v>3.355</v>
       </c>
       <c r="D65" t="n">
-        <v>0.594</v>
+        <v>0.392</v>
       </c>
       <c r="E65" t="n">
-        <v>0.771</v>
+        <v>0.626</v>
       </c>
       <c r="F65" t="n">
-        <v>0.653</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="G65" t="n">
-        <v>0.353</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Ensemble320</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.439</v>
+        <v>0.373</v>
       </c>
       <c r="C66" t="n">
-        <v>1.361</v>
+        <v>1.403</v>
       </c>
       <c r="D66" t="n">
-        <v>0.281</v>
+        <v>0.313</v>
       </c>
       <c r="E66" t="n">
-        <v>0.53</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.633</v>
+        <v>0.615</v>
       </c>
       <c r="G66" t="n">
-        <v>0.776</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="67">
@@ -2097,22 +2097,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.441</v>
+        <v>0.501</v>
       </c>
       <c r="C67" t="n">
-        <v>1.359</v>
+        <v>1.321</v>
       </c>
       <c r="D67" t="n">
-        <v>0.22</v>
+        <v>0.196</v>
       </c>
       <c r="E67" t="n">
-        <v>0.469</v>
+        <v>0.443</v>
       </c>
       <c r="F67" t="n">
-        <v>0.62</v>
+        <v>0.643</v>
       </c>
       <c r="G67" t="n">
-        <v>0.666</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="68">
@@ -2122,22 +2122,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.545</v>
+        <v>0.571</v>
       </c>
       <c r="C68" t="n">
-        <v>1.292</v>
+        <v>1.276</v>
       </c>
       <c r="D68" t="n">
-        <v>0.179</v>
+        <v>0.169</v>
       </c>
       <c r="E68" t="n">
-        <v>0.423</v>
+        <v>0.411</v>
       </c>
       <c r="F68" t="n">
-        <v>0.653</v>
+        <v>0.611</v>
       </c>
       <c r="G68" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="69">
@@ -2147,22 +2147,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.235</v>
+        <v>0.445</v>
       </c>
       <c r="C69" t="n">
-        <v>1.492</v>
+        <v>1.357</v>
       </c>
       <c r="D69" t="n">
-        <v>0.301</v>
+        <v>0.218</v>
       </c>
       <c r="E69" t="n">
-        <v>0.549</v>
+        <v>0.467</v>
       </c>
       <c r="F69" t="n">
-        <v>0.61</v>
+        <v>0.552</v>
       </c>
       <c r="G69" t="n">
-        <v>0.62</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="70">
@@ -2172,47 +2172,47 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.499</v>
+        <v>0.505</v>
       </c>
       <c r="C70" t="n">
-        <v>2.503</v>
+        <v>2.485</v>
       </c>
       <c r="D70" t="n">
-        <v>0.197</v>
+        <v>0.195</v>
       </c>
       <c r="E70" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="F70" t="n">
         <v>0.553</v>
       </c>
       <c r="G70" t="n">
-        <v>0.783</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Ensemble330</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.523</v>
+        <v>0.616</v>
       </c>
       <c r="C71" t="n">
-        <v>1.307</v>
+        <v>1.247</v>
       </c>
       <c r="D71" t="n">
-        <v>0.188</v>
+        <v>0.151</v>
       </c>
       <c r="E71" t="n">
-        <v>0.434</v>
+        <v>0.389</v>
       </c>
       <c r="F71" t="n">
-        <v>0.58</v>
+        <v>0.584</v>
       </c>
       <c r="G71" t="n">
-        <v>0.773</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="72">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.746</v>
+        <v>-1.524</v>
       </c>
       <c r="C72" t="n">
-        <v>2.765</v>
+        <v>2.623</v>
       </c>
       <c r="D72" t="n">
-        <v>2.808</v>
+        <v>2.581</v>
       </c>
       <c r="E72" t="n">
-        <v>1.676</v>
+        <v>1.607</v>
       </c>
       <c r="F72" t="n">
-        <v>1.287</v>
+        <v>1.432</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.032</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="73">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.139</v>
+        <v>-0.223</v>
       </c>
       <c r="C73" t="n">
-        <v>1.732</v>
+        <v>1.786</v>
       </c>
       <c r="D73" t="n">
-        <v>1.165</v>
+        <v>1.25</v>
       </c>
       <c r="E73" t="n">
-        <v>1.079</v>
+        <v>1.118</v>
       </c>
       <c r="F73" t="n">
-        <v>0.879</v>
+        <v>0.875</v>
       </c>
       <c r="G73" t="n">
-        <v>0.138</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="74">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.142</v>
+        <v>-4.688</v>
       </c>
       <c r="C74" t="n">
-        <v>1.734</v>
+        <v>4.657</v>
       </c>
       <c r="D74" t="n">
-        <v>1.168</v>
+        <v>5.816</v>
       </c>
       <c r="E74" t="n">
-        <v>1.081</v>
+        <v>2.412</v>
       </c>
       <c r="F74" t="n">
-        <v>0.903</v>
+        <v>2.019</v>
       </c>
       <c r="G74" t="n">
-        <v>0.258</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="75">
@@ -2297,47 +2297,47 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1.465</v>
+        <v>-1.977</v>
       </c>
       <c r="C75" t="n">
-        <v>8.395</v>
+        <v>9.930999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>2.521</v>
+        <v>3.044</v>
       </c>
       <c r="E75" t="n">
-        <v>1.588</v>
+        <v>1.745</v>
       </c>
       <c r="F75" t="n">
-        <v>1.255</v>
+        <v>1.194</v>
       </c>
       <c r="G75" t="n">
-        <v>0.073</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Ensemble340</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.415</v>
+        <v>-0.6909999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>1.91</v>
+        <v>2.087</v>
       </c>
       <c r="D76" t="n">
-        <v>1.447</v>
+        <v>1.729</v>
       </c>
       <c r="E76" t="n">
-        <v>1.203</v>
+        <v>1.315</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9409999999999999</v>
+        <v>1.012</v>
       </c>
       <c r="G76" t="n">
-        <v>0.037</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="77">
@@ -2347,19 +2347,19 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-10.929</v>
+        <v>-12.481</v>
       </c>
       <c r="C77" t="n">
-        <v>1.542</v>
+        <v>1.613</v>
       </c>
       <c r="D77" t="n">
-        <v>0.324</v>
+        <v>0.367</v>
       </c>
       <c r="E77" t="n">
-        <v>0.569</v>
+        <v>0.606</v>
       </c>
       <c r="F77" t="n">
-        <v>0.379</v>
+        <v>0.406</v>
       </c>
       <c r="G77" t="n">
         <v>-1</v>
@@ -2372,19 +2372,19 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-2.325</v>
+        <v>-2.257</v>
       </c>
       <c r="C78" t="n">
-        <v>1.151</v>
+        <v>1.148</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09</v>
+        <v>0.089</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3</v>
+        <v>0.298</v>
       </c>
       <c r="F78" t="n">
-        <v>0.167</v>
+        <v>0.165</v>
       </c>
       <c r="G78" t="n">
         <v>-1</v>
@@ -2397,19 +2397,19 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-26.697</v>
+        <v>-10.278</v>
       </c>
       <c r="C79" t="n">
-        <v>2.259</v>
+        <v>1.513</v>
       </c>
       <c r="D79" t="n">
-        <v>0.753</v>
+        <v>0.307</v>
       </c>
       <c r="E79" t="n">
-        <v>0.868</v>
+        <v>0.554</v>
       </c>
       <c r="F79" t="n">
-        <v>0.751</v>
+        <v>0.406</v>
       </c>
       <c r="G79" t="n">
         <v>-1</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-10.206</v>
+        <v>-9.696999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>2.019</v>
+        <v>1.972</v>
       </c>
       <c r="D80" t="n">
-        <v>0.305</v>
+        <v>0.291</v>
       </c>
       <c r="E80" t="n">
-        <v>0.552</v>
+        <v>0.539</v>
       </c>
       <c r="F80" t="n">
-        <v>0.517</v>
+        <v>0.453</v>
       </c>
       <c r="G80" t="n">
         <v>-1</v>
@@ -2443,23 +2443,23 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Ensemble340</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-7.57</v>
+        <v>-9.000999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>1.39</v>
+        <v>1.455</v>
       </c>
       <c r="D81" t="n">
-        <v>0.233</v>
+        <v>0.272</v>
       </c>
       <c r="E81" t="n">
-        <v>0.483</v>
+        <v>0.522</v>
       </c>
       <c r="F81" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="G81" t="n">
         <v>-1</v>
@@ -2472,22 +2472,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-4974.569</v>
+        <v>-31504.997</v>
       </c>
       <c r="C82" t="n">
-        <v>227.162</v>
+        <v>1433.091</v>
       </c>
       <c r="D82" t="n">
-        <v>2121.33</v>
+        <v>13432.557</v>
       </c>
       <c r="E82" t="n">
-        <v>46.058</v>
+        <v>115.899</v>
       </c>
       <c r="F82" t="n">
-        <v>35.258</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2497,19 +2497,19 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-8.898</v>
+        <v>-10.16</v>
       </c>
       <c r="C83" t="n">
-        <v>1.45</v>
+        <v>1.507</v>
       </c>
       <c r="D83" t="n">
-        <v>4.22</v>
+        <v>4.758</v>
       </c>
       <c r="E83" t="n">
-        <v>2.054</v>
+        <v>2.181</v>
       </c>
       <c r="F83" t="n">
-        <v>1.989</v>
+        <v>2.108</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2522,22 +2522,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-14.076</v>
+        <v>-1.14</v>
       </c>
       <c r="C84" t="n">
-        <v>1.685</v>
+        <v>1.097</v>
       </c>
       <c r="D84" t="n">
-        <v>6.428</v>
+        <v>0.912</v>
       </c>
       <c r="E84" t="n">
-        <v>2.535</v>
+        <v>0.955</v>
       </c>
       <c r="F84" t="n">
-        <v>2.386</v>
+        <v>1.317</v>
       </c>
       <c r="G84" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2547,19 +2547,19 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-10.752</v>
+        <v>-8.196</v>
       </c>
       <c r="C85" t="n">
-        <v>2.068</v>
+        <v>1.836</v>
       </c>
       <c r="D85" t="n">
-        <v>5.011</v>
+        <v>3.921</v>
       </c>
       <c r="E85" t="n">
-        <v>2.239</v>
+        <v>1.98</v>
       </c>
       <c r="F85" t="n">
-        <v>2.143</v>
+        <v>1.922</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2568,26 +2568,26 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Ensemble342</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-643.796</v>
+        <v>-3416.791</v>
       </c>
       <c r="C86" t="n">
-        <v>30.309</v>
+        <v>156.354</v>
       </c>
       <c r="D86" t="n">
-        <v>274.908</v>
+        <v>1457.172</v>
       </c>
       <c r="E86" t="n">
-        <v>16.58</v>
+        <v>38.173</v>
       </c>
       <c r="F86" t="n">
-        <v>13.041</v>
+        <v>28.121</v>
       </c>
       <c r="G86" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2597,19 +2597,19 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1532.713</v>
+        <v>-1238.728</v>
       </c>
       <c r="C87" t="n">
-        <v>70.714</v>
+        <v>57.351</v>
       </c>
       <c r="D87" t="n">
-        <v>955.566</v>
+        <v>772.401</v>
       </c>
       <c r="E87" t="n">
-        <v>30.912</v>
+        <v>27.792</v>
       </c>
       <c r="F87" t="n">
-        <v>28.504</v>
+        <v>25.298</v>
       </c>
       <c r="G87" t="n">
         <v>-1</v>
@@ -2622,19 +2622,19 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1.123</v>
+        <v>-1.679</v>
       </c>
       <c r="C88" t="n">
-        <v>1.096</v>
+        <v>1.122</v>
       </c>
       <c r="D88" t="n">
-        <v>1.323</v>
+        <v>1.669</v>
       </c>
       <c r="E88" t="n">
-        <v>1.15</v>
+        <v>1.292</v>
       </c>
       <c r="F88" t="n">
-        <v>1.234</v>
+        <v>1.405</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -2647,19 +2647,19 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-12.487</v>
+        <v>-14.99</v>
       </c>
       <c r="C89" t="n">
-        <v>1.613</v>
+        <v>1.727</v>
       </c>
       <c r="D89" t="n">
-        <v>8.403</v>
+        <v>9.962999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>2.899</v>
+        <v>3.156</v>
       </c>
       <c r="F89" t="n">
-        <v>2.559</v>
+        <v>2.802</v>
       </c>
       <c r="G89" t="n">
         <v>-1</v>
@@ -2672,19 +2672,19 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-84.627</v>
+        <v>-25.568</v>
       </c>
       <c r="C90" t="n">
-        <v>8.784000000000001</v>
+        <v>3.415</v>
       </c>
       <c r="D90" t="n">
-        <v>53.349</v>
+        <v>16.553</v>
       </c>
       <c r="E90" t="n">
-        <v>7.304</v>
+        <v>4.069</v>
       </c>
       <c r="F90" t="n">
-        <v>6.062</v>
+        <v>3.814</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -2693,23 +2693,23 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Ensemble344</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-200.311</v>
+        <v>-180.527</v>
       </c>
       <c r="C91" t="n">
-        <v>10.151</v>
+        <v>9.250999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>125.425</v>
+        <v>113.099</v>
       </c>
       <c r="E91" t="n">
-        <v>11.199</v>
+        <v>10.635</v>
       </c>
       <c r="F91" t="n">
-        <v>10.328</v>
+        <v>9.731</v>
       </c>
       <c r="G91" t="n">
         <v>-1</v>
@@ -2722,19 +2722,19 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1184.095</v>
+        <v>-1701.487</v>
       </c>
       <c r="C92" t="n">
-        <v>54.868</v>
+        <v>78.386</v>
       </c>
       <c r="D92" t="n">
-        <v>90.131</v>
+        <v>129.481</v>
       </c>
       <c r="E92" t="n">
-        <v>9.494</v>
+        <v>11.379</v>
       </c>
       <c r="F92" t="n">
-        <v>9.494</v>
+        <v>11.378</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2747,19 +2747,19 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-2.888</v>
+        <v>-3.726</v>
       </c>
       <c r="C93" t="n">
-        <v>1.177</v>
+        <v>1.215</v>
       </c>
       <c r="D93" t="n">
-        <v>0.296</v>
+        <v>0.359</v>
       </c>
       <c r="E93" t="n">
-        <v>0.544</v>
+        <v>0.599</v>
       </c>
       <c r="F93" t="n">
-        <v>0.531</v>
+        <v>0.575</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-12.602</v>
+        <v>-27.693</v>
       </c>
       <c r="C94" t="n">
-        <v>1.618</v>
+        <v>2.304</v>
       </c>
       <c r="D94" t="n">
-        <v>1.035</v>
+        <v>2.182</v>
       </c>
       <c r="E94" t="n">
-        <v>1.017</v>
+        <v>1.477</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6820000000000001</v>
+        <v>1.465</v>
       </c>
       <c r="G94" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-17.912</v>
+        <v>-3.367</v>
       </c>
       <c r="C95" t="n">
-        <v>2.719</v>
+        <v>1.397</v>
       </c>
       <c r="D95" t="n">
-        <v>1.438</v>
+        <v>0.332</v>
       </c>
       <c r="E95" t="n">
-        <v>1.199</v>
+        <v>0.576</v>
       </c>
       <c r="F95" t="n">
-        <v>1.268</v>
+        <v>0.57</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -2818,26 +2818,26 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Ensemble346</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-115.067</v>
+        <v>-158.714</v>
       </c>
       <c r="C96" t="n">
-        <v>6.276</v>
+        <v>8.26</v>
       </c>
       <c r="D96" t="n">
-        <v>8.827</v>
+        <v>12.147</v>
       </c>
       <c r="E96" t="n">
-        <v>2.971</v>
+        <v>3.485</v>
       </c>
       <c r="F96" t="n">
-        <v>2.941</v>
+        <v>3.479</v>
       </c>
       <c r="G96" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2847,19 +2847,19 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-53.575</v>
+        <v>-96.373</v>
       </c>
       <c r="C97" t="n">
-        <v>3.481</v>
+        <v>5.426</v>
       </c>
       <c r="D97" t="n">
-        <v>1.094</v>
+        <v>1.951</v>
       </c>
       <c r="E97" t="n">
-        <v>1.046</v>
+        <v>1.397</v>
       </c>
       <c r="F97" t="n">
-        <v>0.963</v>
+        <v>1.308</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -2872,22 +2872,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-2.161</v>
+        <v>-2.66</v>
       </c>
       <c r="C98" t="n">
-        <v>1.144</v>
+        <v>1.166</v>
       </c>
       <c r="D98" t="n">
-        <v>0.063</v>
+        <v>0.073</v>
       </c>
       <c r="E98" t="n">
-        <v>0.251</v>
+        <v>0.27</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2</v>
+        <v>0.269</v>
       </c>
       <c r="G98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -2897,19 +2897,19 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-23.87</v>
+        <v>-27.883</v>
       </c>
       <c r="C99" t="n">
-        <v>2.13</v>
+        <v>2.313</v>
       </c>
       <c r="D99" t="n">
-        <v>0.498</v>
+        <v>0.579</v>
       </c>
       <c r="E99" t="n">
-        <v>0.706</v>
+        <v>0.761</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G99" t="n">
         <v>-1</v>
@@ -2922,44 +2922,44 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-168.628</v>
+        <v>-6.766</v>
       </c>
       <c r="C100" t="n">
-        <v>16.421</v>
+        <v>1.706</v>
       </c>
       <c r="D100" t="n">
-        <v>3.399</v>
+        <v>0.156</v>
       </c>
       <c r="E100" t="n">
-        <v>1.844</v>
+        <v>0.395</v>
       </c>
       <c r="F100" t="n">
-        <v>1.422</v>
+        <v>0.369</v>
       </c>
       <c r="G100" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Ensemble348</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1.624</v>
+        <v>-2.666</v>
       </c>
       <c r="C101" t="n">
-        <v>1.119</v>
+        <v>1.167</v>
       </c>
       <c r="D101" t="n">
-        <v>0.053</v>
+        <v>0.073</v>
       </c>
       <c r="E101" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="F101" t="n">
-        <v>0.347</v>
+        <v>0.303</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-46.048</v>
+        <v>-33.427</v>
       </c>
       <c r="C102" t="n">
-        <v>3.139</v>
+        <v>2.565</v>
       </c>
       <c r="D102" t="n">
-        <v>2.375</v>
+        <v>1.738</v>
       </c>
       <c r="E102" t="n">
-        <v>1.541</v>
+        <v>1.318</v>
       </c>
       <c r="F102" t="n">
-        <v>1.522</v>
+        <v>1.296</v>
       </c>
       <c r="G102" t="n">
         <v>-1</v>
@@ -2997,19 +2997,19 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-2.061</v>
+        <v>-1.042</v>
       </c>
       <c r="C103" t="n">
-        <v>1.139</v>
+        <v>1.093</v>
       </c>
       <c r="D103" t="n">
-        <v>0.155</v>
+        <v>0.103</v>
       </c>
       <c r="E103" t="n">
-        <v>0.394</v>
+        <v>0.321</v>
       </c>
       <c r="F103" t="n">
-        <v>0.374</v>
+        <v>0.257</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3022,22 +3022,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-1.692</v>
+        <v>0.012</v>
       </c>
       <c r="C104" t="n">
-        <v>1.122</v>
+        <v>1.045</v>
       </c>
       <c r="D104" t="n">
-        <v>0.136</v>
+        <v>0.05</v>
       </c>
       <c r="E104" t="n">
-        <v>0.369</v>
+        <v>0.224</v>
       </c>
       <c r="F104" t="n">
-        <v>0.29</v>
+        <v>0.256</v>
       </c>
       <c r="G104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3047,44 +3047,44 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-2.871</v>
+        <v>-20.589</v>
       </c>
       <c r="C105" t="n">
-        <v>1.352</v>
+        <v>2.963</v>
       </c>
       <c r="D105" t="n">
-        <v>0.195</v>
+        <v>1.09</v>
       </c>
       <c r="E105" t="n">
-        <v>0.442</v>
+        <v>1.044</v>
       </c>
       <c r="F105" t="n">
-        <v>0.225</v>
+        <v>1.035</v>
       </c>
       <c r="G105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>Ensemble350</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-5.369</v>
+        <v>-1.849</v>
       </c>
       <c r="C106" t="n">
-        <v>1.289</v>
+        <v>1.13</v>
       </c>
       <c r="D106" t="n">
-        <v>0.322</v>
+        <v>0.144</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.379</v>
       </c>
       <c r="F106" t="n">
-        <v>0.524</v>
+        <v>0.33</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-110.681</v>
+        <v>-99.852</v>
       </c>
       <c r="C107" t="n">
-        <v>6.076</v>
+        <v>5.584</v>
       </c>
       <c r="D107" t="n">
-        <v>3.487</v>
+        <v>3.149</v>
       </c>
       <c r="E107" t="n">
-        <v>1.867</v>
+        <v>1.775</v>
       </c>
       <c r="F107" t="n">
-        <v>1.703</v>
+        <v>1.629</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -3122,19 +3122,19 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-8.531000000000001</v>
+        <v>-15.384</v>
       </c>
       <c r="C108" t="n">
-        <v>1.433</v>
+        <v>1.745</v>
       </c>
       <c r="D108" t="n">
-        <v>0.298</v>
+        <v>0.512</v>
       </c>
       <c r="E108" t="n">
-        <v>0.546</v>
+        <v>0.716</v>
       </c>
       <c r="F108" t="n">
-        <v>0.545</v>
+        <v>0.709</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-52.62</v>
+        <v>-32.977</v>
       </c>
       <c r="C109" t="n">
-        <v>3.437</v>
+        <v>2.544</v>
       </c>
       <c r="D109" t="n">
-        <v>1.674</v>
+        <v>1.061</v>
       </c>
       <c r="E109" t="n">
-        <v>1.294</v>
+        <v>1.03</v>
       </c>
       <c r="F109" t="n">
-        <v>1.285</v>
+        <v>1.026</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -3172,19 +3172,19 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-14.533</v>
+        <v>-7.127</v>
       </c>
       <c r="C110" t="n">
-        <v>2.412</v>
+        <v>1.739</v>
       </c>
       <c r="D110" t="n">
-        <v>0.485</v>
+        <v>0.254</v>
       </c>
       <c r="E110" t="n">
-        <v>0.696</v>
+        <v>0.504</v>
       </c>
       <c r="F110" t="n">
-        <v>0.79</v>
+        <v>0.522</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -3193,23 +3193,23 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Ensemble352</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.736</v>
+        <v>-0.625</v>
       </c>
       <c r="C111" t="n">
-        <v>1.079</v>
+        <v>1.074</v>
       </c>
       <c r="D111" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="E111" t="n">
-        <v>0.232</v>
+        <v>0.226</v>
       </c>
       <c r="F111" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -3222,19 +3222,19 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-13.154</v>
+        <v>-14.246</v>
       </c>
       <c r="C112" t="n">
-        <v>1.643</v>
+        <v>1.693</v>
       </c>
       <c r="D112" t="n">
-        <v>0.383</v>
+        <v>0.412</v>
       </c>
       <c r="E112" t="n">
-        <v>0.619</v>
+        <v>0.642</v>
       </c>
       <c r="F112" t="n">
-        <v>0.553</v>
+        <v>0.539</v>
       </c>
       <c r="G112" t="n">
         <v>-1</v>
@@ -3247,19 +3247,19 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-84.004</v>
+        <v>-74.342</v>
       </c>
       <c r="C113" t="n">
-        <v>4.864</v>
+        <v>4.425</v>
       </c>
       <c r="D113" t="n">
-        <v>2.297</v>
+        <v>2.036</v>
       </c>
       <c r="E113" t="n">
-        <v>1.516</v>
+        <v>1.427</v>
       </c>
       <c r="F113" t="n">
-        <v>1.503</v>
+        <v>1.404</v>
       </c>
       <c r="G113" t="n">
         <v>-1</v>
@@ -3272,19 +3272,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-2.373</v>
+        <v>-29.405</v>
       </c>
       <c r="C114" t="n">
-        <v>1.153</v>
+        <v>2.382</v>
       </c>
       <c r="D114" t="n">
-        <v>0.091</v>
+        <v>0.822</v>
       </c>
       <c r="E114" t="n">
-        <v>0.302</v>
+        <v>0.907</v>
       </c>
       <c r="F114" t="n">
-        <v>0.321</v>
+        <v>0.904</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -3297,19 +3297,19 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-427.406</v>
+        <v>-98.291</v>
       </c>
       <c r="C115" t="n">
-        <v>39.946</v>
+        <v>10.026</v>
       </c>
       <c r="D115" t="n">
-        <v>11.578</v>
+        <v>2.684</v>
       </c>
       <c r="E115" t="n">
-        <v>3.403</v>
+        <v>1.638</v>
       </c>
       <c r="F115" t="n">
-        <v>2.599</v>
+        <v>1.407</v>
       </c>
       <c r="G115" t="n">
         <v>-1</v>
@@ -3318,23 +3318,23 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Ensemble354</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-56.886</v>
+        <v>-28.347</v>
       </c>
       <c r="C116" t="n">
-        <v>3.631</v>
+        <v>2.334</v>
       </c>
       <c r="D116" t="n">
-        <v>1.564</v>
+        <v>0.793</v>
       </c>
       <c r="E116" t="n">
-        <v>1.251</v>
+        <v>0.891</v>
       </c>
       <c r="F116" t="n">
-        <v>1.224</v>
+        <v>0.859</v>
       </c>
       <c r="G116" t="n">
         <v>-1</v>
@@ -3347,19 +3347,19 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-34.026</v>
+        <v>-38.886</v>
       </c>
       <c r="C117" t="n">
-        <v>2.592</v>
+        <v>2.813</v>
       </c>
       <c r="D117" t="n">
-        <v>1.191</v>
+        <v>1.356</v>
       </c>
       <c r="E117" t="n">
-        <v>1.091</v>
+        <v>1.164</v>
       </c>
       <c r="F117" t="n">
-        <v>0.98</v>
+        <v>1.052</v>
       </c>
       <c r="G117" t="n">
         <v>-1</v>
@@ -3372,19 +3372,19 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-76.87</v>
+        <v>-62.497</v>
       </c>
       <c r="C118" t="n">
-        <v>4.54</v>
+        <v>3.886</v>
       </c>
       <c r="D118" t="n">
-        <v>2.647</v>
+        <v>2.158</v>
       </c>
       <c r="E118" t="n">
-        <v>1.627</v>
+        <v>1.469</v>
       </c>
       <c r="F118" t="n">
-        <v>1.625</v>
+        <v>1.459</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3397,22 +3397,22 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-3.248</v>
+        <v>-49.257</v>
       </c>
       <c r="C119" t="n">
-        <v>1.193</v>
+        <v>3.284</v>
       </c>
       <c r="D119" t="n">
-        <v>0.144</v>
+        <v>1.708</v>
       </c>
       <c r="E119" t="n">
-        <v>0.379</v>
+        <v>1.307</v>
       </c>
       <c r="F119" t="n">
-        <v>0.332</v>
+        <v>1.295</v>
       </c>
       <c r="G119" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -3422,44 +3422,44 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-67.245</v>
+        <v>-140.393</v>
       </c>
       <c r="C120" t="n">
-        <v>7.204</v>
+        <v>13.854</v>
       </c>
       <c r="D120" t="n">
-        <v>2.32</v>
+        <v>4.806</v>
       </c>
       <c r="E120" t="n">
-        <v>1.523</v>
+        <v>2.192</v>
       </c>
       <c r="F120" t="n">
-        <v>1.523</v>
+        <v>2.138</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Ensemble356</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-49.23</v>
+        <v>-58.803</v>
       </c>
       <c r="C121" t="n">
-        <v>3.283</v>
+        <v>3.718</v>
       </c>
       <c r="D121" t="n">
-        <v>1.707</v>
+        <v>2.033</v>
       </c>
       <c r="E121" t="n">
-        <v>1.307</v>
+        <v>1.426</v>
       </c>
       <c r="F121" t="n">
-        <v>1.266</v>
+        <v>1.407</v>
       </c>
       <c r="G121" t="n">
         <v>-1</v>
@@ -3472,19 +3472,19 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.922</v>
+        <v>0.797</v>
       </c>
       <c r="C122" t="n">
-        <v>1.004</v>
+        <v>1.009</v>
       </c>
       <c r="D122" t="n">
-        <v>0.012</v>
+        <v>0.032</v>
       </c>
       <c r="E122" t="n">
-        <v>0.11</v>
+        <v>0.179</v>
       </c>
       <c r="F122" t="n">
-        <v>0.486</v>
+        <v>0.519</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -3497,19 +3497,19 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.394</v>
+        <v>-2.344</v>
       </c>
       <c r="C123" t="n">
-        <v>1.063</v>
+        <v>1.152</v>
       </c>
       <c r="D123" t="n">
-        <v>0.22</v>
+        <v>0.528</v>
       </c>
       <c r="E123" t="n">
-        <v>0.469</v>
+        <v>0.727</v>
       </c>
       <c r="F123" t="n">
-        <v>0.484</v>
+        <v>0.665</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -3522,21 +3522,23 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-14.271</v>
+        <v>-38.115</v>
       </c>
       <c r="C124" t="n">
-        <v>1.694</v>
+        <v>2.778</v>
       </c>
       <c r="D124" t="n">
-        <v>2.411</v>
+        <v>6.175</v>
       </c>
       <c r="E124" t="n">
-        <v>1.553</v>
+        <v>2.485</v>
       </c>
       <c r="F124" t="n">
-        <v>1.501</v>
-      </c>
-      <c r="G124" t="inlineStr"/>
+        <v>2.124</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -3545,19 +3547,19 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-5.528</v>
+        <v>-10.715</v>
       </c>
       <c r="C125" t="n">
-        <v>1.593</v>
+        <v>2.065</v>
       </c>
       <c r="D125" t="n">
-        <v>1.031</v>
+        <v>1.849</v>
       </c>
       <c r="E125" t="n">
-        <v>1.015</v>
+        <v>1.36</v>
       </c>
       <c r="F125" t="n">
-        <v>0.674</v>
+        <v>0.954</v>
       </c>
       <c r="G125" t="n">
         <v>-1</v>
@@ -3566,23 +3568,23 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Ensemble358</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.093</v>
+        <v>0.255</v>
       </c>
       <c r="C126" t="n">
-        <v>1.05</v>
+        <v>1.034</v>
       </c>
       <c r="D126" t="n">
-        <v>0.173</v>
+        <v>0.118</v>
       </c>
       <c r="E126" t="n">
-        <v>0.416</v>
+        <v>0.344</v>
       </c>
       <c r="F126" t="n">
-        <v>0.492</v>
+        <v>0.46</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -3595,19 +3597,19 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-2</v>
+        <v>-2.029</v>
       </c>
       <c r="C127" t="n">
-        <v>1.136</v>
+        <v>1.138</v>
       </c>
       <c r="D127" t="n">
-        <v>1.966</v>
+        <v>1.985</v>
       </c>
       <c r="E127" t="n">
-        <v>1.402</v>
+        <v>1.409</v>
       </c>
       <c r="F127" t="n">
-        <v>1.264</v>
+        <v>1.262</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -3620,22 +3622,22 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-2.991</v>
+        <v>-3.039</v>
       </c>
       <c r="C128" t="n">
-        <v>1.181</v>
+        <v>1.184</v>
       </c>
       <c r="D128" t="n">
-        <v>2.616</v>
+        <v>2.647</v>
       </c>
       <c r="E128" t="n">
-        <v>1.617</v>
+        <v>1.627</v>
       </c>
       <c r="F128" t="n">
-        <v>1.36</v>
+        <v>1.458</v>
       </c>
       <c r="G128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3645,21 +3647,23 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.408</v>
+        <v>-2.49</v>
       </c>
       <c r="C129" t="n">
-        <v>1.064</v>
+        <v>1.159</v>
       </c>
       <c r="D129" t="n">
-        <v>0.923</v>
+        <v>2.287</v>
       </c>
       <c r="E129" t="n">
-        <v>0.961</v>
+        <v>1.512</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G129" t="inlineStr"/>
+        <v>1.213</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -3668,19 +3672,19 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.866</v>
+        <v>-2.916</v>
       </c>
       <c r="C130" t="n">
-        <v>1.012</v>
+        <v>1.356</v>
       </c>
       <c r="D130" t="n">
-        <v>0.08799999999999999</v>
+        <v>2.566</v>
       </c>
       <c r="E130" t="n">
-        <v>0.297</v>
+        <v>1.602</v>
       </c>
       <c r="F130" t="n">
-        <v>0.884</v>
+        <v>1.395</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -3689,23 +3693,23 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Ensemble360</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-2.069</v>
+        <v>-1.966</v>
       </c>
       <c r="C131" t="n">
-        <v>1.14</v>
+        <v>1.135</v>
       </c>
       <c r="D131" t="n">
-        <v>2.012</v>
+        <v>1.944</v>
       </c>
       <c r="E131" t="n">
-        <v>1.418</v>
+        <v>1.394</v>
       </c>
       <c r="F131" t="n">
-        <v>1.192</v>
+        <v>1.234</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -3718,19 +3722,19 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.764</v>
+        <v>0.506</v>
       </c>
       <c r="C132" t="n">
-        <v>1.011</v>
+        <v>1.022</v>
       </c>
       <c r="D132" t="n">
-        <v>0.017</v>
+        <v>0.035</v>
       </c>
       <c r="E132" t="n">
-        <v>0.13</v>
+        <v>0.187</v>
       </c>
       <c r="F132" t="n">
-        <v>0.333</v>
+        <v>0.376</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -3743,19 +3747,19 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-29.726</v>
+        <v>-11.405</v>
       </c>
       <c r="C133" t="n">
-        <v>2.397</v>
+        <v>1.564</v>
       </c>
       <c r="D133" t="n">
-        <v>2.182</v>
+        <v>0.881</v>
       </c>
       <c r="E133" t="n">
-        <v>1.477</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>1.025</v>
+        <v>0.649</v>
       </c>
       <c r="G133" t="n">
         <v>-1</v>
@@ -3768,21 +3772,23 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-2.377</v>
+        <v>-6.291</v>
       </c>
       <c r="C134" t="n">
-        <v>1.154</v>
+        <v>1.331</v>
       </c>
       <c r="D134" t="n">
-        <v>0.24</v>
+        <v>0.518</v>
       </c>
       <c r="E134" t="n">
-        <v>0.49</v>
+        <v>0.72</v>
       </c>
       <c r="F134" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="G134" t="inlineStr"/>
+        <v>0.658</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -3791,19 +3797,19 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-765.037</v>
+        <v>-11.727</v>
       </c>
       <c r="C135" t="n">
-        <v>70.64</v>
+        <v>2.157</v>
       </c>
       <c r="D135" t="n">
-        <v>54.404</v>
+        <v>0.904</v>
       </c>
       <c r="E135" t="n">
-        <v>7.376</v>
+        <v>0.951</v>
       </c>
       <c r="F135" t="n">
-        <v>6.165</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -3812,23 +3818,23 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Ensemble362</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-4.823</v>
+        <v>-0.728</v>
       </c>
       <c r="C136" t="n">
-        <v>1.265</v>
+        <v>1.079</v>
       </c>
       <c r="D136" t="n">
-        <v>0.414</v>
+        <v>0.123</v>
       </c>
       <c r="E136" t="n">
-        <v>0.643</v>
+        <v>0.351</v>
       </c>
       <c r="F136" t="n">
-        <v>0.443</v>
+        <v>0.266</v>
       </c>
       <c r="G136" t="n">
         <v>-1</v>
@@ -3841,19 +3847,19 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1645.986</v>
+        <v>-1570.996</v>
       </c>
       <c r="C137" t="n">
-        <v>75.863</v>
+        <v>72.45399999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>17.863</v>
+        <v>17.05</v>
       </c>
       <c r="E137" t="n">
-        <v>4.226</v>
+        <v>4.129</v>
       </c>
       <c r="F137" t="n">
-        <v>3.69</v>
+        <v>3.539</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -3866,19 +3872,19 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-271.718</v>
+        <v>-221.229</v>
       </c>
       <c r="C138" t="n">
-        <v>13.396</v>
+        <v>11.101</v>
       </c>
       <c r="D138" t="n">
-        <v>2.958</v>
+        <v>2.41</v>
       </c>
       <c r="E138" t="n">
-        <v>1.72</v>
+        <v>1.552</v>
       </c>
       <c r="F138" t="n">
-        <v>1.706</v>
+        <v>1.515</v>
       </c>
       <c r="G138" t="n">
         <v>-1</v>
@@ -3891,21 +3897,23 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-172.012</v>
+        <v>-156.996</v>
       </c>
       <c r="C139" t="n">
-        <v>8.864000000000001</v>
+        <v>8.182</v>
       </c>
       <c r="D139" t="n">
-        <v>1.876</v>
+        <v>1.714</v>
       </c>
       <c r="E139" t="n">
-        <v>1.37</v>
+        <v>1.309</v>
       </c>
       <c r="F139" t="n">
-        <v>1.366</v>
-      </c>
-      <c r="G139" t="inlineStr"/>
+        <v>1.276</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -3914,19 +3922,19 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-1001.464</v>
+        <v>-163.115</v>
       </c>
       <c r="C140" t="n">
-        <v>92.133</v>
+        <v>15.92</v>
       </c>
       <c r="D140" t="n">
-        <v>10.873</v>
+        <v>1.78</v>
       </c>
       <c r="E140" t="n">
-        <v>3.297</v>
+        <v>1.334</v>
       </c>
       <c r="F140" t="n">
-        <v>2.874</v>
+        <v>1.268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -3935,23 +3943,23 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Ensemble364</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-637.718</v>
+        <v>-470.563</v>
       </c>
       <c r="C141" t="n">
-        <v>30.033</v>
+        <v>22.435</v>
       </c>
       <c r="D141" t="n">
-        <v>6.927</v>
+        <v>5.115</v>
       </c>
       <c r="E141" t="n">
-        <v>2.632</v>
+        <v>2.262</v>
       </c>
       <c r="F141" t="n">
-        <v>2.512</v>
+        <v>2.165</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -3964,19 +3972,19 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1.878</v>
+        <v>-1.797</v>
       </c>
       <c r="C142" t="n">
-        <v>1.131</v>
+        <v>1.127</v>
       </c>
       <c r="D142" t="n">
-        <v>3.641</v>
+        <v>3.538</v>
       </c>
       <c r="E142" t="n">
-        <v>1.908</v>
+        <v>1.881</v>
       </c>
       <c r="F142" t="n">
-        <v>1.326</v>
+        <v>1.307</v>
       </c>
       <c r="G142" t="n">
         <v>-1</v>
@@ -3989,19 +3997,19 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1.126</v>
+        <v>-1.593</v>
       </c>
       <c r="C143" t="n">
-        <v>1.097</v>
+        <v>1.118</v>
       </c>
       <c r="D143" t="n">
-        <v>2.689</v>
+        <v>3.28</v>
       </c>
       <c r="E143" t="n">
-        <v>1.64</v>
+        <v>1.811</v>
       </c>
       <c r="F143" t="n">
-        <v>1.224</v>
+        <v>1.445</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -4014,16 +4022,16 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.065</v>
+        <v>-0.679</v>
       </c>
       <c r="C144" t="n">
-        <v>1.048</v>
+        <v>1.076</v>
       </c>
       <c r="D144" t="n">
-        <v>1.347</v>
+        <v>2.123</v>
       </c>
       <c r="E144" t="n">
-        <v>1.161</v>
+        <v>1.457</v>
       </c>
       <c r="F144" t="n">
         <v>1.125</v>
@@ -4039,44 +4047,44 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-4.373</v>
+        <v>-1.96</v>
       </c>
       <c r="C145" t="n">
-        <v>1.488</v>
+        <v>1.269</v>
       </c>
       <c r="D145" t="n">
-        <v>6.795</v>
+        <v>3.744</v>
       </c>
       <c r="E145" t="n">
-        <v>2.607</v>
+        <v>1.935</v>
       </c>
       <c r="F145" t="n">
-        <v>2.607</v>
+        <v>1.424</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Ensemble366</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-1.756</v>
+        <v>-1.656</v>
       </c>
       <c r="C146" t="n">
-        <v>1.125</v>
+        <v>1.121</v>
       </c>
       <c r="D146" t="n">
-        <v>3.486</v>
+        <v>3.359</v>
       </c>
       <c r="E146" t="n">
-        <v>1.867</v>
+        <v>1.833</v>
       </c>
       <c r="F146" t="n">
-        <v>1.346</v>
+        <v>1.292</v>
       </c>
       <c r="G146" t="n">
         <v>-1</v>
@@ -4089,19 +4097,19 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-53.217</v>
+        <v>-47.939</v>
       </c>
       <c r="C147" t="n">
-        <v>3.464</v>
+        <v>3.224</v>
       </c>
       <c r="D147" t="n">
-        <v>8.359999999999999</v>
+        <v>7.546</v>
       </c>
       <c r="E147" t="n">
-        <v>2.891</v>
+        <v>2.747</v>
       </c>
       <c r="F147" t="n">
-        <v>2.845</v>
+        <v>2.689</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -4114,19 +4122,19 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-17.511</v>
+        <v>-14.886</v>
       </c>
       <c r="C148" t="n">
-        <v>1.841</v>
+        <v>1.722</v>
       </c>
       <c r="D148" t="n">
-        <v>2.854</v>
+        <v>2.45</v>
       </c>
       <c r="E148" t="n">
-        <v>1.689</v>
+        <v>1.565</v>
       </c>
       <c r="F148" t="n">
-        <v>1.654</v>
+        <v>1.541</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -4139,21 +4147,23 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-4.759</v>
+        <v>-6.661</v>
       </c>
       <c r="C149" t="n">
-        <v>1.262</v>
+        <v>1.348</v>
       </c>
       <c r="D149" t="n">
-        <v>0.888</v>
+        <v>1.181</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9419999999999999</v>
+        <v>1.087</v>
       </c>
       <c r="F149" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="G149" t="inlineStr"/>
+        <v>1.074</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -4162,19 +4172,19 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-106.947</v>
+        <v>-44.002</v>
       </c>
       <c r="C150" t="n">
-        <v>10.813</v>
+        <v>5.091</v>
       </c>
       <c r="D150" t="n">
-        <v>16.645</v>
+        <v>6.939</v>
       </c>
       <c r="E150" t="n">
-        <v>4.08</v>
+        <v>2.634</v>
       </c>
       <c r="F150" t="n">
-        <v>3.841</v>
+        <v>2.437</v>
       </c>
       <c r="G150" t="n">
         <v>-1</v>
@@ -4183,23 +4193,23 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Ensemble368</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.369</v>
+        <v>-24.992</v>
       </c>
       <c r="C151" t="n">
-        <v>2.744</v>
+        <v>2.181</v>
       </c>
       <c r="D151" t="n">
-        <v>5.916</v>
+        <v>4.008</v>
       </c>
       <c r="E151" t="n">
-        <v>2.432</v>
+        <v>2.002</v>
       </c>
       <c r="F151" t="n">
-        <v>2.43</v>
+        <v>2.002</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -4212,19 +4222,19 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1788.294</v>
+        <v>-2498.905</v>
       </c>
       <c r="C152" t="n">
-        <v>82.33199999999999</v>
+        <v>114.632</v>
       </c>
       <c r="D152" t="n">
-        <v>2.093</v>
+        <v>2.925</v>
       </c>
       <c r="E152" t="n">
-        <v>1.447</v>
+        <v>1.71</v>
       </c>
       <c r="F152" t="n">
-        <v>1.096</v>
+        <v>1.341</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -4237,19 +4247,19 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-1776.335</v>
+        <v>-2650.188</v>
       </c>
       <c r="C153" t="n">
-        <v>81.788</v>
+        <v>121.509</v>
       </c>
       <c r="D153" t="n">
-        <v>2.079</v>
+        <v>3.102</v>
       </c>
       <c r="E153" t="n">
-        <v>1.442</v>
+        <v>1.761</v>
       </c>
       <c r="F153" t="n">
-        <v>1.2</v>
+        <v>1.325</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -4262,21 +4272,23 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-11121.41</v>
+        <v>-16808.019</v>
       </c>
       <c r="C154" t="n">
-        <v>506.564</v>
+        <v>765.046</v>
       </c>
       <c r="D154" t="n">
-        <v>13.013</v>
+        <v>19.666</v>
       </c>
       <c r="E154" t="n">
-        <v>3.607</v>
+        <v>4.435</v>
       </c>
       <c r="F154" t="n">
-        <v>3.607</v>
-      </c>
-      <c r="G154" t="inlineStr"/>
+        <v>4.433</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -4285,19 +4297,19 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-10682.119</v>
+        <v>-160.24</v>
       </c>
       <c r="C155" t="n">
-        <v>972.193</v>
+        <v>15.658</v>
       </c>
       <c r="D155" t="n">
-        <v>12.499</v>
+        <v>0.189</v>
       </c>
       <c r="E155" t="n">
-        <v>3.535</v>
+        <v>0.435</v>
       </c>
       <c r="F155" t="n">
-        <v>2.885</v>
+        <v>0.361</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -4306,23 +4318,23 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Ensemble370</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-2468.688</v>
+        <v>-2217.337</v>
       </c>
       <c r="C156" t="n">
-        <v>113.259</v>
+        <v>101.834</v>
       </c>
       <c r="D156" t="n">
-        <v>2.889</v>
+        <v>2.595</v>
       </c>
       <c r="E156" t="n">
-        <v>1.7</v>
+        <v>1.611</v>
       </c>
       <c r="F156" t="n">
-        <v>1.317</v>
+        <v>1.373</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -4335,19 +4347,19 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-2.572</v>
+        <v>-1.363</v>
       </c>
       <c r="C157" t="n">
-        <v>1.162</v>
+        <v>1.107</v>
       </c>
       <c r="D157" t="n">
-        <v>0.272</v>
+        <v>0.18</v>
       </c>
       <c r="E157" t="n">
-        <v>0.522</v>
+        <v>0.424</v>
       </c>
       <c r="F157" t="n">
-        <v>0.504</v>
+        <v>0.435</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -4360,19 +4372,19 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-3.426</v>
+        <v>-3.752</v>
       </c>
       <c r="C158" t="n">
-        <v>1.201</v>
+        <v>1.216</v>
       </c>
       <c r="D158" t="n">
-        <v>0.337</v>
+        <v>0.362</v>
       </c>
       <c r="E158" t="n">
-        <v>0.581</v>
+        <v>0.602</v>
       </c>
       <c r="F158" t="n">
-        <v>0.58</v>
+        <v>0.646</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -4385,21 +4397,23 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-0.25</v>
+        <v>-1.023</v>
       </c>
       <c r="C159" t="n">
-        <v>1.057</v>
+        <v>1.092</v>
       </c>
       <c r="D159" t="n">
-        <v>0.095</v>
+        <v>0.154</v>
       </c>
       <c r="E159" t="n">
-        <v>0.308</v>
+        <v>0.392</v>
       </c>
       <c r="F159" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="G159" t="inlineStr"/>
+        <v>0.435</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -4408,44 +4422,44 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-770.99</v>
+        <v>-75.824</v>
       </c>
       <c r="C160" t="n">
-        <v>71.181</v>
+        <v>7.984</v>
       </c>
       <c r="D160" t="n">
-        <v>58.755</v>
+        <v>5.847</v>
       </c>
       <c r="E160" t="n">
-        <v>7.665</v>
+        <v>2.418</v>
       </c>
       <c r="F160" t="n">
-        <v>7.387</v>
+        <v>2.402</v>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Ensemble372</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-2.461</v>
+        <v>-7.39</v>
       </c>
       <c r="C161" t="n">
-        <v>1.157</v>
+        <v>1.381</v>
       </c>
       <c r="D161" t="n">
-        <v>0.263</v>
+        <v>0.639</v>
       </c>
       <c r="E161" t="n">
-        <v>0.513</v>
+        <v>0.799</v>
       </c>
       <c r="F161" t="n">
-        <v>0.498</v>
+        <v>0.791</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4458,19 +4472,19 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-11.46</v>
+        <v>-12.161</v>
       </c>
       <c r="C162" t="n">
-        <v>1.566</v>
+        <v>1.598</v>
       </c>
       <c r="D162" t="n">
-        <v>1.108</v>
+        <v>1.171</v>
       </c>
       <c r="E162" t="n">
-        <v>1.053</v>
+        <v>1.082</v>
       </c>
       <c r="F162" t="n">
-        <v>0.988</v>
+        <v>1.035</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -4483,19 +4497,19 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-22.689</v>
+        <v>-18.135</v>
       </c>
       <c r="C163" t="n">
-        <v>2.077</v>
+        <v>1.87</v>
       </c>
       <c r="D163" t="n">
-        <v>2.107</v>
+        <v>1.702</v>
       </c>
       <c r="E163" t="n">
-        <v>1.452</v>
+        <v>1.305</v>
       </c>
       <c r="F163" t="n">
-        <v>1.59</v>
+        <v>1.295</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -4508,21 +4522,23 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-22.686</v>
+        <v>-17.34</v>
       </c>
       <c r="C164" t="n">
-        <v>2.077</v>
+        <v>1.834</v>
       </c>
       <c r="D164" t="n">
-        <v>2.107</v>
+        <v>1.631</v>
       </c>
       <c r="E164" t="n">
-        <v>1.452</v>
+        <v>1.277</v>
       </c>
       <c r="F164" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G164" t="inlineStr"/>
+        <v>1.272</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -4531,19 +4547,19 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-1425.651</v>
+        <v>-15.366</v>
       </c>
       <c r="C165" t="n">
-        <v>130.696</v>
+        <v>2.488</v>
       </c>
       <c r="D165" t="n">
-        <v>126.881</v>
+        <v>1.456</v>
       </c>
       <c r="E165" t="n">
-        <v>11.264</v>
+        <v>1.207</v>
       </c>
       <c r="F165" t="n">
-        <v>10.663</v>
+        <v>0.836</v>
       </c>
       <c r="G165" t="n">
         <v>-1</v>
@@ -4552,23 +4568,23 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Ensemble374</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-15.56</v>
+        <v>-13.16</v>
       </c>
       <c r="C166" t="n">
-        <v>1.753</v>
+        <v>1.644</v>
       </c>
       <c r="D166" t="n">
-        <v>1.473</v>
+        <v>1.259</v>
       </c>
       <c r="E166" t="n">
-        <v>1.214</v>
+        <v>1.122</v>
       </c>
       <c r="F166" t="n">
-        <v>1.106</v>
+        <v>1.04</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -4581,19 +4597,19 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-28.328</v>
+        <v>-26.755</v>
       </c>
       <c r="C167" t="n">
-        <v>2.333</v>
+        <v>2.262</v>
       </c>
       <c r="D167" t="n">
-        <v>3.579</v>
+        <v>3.387</v>
       </c>
       <c r="E167" t="n">
-        <v>1.892</v>
+        <v>1.84</v>
       </c>
       <c r="F167" t="n">
-        <v>1.507</v>
+        <v>1.474</v>
       </c>
       <c r="G167" t="n">
         <v>-1</v>
@@ -4606,19 +4622,19 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-17.246</v>
+        <v>-12.606</v>
       </c>
       <c r="C168" t="n">
-        <v>1.829</v>
+        <v>1.618</v>
       </c>
       <c r="D168" t="n">
-        <v>2.227</v>
+        <v>1.661</v>
       </c>
       <c r="E168" t="n">
-        <v>1.492</v>
+        <v>1.289</v>
       </c>
       <c r="F168" t="n">
-        <v>1.097</v>
+        <v>1.004</v>
       </c>
       <c r="G168" t="n">
         <v>-1</v>
@@ -4631,19 +4647,19 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-39.314</v>
+        <v>-31.8</v>
       </c>
       <c r="C169" t="n">
-        <v>2.832</v>
+        <v>2.491</v>
       </c>
       <c r="D169" t="n">
-        <v>4.92</v>
+        <v>4.003</v>
       </c>
       <c r="E169" t="n">
-        <v>2.218</v>
+        <v>2.001</v>
       </c>
       <c r="F169" t="n">
-        <v>2.19</v>
+        <v>1.946</v>
       </c>
       <c r="G169" t="n">
         <v>-1</v>
@@ -4656,44 +4672,44 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-689.691</v>
+        <v>-29.733</v>
       </c>
       <c r="C170" t="n">
-        <v>63.79</v>
+        <v>3.794</v>
       </c>
       <c r="D170" t="n">
-        <v>84.29600000000001</v>
+        <v>3.751</v>
       </c>
       <c r="E170" t="n">
-        <v>9.180999999999999</v>
+        <v>1.937</v>
       </c>
       <c r="F170" t="n">
-        <v>8.44</v>
+        <v>1.715</v>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Ensemble376</t>
+          <t>Ensemble</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-17.898</v>
+        <v>-22.03</v>
       </c>
       <c r="C171" t="n">
-        <v>1.859</v>
+        <v>2.047</v>
       </c>
       <c r="D171" t="n">
-        <v>2.306</v>
+        <v>2.811</v>
       </c>
       <c r="E171" t="n">
-        <v>1.519</v>
+        <v>1.677</v>
       </c>
       <c r="F171" t="n">
-        <v>1.238</v>
+        <v>1.376</v>
       </c>
       <c r="G171" t="n">
         <v>-1</v>
@@ -4706,22 +4722,22 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.1118666666666667</v>
+        <v>-0.2202</v>
       </c>
       <c r="C172" t="n">
-        <v>1.714666666666667</v>
+        <v>1.7844</v>
       </c>
       <c r="D172" t="n">
-        <v>1.022666666666667</v>
+        <v>1.0552</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8994666666666666</v>
+        <v>0.9232666666666665</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9151999999999999</v>
+        <v>0.9626666666666668</v>
       </c>
       <c r="G172" t="n">
-        <v>0.4269333333333333</v>
+        <v>0.4394</v>
       </c>
     </row>
     <row r="173">
@@ -4731,22 +4747,22 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.0402</v>
+        <v>0.01100000000000001</v>
       </c>
       <c r="C173" t="n">
-        <v>1.617</v>
+        <v>1.6358</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9876666666666668</v>
+        <v>0.9770000000000001</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8738</v>
+        <v>0.8812</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8831333333333333</v>
+        <v>0.8811333333333332</v>
       </c>
       <c r="G173" t="n">
-        <v>0.5176666666666666</v>
+        <v>0.4792</v>
       </c>
     </row>
     <row r="174">
@@ -4756,22 +4772,22 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.4179333333333333</v>
+        <v>-0.2666666666666667</v>
       </c>
       <c r="C174" t="n">
-        <v>3.350733333333333</v>
+        <v>3.0229</v>
       </c>
       <c r="D174" t="n">
-        <v>1.184566666666667</v>
+        <v>1.1963</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9688</v>
+        <v>0.9527</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9484333333333332</v>
+        <v>0.9326666666666666</v>
       </c>
       <c r="G174" t="n">
-        <v>0.3671333333333333</v>
+        <v>0.4469666666666666</v>
       </c>
     </row>
     <row r="175">
@@ -4781,22 +4797,22 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.2211333333333333</v>
+        <v>-0.02546666666666666</v>
       </c>
       <c r="C175" t="n">
-        <v>4.663399999999999</v>
+        <v>4.0764</v>
       </c>
       <c r="D175" t="n">
-        <v>1.163266666666666</v>
+        <v>1.0334</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9339333333333336</v>
+        <v>0.8940666666666668</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9127333333333333</v>
+        <v>0.8604666666666669</v>
       </c>
       <c r="G175" t="n">
-        <v>0.4172666666666667</v>
+        <v>0.4661333333333334</v>
       </c>
     </row>
     <row r="176">
@@ -4806,22 +4822,22 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.096</v>
+        <v>0.08106666666666668</v>
       </c>
       <c r="C176" t="n">
-        <v>1.581266666666667</v>
+        <v>1.5908</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9676666666666669</v>
+        <v>0.9548666666666666</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8541333333333333</v>
+        <v>0.8551333333333332</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8467999999999999</v>
+        <v>0.8573333333333333</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4808666666666666</v>
+        <v>0.4795333333333333</v>
       </c>
     </row>
     <row r="177">
@@ -4831,22 +4847,22 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-604.8336315789473</v>
+        <v>-2047.427315789474</v>
       </c>
       <c r="C177" t="n">
-        <v>28.53784210526316</v>
+        <v>94.11026315789472</v>
       </c>
       <c r="D177" t="n">
-        <v>169.1995789473685</v>
+        <v>756.9084736842105</v>
       </c>
       <c r="E177" t="n">
-        <v>5.725157894736841</v>
+        <v>9.345263157894736</v>
       </c>
       <c r="F177" t="n">
-        <v>4.915526315789475</v>
+        <v>7.551736842105262</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="178">
@@ -4856,22 +4872,22 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-122.738052631579</v>
+        <v>-163.8381052631579</v>
       </c>
       <c r="C178" t="n">
-        <v>6.624421052631578</v>
+        <v>8.492684210526317</v>
       </c>
       <c r="D178" t="n">
-        <v>1.66621052631579</v>
+        <v>1.62</v>
       </c>
       <c r="E178" t="n">
-        <v>1.155842105263158</v>
+        <v>1.144789473684211</v>
       </c>
       <c r="F178" t="n">
-        <v>1.057263157894737</v>
+        <v>1.047052631578947</v>
       </c>
       <c r="G178" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.4736842105263158</v>
       </c>
     </row>
     <row r="179">
@@ -4881,22 +4897,22 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-731.1139736842106</v>
+        <v>-476.2793947368422</v>
       </c>
       <c r="C179" t="n">
-        <v>53.74447368421053</v>
+        <v>23.71673684210527</v>
       </c>
       <c r="D179" t="n">
-        <v>13.0876052631579</v>
+        <v>3.056526315789474</v>
       </c>
       <c r="E179" t="n">
-        <v>2.472368421052632</v>
+        <v>1.468315789473684</v>
       </c>
       <c r="F179" t="n">
-        <v>2.258578947368421</v>
+        <v>1.360842105263158</v>
       </c>
       <c r="G179" t="n">
-        <v>-0.06666666666666667</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="180">
@@ -4906,22 +4922,22 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-855.5323157894737</v>
+        <v>-43.97852631578947</v>
       </c>
       <c r="C180" t="n">
-        <v>78.86652631578947</v>
+        <v>5.088947368421052</v>
       </c>
       <c r="D180" t="n">
-        <v>23.70247368421052</v>
+        <v>3.111157894736842</v>
       </c>
       <c r="E180" t="n">
-        <v>3.658894736842106</v>
+        <v>1.513157894736842</v>
       </c>
       <c r="F180" t="n">
-        <v>3.314157894736842</v>
+        <v>1.366578947368421</v>
       </c>
       <c r="G180" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="181">
@@ -4931,22 +4947,22 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-224.6854736842106</v>
+        <v>-348.2573684210527</v>
       </c>
       <c r="C181" t="n">
-        <v>11.25852631578947</v>
+        <v>16.87547368421053</v>
       </c>
       <c r="D181" t="n">
-        <v>23.10273684210526</v>
+        <v>84.61868421052631</v>
       </c>
       <c r="E181" t="n">
-        <v>2.588105263157894</v>
+        <v>3.652736842105264</v>
       </c>
       <c r="F181" t="n">
-        <v>2.259210526315789</v>
+        <v>2.998894736842105</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="182">
@@ -4956,22 +4972,22 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-100.8988274853801</v>
+        <v>-341.4213859649123</v>
       </c>
       <c r="C182" t="n">
-        <v>6.185195906432749</v>
+        <v>17.17204385964912</v>
       </c>
       <c r="D182" t="n">
-        <v>29.05215204678363</v>
+        <v>127.0307456140351</v>
       </c>
       <c r="E182" t="n">
-        <v>1.703748538011696</v>
+        <v>2.326932748538011</v>
       </c>
       <c r="F182" t="n">
-        <v>1.581921052631579</v>
+        <v>2.060845029239766</v>
       </c>
       <c r="G182" t="n">
-        <v>0.382093567251462</v>
+        <v>0.4100263157894737</v>
       </c>
     </row>
     <row r="183">
@@ -4981,22 +4997,22 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-20.42284210526316</v>
+        <v>-27.29718421052632</v>
       </c>
       <c r="C183" t="n">
-        <v>2.451570175438597</v>
+        <v>2.778614035087719</v>
       </c>
       <c r="D183" t="n">
-        <v>1.100757309941521</v>
+        <v>1.084166666666667</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9208070175438596</v>
+        <v>0.9251315789473683</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9121549707602338</v>
+        <v>0.9087865497076022</v>
       </c>
       <c r="G183" t="n">
-        <v>0.4752485380116958</v>
+        <v>0.478280701754386</v>
       </c>
     </row>
     <row r="184">
@@ -5006,22 +5022,22 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-122.2006067251462</v>
+        <v>-79.60212134502925</v>
       </c>
       <c r="C184" t="n">
-        <v>11.74969005847953</v>
+        <v>6.471872807017545</v>
       </c>
       <c r="D184" t="n">
-        <v>3.168406432748538</v>
+        <v>1.506337719298245</v>
       </c>
       <c r="E184" t="n">
-        <v>1.219394736842105</v>
+        <v>1.038635964912281</v>
       </c>
       <c r="F184" t="n">
-        <v>1.166790935672515</v>
+        <v>1.004029239766082</v>
       </c>
       <c r="G184" t="n">
-        <v>0.2948333333333333</v>
+        <v>0.3812441520467836</v>
       </c>
     </row>
     <row r="185">
@@ -5031,22 +5047,22 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-142.7729970760234</v>
+        <v>-7.350976608187135</v>
       </c>
       <c r="C185" t="n">
-        <v>17.03058771929824</v>
+        <v>4.245157894736842</v>
       </c>
       <c r="D185" t="n">
-        <v>4.919801169590643</v>
+        <v>1.379692982456141</v>
       </c>
       <c r="E185" t="n">
-        <v>1.388093567251462</v>
+        <v>0.9972485380116961</v>
       </c>
       <c r="F185" t="n">
-        <v>1.312970760233918</v>
+        <v>0.9448187134502927</v>
       </c>
       <c r="G185" t="n">
-        <v>0.3915818713450292</v>
+        <v>0.397216374269006</v>
       </c>
     </row>
     <row r="186">
@@ -5056,22 +5072,22 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-37.36757894736844</v>
+        <v>-57.97533918128656</v>
       </c>
       <c r="C186" t="n">
-        <v>3.194143274853801</v>
+        <v>4.138245614035088</v>
       </c>
       <c r="D186" t="n">
-        <v>4.656845029239766</v>
+        <v>14.89883625730994</v>
       </c>
       <c r="E186" t="n">
-        <v>1.14312865497076</v>
+        <v>1.321400584795322</v>
       </c>
       <c r="F186" t="n">
-        <v>1.082201754385965</v>
+        <v>1.214260233918129</v>
       </c>
       <c r="G186" t="n">
-        <v>0.4094941520467836</v>
+        <v>0.4434707602339181</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics/rollingTestMetrics.xlsx
+++ b/Metrics/rollingTestMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.181</v>
+        <v>0.176</v>
       </c>
       <c r="C3" t="n">
-        <v>1.526</v>
+        <v>1.53</v>
       </c>
       <c r="D3" t="n">
-        <v>5.65</v>
+        <v>5.688</v>
       </c>
       <c r="E3" t="n">
-        <v>2.377</v>
+        <v>2.385</v>
       </c>
       <c r="F3" t="n">
         <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.238</v>
+        <v>0.369</v>
       </c>
       <c r="C4" t="n">
-        <v>1.49</v>
+        <v>1.406</v>
       </c>
       <c r="D4" t="n">
-        <v>5.259</v>
+        <v>4.358</v>
       </c>
       <c r="E4" t="n">
-        <v>2.293</v>
+        <v>2.088</v>
       </c>
       <c r="F4" t="n">
-        <v>2.558</v>
+        <v>2.555</v>
       </c>
       <c r="G4" t="n">
-        <v>0.601</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.239</v>
+        <v>0.221</v>
       </c>
       <c r="C5" t="n">
-        <v>3.283</v>
+        <v>3.337</v>
       </c>
       <c r="D5" t="n">
-        <v>5.254</v>
+        <v>5.372</v>
       </c>
       <c r="E5" t="n">
-        <v>2.292</v>
+        <v>2.318</v>
       </c>
       <c r="F5" t="n">
-        <v>2.27</v>
+        <v>2.399</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.149</v>
+        <v>0.151</v>
       </c>
       <c r="C6" t="n">
-        <v>1.547</v>
+        <v>1.546</v>
       </c>
       <c r="D6" t="n">
-        <v>5.873</v>
+        <v>5.859</v>
       </c>
       <c r="E6" t="n">
-        <v>2.423</v>
+        <v>2.421</v>
       </c>
       <c r="F6" t="n">
-        <v>2.279</v>
+        <v>2.273</v>
       </c>
       <c r="G6" t="n">
-        <v>0.648</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="7">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.005</v>
+        <v>0.112</v>
       </c>
       <c r="C8" t="n">
-        <v>1.646</v>
+        <v>1.571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.638</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>0.799</v>
+        <v>0.751</v>
       </c>
       <c r="F8" t="n">
-        <v>0.664</v>
+        <v>0.62</v>
       </c>
       <c r="G8" t="n">
-        <v>0.258</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.665</v>
+        <v>0.173</v>
       </c>
       <c r="C9" t="n">
-        <v>3.356</v>
+        <v>1.532</v>
       </c>
       <c r="D9" t="n">
-        <v>2.328</v>
+        <v>0.525</v>
       </c>
       <c r="E9" t="n">
-        <v>1.526</v>
+        <v>0.725</v>
       </c>
       <c r="F9" t="n">
-        <v>0.988</v>
+        <v>0.712</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.498</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.246</v>
+        <v>-0.544</v>
       </c>
       <c r="C10" t="n">
-        <v>4.738</v>
+        <v>5.632</v>
       </c>
       <c r="D10" t="n">
-        <v>0.791</v>
+        <v>0.981</v>
       </c>
       <c r="E10" t="n">
-        <v>0.889</v>
+        <v>0.99</v>
       </c>
       <c r="F10" t="n">
-        <v>0.71</v>
+        <v>0.741</v>
       </c>
       <c r="G10" t="n">
-        <v>0.119</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.075</v>
+        <v>-0.299</v>
       </c>
       <c r="C11" t="n">
-        <v>1.691</v>
+        <v>1.835</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="E11" t="n">
-        <v>0.826</v>
+        <v>0.908</v>
       </c>
       <c r="F11" t="n">
-        <v>0.656</v>
+        <v>0.634</v>
       </c>
       <c r="G11" t="n">
-        <v>0.151</v>
+        <v>-0.173</v>
       </c>
     </row>
     <row r="12">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.156</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>2.386</v>
+        <v>2.164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.376</v>
+        <v>0.316</v>
       </c>
       <c r="E13" t="n">
-        <v>0.613</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.528</v>
+        <v>0.514</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.021</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.843</v>
+        <v>-2.359</v>
       </c>
       <c r="C14" t="n">
-        <v>2.185</v>
+        <v>3.159</v>
       </c>
       <c r="D14" t="n">
-        <v>0.321</v>
+        <v>0.586</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.766</v>
       </c>
       <c r="F14" t="n">
-        <v>0.525</v>
+        <v>0.753</v>
       </c>
       <c r="G14" t="n">
-        <v>0.267</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.385</v>
+        <v>-1.05</v>
       </c>
       <c r="C15" t="n">
-        <v>5.155</v>
+        <v>7.15</v>
       </c>
       <c r="D15" t="n">
-        <v>0.242</v>
+        <v>0.358</v>
       </c>
       <c r="E15" t="n">
-        <v>0.492</v>
+        <v>0.598</v>
       </c>
       <c r="F15" t="n">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.003</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.719</v>
+        <v>-0.875</v>
       </c>
       <c r="C16" t="n">
-        <v>2.105</v>
+        <v>2.205</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3</v>
+        <v>0.327</v>
       </c>
       <c r="E16" t="n">
-        <v>0.548</v>
+        <v>0.572</v>
       </c>
       <c r="F16" t="n">
-        <v>0.432</v>
+        <v>0.44</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.105</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="17">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.059</v>
+        <v>-0.036</v>
       </c>
       <c r="C18" t="n">
-        <v>1.681</v>
+        <v>1.666</v>
       </c>
       <c r="D18" t="n">
-        <v>0.832</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.912</v>
+        <v>0.902</v>
       </c>
       <c r="F18" t="n">
-        <v>0.97</v>
+        <v>0.916</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.208</v>
+        <v>0.214</v>
       </c>
       <c r="C19" t="n">
-        <v>1.777</v>
+        <v>1.505</v>
       </c>
       <c r="D19" t="n">
-        <v>0.949</v>
+        <v>0.618</v>
       </c>
       <c r="E19" t="n">
-        <v>0.974</v>
+        <v>0.786</v>
       </c>
       <c r="F19" t="n">
-        <v>0.908</v>
+        <v>0.839</v>
       </c>
       <c r="G19" t="n">
-        <v>0.467</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.206</v>
+        <v>0.282</v>
       </c>
       <c r="C20" t="n">
-        <v>4.618</v>
+        <v>3.154</v>
       </c>
       <c r="D20" t="n">
-        <v>0.947</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.973</v>
+        <v>0.751</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.842</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.029</v>
+        <v>0.076</v>
       </c>
       <c r="C21" t="n">
-        <v>1.624</v>
+        <v>1.594</v>
       </c>
       <c r="D21" t="n">
-        <v>0.763</v>
+        <v>0.726</v>
       </c>
       <c r="E21" t="n">
-        <v>0.873</v>
+        <v>0.852</v>
       </c>
       <c r="F21" t="n">
-        <v>0.863</v>
+        <v>0.844</v>
       </c>
       <c r="G21" t="n">
-        <v>0.527</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="22">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.202</v>
+        <v>0.229</v>
       </c>
       <c r="C23" t="n">
-        <v>1.513</v>
+        <v>1.496</v>
       </c>
       <c r="D23" t="n">
-        <v>0.707</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.841</v>
+        <v>0.827</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9409999999999999</v>
+        <v>0.956</v>
       </c>
       <c r="G23" t="n">
-        <v>0.71</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.119</v>
+        <v>0.22</v>
       </c>
       <c r="C24" t="n">
-        <v>1.566</v>
+        <v>1.501</v>
       </c>
       <c r="D24" t="n">
-        <v>0.781</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.884</v>
+        <v>0.831</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>0.512</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.082</v>
+        <v>0.206</v>
       </c>
       <c r="C25" t="n">
-        <v>3.754</v>
+        <v>3.382</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.704</v>
       </c>
       <c r="E25" t="n">
-        <v>0.902</v>
+        <v>0.839</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9370000000000001</v>
+        <v>1.003</v>
       </c>
       <c r="G25" t="n">
-        <v>0.458</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="C26" t="n">
-        <v>1.489</v>
+        <v>1.482</v>
       </c>
       <c r="D26" t="n">
-        <v>0.674</v>
+        <v>0.665</v>
       </c>
       <c r="E26" t="n">
-        <v>0.821</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.927</v>
+        <v>0.922</v>
       </c>
       <c r="G26" t="n">
-        <v>0.616</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="27">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.065</v>
+        <v>0.166</v>
       </c>
       <c r="C28" t="n">
-        <v>1.601</v>
+        <v>1.536</v>
       </c>
       <c r="D28" t="n">
-        <v>1.171</v>
+        <v>1.045</v>
       </c>
       <c r="E28" t="n">
-        <v>1.082</v>
+        <v>1.022</v>
       </c>
       <c r="F28" t="n">
-        <v>1.024</v>
+        <v>1.019</v>
       </c>
       <c r="G28" t="n">
-        <v>0.325</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.415</v>
       </c>
       <c r="C29" t="n">
-        <v>1.278</v>
+        <v>1.376</v>
       </c>
       <c r="D29" t="n">
-        <v>0.541</v>
+        <v>0.733</v>
       </c>
       <c r="E29" t="n">
-        <v>0.736</v>
+        <v>0.856</v>
       </c>
       <c r="F29" t="n">
-        <v>1.036</v>
+        <v>1.021</v>
       </c>
       <c r="G29" t="n">
-        <v>0.836</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.382</v>
+        <v>0.068</v>
       </c>
       <c r="C30" t="n">
-        <v>2.854</v>
+        <v>3.796</v>
       </c>
       <c r="D30" t="n">
-        <v>0.775</v>
+        <v>1.168</v>
       </c>
       <c r="E30" t="n">
-        <v>0.88</v>
+        <v>1.081</v>
       </c>
       <c r="F30" t="n">
-        <v>1.036</v>
+        <v>1.122</v>
       </c>
       <c r="G30" t="n">
-        <v>0.732</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.328</v>
+        <v>0.285</v>
       </c>
       <c r="C31" t="n">
-        <v>1.432</v>
+        <v>1.46</v>
       </c>
       <c r="D31" t="n">
-        <v>0.842</v>
+        <v>0.896</v>
       </c>
       <c r="E31" t="n">
-        <v>0.918</v>
+        <v>0.947</v>
       </c>
       <c r="F31" t="n">
-        <v>1.023</v>
+        <v>1.024</v>
       </c>
       <c r="G31" t="n">
-        <v>0.607</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="32">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.124</v>
+        <v>0.032</v>
       </c>
       <c r="C33" t="n">
-        <v>1.563</v>
+        <v>1.622</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3</v>
+        <v>0.332</v>
       </c>
       <c r="E33" t="n">
-        <v>0.548</v>
+        <v>0.576</v>
       </c>
       <c r="F33" t="n">
-        <v>0.603</v>
+        <v>0.626</v>
       </c>
       <c r="G33" t="n">
-        <v>0.607</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.396</v>
+        <v>0.163</v>
       </c>
       <c r="C34" t="n">
-        <v>2.54</v>
+        <v>1.538</v>
       </c>
       <c r="D34" t="n">
-        <v>0.821</v>
+        <v>0.287</v>
       </c>
       <c r="E34" t="n">
-        <v>0.906</v>
+        <v>0.536</v>
       </c>
       <c r="F34" t="n">
-        <v>0.962</v>
+        <v>0.673</v>
       </c>
       <c r="G34" t="n">
-        <v>0.524</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.007</v>
+        <v>-0.479</v>
       </c>
       <c r="C35" t="n">
-        <v>3.979</v>
+        <v>5.437</v>
       </c>
       <c r="D35" t="n">
-        <v>0.34</v>
+        <v>0.507</v>
       </c>
       <c r="E35" t="n">
-        <v>0.583</v>
+        <v>0.712</v>
       </c>
       <c r="F35" t="n">
-        <v>0.591</v>
+        <v>0.642</v>
       </c>
       <c r="G35" t="n">
-        <v>0.449</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.328</v>
+        <v>0.213</v>
       </c>
       <c r="C36" t="n">
-        <v>1.432</v>
+        <v>1.506</v>
       </c>
       <c r="D36" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="E36" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.613</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="37">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.199</v>
+        <v>0.272</v>
       </c>
       <c r="C38" t="n">
-        <v>1.515</v>
+        <v>1.468</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.849</v>
       </c>
       <c r="E38" t="n">
-        <v>0.966</v>
+        <v>0.921</v>
       </c>
       <c r="F38" t="n">
-        <v>1.037</v>
+        <v>1.032</v>
       </c>
       <c r="G38" t="n">
-        <v>0.849</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.261</v>
+        <v>0.435</v>
       </c>
       <c r="C39" t="n">
-        <v>1.475</v>
+        <v>1.363</v>
       </c>
       <c r="D39" t="n">
-        <v>0.862</v>
+        <v>0.658</v>
       </c>
       <c r="E39" t="n">
-        <v>0.928</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.965</v>
+        <v>0.984</v>
       </c>
       <c r="G39" t="n">
-        <v>0.653</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +1422,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.246</v>
+        <v>0.129</v>
       </c>
       <c r="C40" t="n">
-        <v>3.262</v>
+        <v>3.613</v>
       </c>
       <c r="D40" t="n">
-        <v>0.88</v>
+        <v>1.015</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9379999999999999</v>
+        <v>1.007</v>
       </c>
       <c r="F40" t="n">
-        <v>0.97</v>
+        <v>0.993</v>
       </c>
       <c r="G40" t="n">
-        <v>0.778</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.317</v>
+        <v>0.222</v>
       </c>
       <c r="C41" t="n">
-        <v>1.439</v>
+        <v>1.5</v>
       </c>
       <c r="D41" t="n">
-        <v>0.796</v>
+        <v>0.907</v>
       </c>
       <c r="E41" t="n">
-        <v>0.892</v>
+        <v>0.952</v>
       </c>
       <c r="F41" t="n">
-        <v>0.993</v>
+        <v>0.99</v>
       </c>
       <c r="G41" t="n">
-        <v>0.829</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="42">
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.078</v>
+        <v>0.074</v>
       </c>
       <c r="C43" t="n">
-        <v>1.593</v>
+        <v>1.595</v>
       </c>
       <c r="D43" t="n">
-        <v>0.826</v>
+        <v>0.83</v>
       </c>
       <c r="E43" t="n">
-        <v>0.909</v>
+        <v>0.911</v>
       </c>
       <c r="F43" t="n">
-        <v>0.924</v>
+        <v>0.925</v>
       </c>
       <c r="G43" t="n">
-        <v>0.434</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.121</v>
+        <v>-0.138</v>
       </c>
       <c r="C44" t="n">
-        <v>1.565</v>
+        <v>1.732</v>
       </c>
       <c r="D44" t="n">
-        <v>0.788</v>
+        <v>1.02</v>
       </c>
       <c r="E44" t="n">
-        <v>0.888</v>
+        <v>1.01</v>
       </c>
       <c r="F44" t="n">
-        <v>0.952</v>
+        <v>0.904</v>
       </c>
       <c r="G44" t="n">
-        <v>0.437</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.127</v>
+        <v>0.222</v>
       </c>
       <c r="C45" t="n">
-        <v>3.619</v>
+        <v>3.334</v>
       </c>
       <c r="D45" t="n">
-        <v>0.782</v>
+        <v>0.697</v>
       </c>
       <c r="E45" t="n">
-        <v>0.884</v>
+        <v>0.835</v>
       </c>
       <c r="F45" t="n">
-        <v>0.871</v>
+        <v>0.869</v>
       </c>
       <c r="G45" t="n">
-        <v>0.368</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="46">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.342</v>
+        <v>0.267</v>
       </c>
       <c r="C46" t="n">
-        <v>1.423</v>
+        <v>1.471</v>
       </c>
       <c r="D46" t="n">
-        <v>0.59</v>
+        <v>0.657</v>
       </c>
       <c r="E46" t="n">
-        <v>0.768</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>0.897</v>
+        <v>0.883</v>
       </c>
       <c r="G46" t="n">
-        <v>0.623</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1622,22 +1622,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.083</v>
+        <v>0.041</v>
       </c>
       <c r="C48" t="n">
-        <v>1.59</v>
+        <v>1.616</v>
       </c>
       <c r="D48" t="n">
-        <v>0.578</v>
+        <v>0.605</v>
       </c>
       <c r="E48" t="n">
-        <v>0.76</v>
+        <v>0.778</v>
       </c>
       <c r="F48" t="n">
-        <v>0.764</v>
+        <v>0.779</v>
       </c>
       <c r="G48" t="n">
-        <v>0.406</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.235</v>
+        <v>0.316</v>
       </c>
       <c r="C49" t="n">
-        <v>1.492</v>
+        <v>1.44</v>
       </c>
       <c r="D49" t="n">
-        <v>0.482</v>
+        <v>0.431</v>
       </c>
       <c r="E49" t="n">
-        <v>0.694</v>
+        <v>0.657</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.799</v>
       </c>
       <c r="G49" t="n">
-        <v>0.529</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="50">
@@ -1672,22 +1672,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.497</v>
+        <v>0.375</v>
       </c>
       <c r="C50" t="n">
-        <v>2.509</v>
+        <v>2.875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.317</v>
+        <v>0.394</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="F50" t="n">
-        <v>0.736</v>
+        <v>0.754</v>
       </c>
       <c r="G50" t="n">
-        <v>0.783</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="51">
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.302</v>
+        <v>0.27</v>
       </c>
       <c r="C51" t="n">
-        <v>1.449</v>
+        <v>1.469</v>
       </c>
       <c r="D51" t="n">
-        <v>0.44</v>
+        <v>0.461</v>
       </c>
       <c r="E51" t="n">
-        <v>0.663</v>
+        <v>0.679</v>
       </c>
       <c r="F51" t="n">
-        <v>0.748</v>
+        <v>0.735</v>
       </c>
       <c r="G51" t="n">
-        <v>0.597</v>
+        <v>0.5639999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.051</v>
+        <v>-0.172</v>
       </c>
       <c r="C53" t="n">
-        <v>1.676</v>
+        <v>1.753</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318</v>
+        <v>0.354</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.595</v>
       </c>
       <c r="F53" t="n">
-        <v>0.604</v>
+        <v>0.601</v>
       </c>
       <c r="G53" t="n">
-        <v>0.436</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="54">
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.14</v>
+        <v>0.251</v>
       </c>
       <c r="C54" t="n">
-        <v>1.553</v>
+        <v>1.482</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26</v>
+        <v>0.226</v>
       </c>
       <c r="E54" t="n">
-        <v>0.51</v>
+        <v>0.475</v>
       </c>
       <c r="F54" t="n">
-        <v>0.606</v>
+        <v>0.551</v>
       </c>
       <c r="G54" t="n">
-        <v>0.616</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="55">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.022</v>
+        <v>0.116</v>
       </c>
       <c r="C55" t="n">
-        <v>3.934</v>
+        <v>3.652</v>
       </c>
       <c r="D55" t="n">
-        <v>0.295</v>
+        <v>0.267</v>
       </c>
       <c r="E55" t="n">
-        <v>0.543</v>
+        <v>0.517</v>
       </c>
       <c r="F55" t="n">
-        <v>0.515</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.368</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="56">
@@ -1822,22 +1822,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.042</v>
+        <v>0.029</v>
       </c>
       <c r="C56" t="n">
-        <v>1.67</v>
+        <v>1.624</v>
       </c>
       <c r="D56" t="n">
-        <v>0.315</v>
+        <v>0.293</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.541</v>
       </c>
       <c r="F56" t="n">
-        <v>0.552</v>
+        <v>0.538</v>
       </c>
       <c r="G56" t="n">
-        <v>0.378</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="57">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.293</v>
+        <v>-0.369</v>
       </c>
       <c r="C58" t="n">
-        <v>1.831</v>
+        <v>1.88</v>
       </c>
       <c r="D58" t="n">
-        <v>0.631</v>
+        <v>0.668</v>
       </c>
       <c r="E58" t="n">
-        <v>0.794</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="G58" t="n">
-        <v>0.229</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="59">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.126</v>
+        <v>-0.099</v>
       </c>
       <c r="C59" t="n">
-        <v>1.562</v>
+        <v>1.707</v>
       </c>
       <c r="D59" t="n">
-        <v>0.426</v>
+        <v>0.536</v>
       </c>
       <c r="E59" t="n">
-        <v>0.653</v>
+        <v>0.732</v>
       </c>
       <c r="F59" t="n">
-        <v>0.664</v>
+        <v>0.738</v>
       </c>
       <c r="G59" t="n">
-        <v>0.371</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="60">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="C60" t="n">
-        <v>3.67</v>
+        <v>3.58</v>
       </c>
       <c r="D60" t="n">
-        <v>0.434</v>
+        <v>0.419</v>
       </c>
       <c r="E60" t="n">
-        <v>0.659</v>
+        <v>0.647</v>
       </c>
       <c r="F60" t="n">
-        <v>0.721</v>
+        <v>0.729</v>
       </c>
       <c r="G60" t="n">
-        <v>0.525</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="61">
@@ -1947,22 +1947,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.281</v>
+        <v>-0.05</v>
       </c>
       <c r="C61" t="n">
-        <v>1.824</v>
+        <v>1.675</v>
       </c>
       <c r="D61" t="n">
-        <v>0.625</v>
+        <v>0.512</v>
       </c>
       <c r="E61" t="n">
-        <v>0.791</v>
+        <v>0.716</v>
       </c>
       <c r="F61" t="n">
-        <v>0.721</v>
+        <v>0.695</v>
       </c>
       <c r="G61" t="n">
-        <v>0.14</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="62">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.449</v>
+        <v>0.52</v>
       </c>
       <c r="C63" t="n">
-        <v>1.354</v>
+        <v>1.309</v>
       </c>
       <c r="D63" t="n">
-        <v>0.275</v>
+        <v>0.24</v>
       </c>
       <c r="E63" t="n">
-        <v>0.524</v>
+        <v>0.49</v>
       </c>
       <c r="F63" t="n">
-        <v>0.662</v>
+        <v>0.67</v>
       </c>
       <c r="G63" t="n">
-        <v>0.768</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="64">
@@ -2022,22 +2022,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.07099999999999999</v>
+        <v>0.121</v>
       </c>
       <c r="C64" t="n">
-        <v>1.688</v>
+        <v>1.565</v>
       </c>
       <c r="D64" t="n">
-        <v>0.536</v>
+        <v>0.439</v>
       </c>
       <c r="E64" t="n">
-        <v>0.732</v>
+        <v>0.663</v>
       </c>
       <c r="F64" t="n">
         <v>0.595</v>
       </c>
       <c r="G64" t="n">
-        <v>0.249</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="65">
@@ -2047,22 +2047,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.215</v>
+        <v>-0.172</v>
       </c>
       <c r="C65" t="n">
-        <v>3.355</v>
+        <v>4.516</v>
       </c>
       <c r="D65" t="n">
-        <v>0.392</v>
+        <v>0.586</v>
       </c>
       <c r="E65" t="n">
-        <v>0.626</v>
+        <v>0.766</v>
       </c>
       <c r="F65" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.578</v>
       </c>
       <c r="G65" t="n">
-        <v>0.654</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="66">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.373</v>
+        <v>0.302</v>
       </c>
       <c r="C66" t="n">
-        <v>1.403</v>
+        <v>1.449</v>
       </c>
       <c r="D66" t="n">
-        <v>0.313</v>
+        <v>0.349</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.591</v>
       </c>
       <c r="F66" t="n">
-        <v>0.615</v>
+        <v>0.613</v>
       </c>
       <c r="G66" t="n">
-        <v>0.747</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="67">
@@ -2122,22 +2122,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.571</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1.276</v>
+        <v>1.283</v>
       </c>
       <c r="D68" t="n">
-        <v>0.169</v>
+        <v>0.173</v>
       </c>
       <c r="E68" t="n">
-        <v>0.411</v>
+        <v>0.416</v>
       </c>
       <c r="F68" t="n">
-        <v>0.611</v>
+        <v>0.638</v>
       </c>
       <c r="G68" t="n">
-        <v>0.778</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="69">
@@ -2147,22 +2147,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.445</v>
+        <v>-0.006</v>
       </c>
       <c r="C69" t="n">
-        <v>1.357</v>
+        <v>1.647</v>
       </c>
       <c r="D69" t="n">
-        <v>0.218</v>
+        <v>0.396</v>
       </c>
       <c r="E69" t="n">
-        <v>0.467</v>
+        <v>0.629</v>
       </c>
       <c r="F69" t="n">
-        <v>0.552</v>
+        <v>0.545</v>
       </c>
       <c r="G69" t="n">
-        <v>0.732</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="70">
@@ -2172,22 +2172,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.505</v>
+        <v>0.498</v>
       </c>
       <c r="C70" t="n">
-        <v>2.485</v>
+        <v>2.506</v>
       </c>
       <c r="D70" t="n">
-        <v>0.195</v>
+        <v>0.197</v>
       </c>
       <c r="E70" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="F70" t="n">
-        <v>0.553</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>0.793</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="71">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.616</v>
+        <v>0.579</v>
       </c>
       <c r="C71" t="n">
-        <v>1.247</v>
+        <v>1.271</v>
       </c>
       <c r="D71" t="n">
-        <v>0.151</v>
+        <v>0.166</v>
       </c>
       <c r="E71" t="n">
-        <v>0.389</v>
+        <v>0.407</v>
       </c>
       <c r="F71" t="n">
-        <v>0.584</v>
+        <v>0.581</v>
       </c>
       <c r="G71" t="n">
-        <v>0.841</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="72">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.223</v>
+        <v>-0.267</v>
       </c>
       <c r="C73" t="n">
-        <v>1.786</v>
+        <v>1.814</v>
       </c>
       <c r="D73" t="n">
-        <v>1.25</v>
+        <v>1.296</v>
       </c>
       <c r="E73" t="n">
-        <v>1.118</v>
+        <v>1.138</v>
       </c>
       <c r="F73" t="n">
-        <v>0.875</v>
+        <v>0.876</v>
       </c>
       <c r="G73" t="n">
-        <v>0.037</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="74">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-4.688</v>
+        <v>-11.642</v>
       </c>
       <c r="C74" t="n">
-        <v>4.657</v>
+        <v>9.127000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>5.816</v>
+        <v>12.929</v>
       </c>
       <c r="E74" t="n">
-        <v>2.412</v>
+        <v>3.596</v>
       </c>
       <c r="F74" t="n">
-        <v>2.019</v>
+        <v>1.84</v>
       </c>
       <c r="G74" t="n">
-        <v>0.121</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="75">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1.977</v>
+        <v>-5.731</v>
       </c>
       <c r="C75" t="n">
-        <v>9.930999999999999</v>
+        <v>21.193</v>
       </c>
       <c r="D75" t="n">
-        <v>3.044</v>
+        <v>6.884</v>
       </c>
       <c r="E75" t="n">
-        <v>1.745</v>
+        <v>2.624</v>
       </c>
       <c r="F75" t="n">
-        <v>1.194</v>
+        <v>1.69</v>
       </c>
       <c r="G75" t="n">
-        <v>0.033</v>
+        <v>-0.186</v>
       </c>
     </row>
     <row r="76">
@@ -2322,94 +2322,94 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.6909999999999999</v>
+        <v>-0.271</v>
       </c>
       <c r="C76" t="n">
-        <v>2.087</v>
+        <v>1.817</v>
       </c>
       <c r="D76" t="n">
-        <v>1.729</v>
+        <v>1.3</v>
       </c>
       <c r="E76" t="n">
-        <v>1.315</v>
+        <v>1.14</v>
       </c>
       <c r="F76" t="n">
-        <v>1.012</v>
+        <v>1.055</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.019</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>LR340</t>
+          <t>LR342</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-12.481</v>
+        <v>-31504.997</v>
       </c>
       <c r="C77" t="n">
-        <v>1.613</v>
+        <v>1433.091</v>
       </c>
       <c r="D77" t="n">
-        <v>0.367</v>
+        <v>13432.557</v>
       </c>
       <c r="E77" t="n">
-        <v>0.606</v>
+        <v>115.899</v>
       </c>
       <c r="F77" t="n">
-        <v>0.406</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>RF340</t>
+          <t>RF342</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-2.257</v>
+        <v>-8.895</v>
       </c>
       <c r="C78" t="n">
-        <v>1.148</v>
+        <v>1.45</v>
       </c>
       <c r="D78" t="n">
-        <v>0.089</v>
+        <v>4.219</v>
       </c>
       <c r="E78" t="n">
-        <v>0.298</v>
+        <v>2.054</v>
       </c>
       <c r="F78" t="n">
-        <v>0.165</v>
+        <v>1.999</v>
       </c>
       <c r="G78" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>NN340</t>
+          <t>NN342</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-10.278</v>
+        <v>-129.008</v>
       </c>
       <c r="C79" t="n">
-        <v>1.513</v>
+        <v>6.909</v>
       </c>
       <c r="D79" t="n">
-        <v>0.307</v>
+        <v>55.429</v>
       </c>
       <c r="E79" t="n">
-        <v>0.554</v>
+        <v>7.445</v>
       </c>
       <c r="F79" t="n">
-        <v>0.406</v>
+        <v>6.312</v>
       </c>
       <c r="G79" t="n">
         <v>-1</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-9.696999999999999</v>
+        <v>-10.141</v>
       </c>
       <c r="C80" t="n">
-        <v>1.972</v>
+        <v>2.013</v>
       </c>
       <c r="D80" t="n">
-        <v>0.291</v>
+        <v>4.75</v>
       </c>
       <c r="E80" t="n">
-        <v>0.539</v>
+        <v>2.179</v>
       </c>
       <c r="F80" t="n">
-        <v>0.453</v>
+        <v>2.064</v>
       </c>
       <c r="G80" t="n">
         <v>-1</v>
@@ -2447,69 +2447,69 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-9.000999999999999</v>
+        <v>-3325.986</v>
       </c>
       <c r="C81" t="n">
-        <v>1.455</v>
+        <v>152.227</v>
       </c>
       <c r="D81" t="n">
-        <v>0.272</v>
+        <v>1418.458</v>
       </c>
       <c r="E81" t="n">
-        <v>0.522</v>
+        <v>37.662</v>
       </c>
       <c r="F81" t="n">
-        <v>0.35</v>
+        <v>27.746</v>
       </c>
       <c r="G81" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LR342</t>
+          <t>LR344</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-31504.997</v>
+        <v>-1238.728</v>
       </c>
       <c r="C82" t="n">
-        <v>1433.091</v>
+        <v>57.351</v>
       </c>
       <c r="D82" t="n">
-        <v>13432.557</v>
+        <v>772.401</v>
       </c>
       <c r="E82" t="n">
-        <v>115.899</v>
+        <v>27.792</v>
       </c>
       <c r="F82" t="n">
-        <v>86.59999999999999</v>
+        <v>25.298</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>RF342</t>
+          <t>RF344</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-10.16</v>
+        <v>-3.128</v>
       </c>
       <c r="C83" t="n">
-        <v>1.507</v>
+        <v>1.188</v>
       </c>
       <c r="D83" t="n">
-        <v>4.758</v>
+        <v>2.572</v>
       </c>
       <c r="E83" t="n">
-        <v>2.181</v>
+        <v>1.604</v>
       </c>
       <c r="F83" t="n">
-        <v>2.108</v>
+        <v>1.576</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2518,23 +2518,23 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>NN342</t>
+          <t>NN344</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-1.14</v>
+        <v>-5.246</v>
       </c>
       <c r="C84" t="n">
-        <v>1.097</v>
+        <v>1.284</v>
       </c>
       <c r="D84" t="n">
-        <v>0.912</v>
+        <v>3.892</v>
       </c>
       <c r="E84" t="n">
-        <v>0.955</v>
+        <v>1.973</v>
       </c>
       <c r="F84" t="n">
-        <v>1.317</v>
+        <v>1.896</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -2547,19 +2547,19 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-8.196</v>
+        <v>-50.287</v>
       </c>
       <c r="C85" t="n">
-        <v>1.836</v>
+        <v>5.662</v>
       </c>
       <c r="D85" t="n">
-        <v>3.921</v>
+        <v>31.954</v>
       </c>
       <c r="E85" t="n">
-        <v>1.98</v>
+        <v>5.653</v>
       </c>
       <c r="F85" t="n">
-        <v>1.922</v>
+        <v>5.349</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2572,69 +2572,69 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-3416.791</v>
+        <v>-155.276</v>
       </c>
       <c r="C86" t="n">
-        <v>156.354</v>
+        <v>8.103</v>
       </c>
       <c r="D86" t="n">
-        <v>1457.172</v>
+        <v>97.366</v>
       </c>
       <c r="E86" t="n">
-        <v>38.173</v>
+        <v>9.867000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>28.121</v>
+        <v>8.919</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>LR344</t>
+          <t>LR346</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1238.728</v>
+        <v>-1701.487</v>
       </c>
       <c r="C87" t="n">
-        <v>57.351</v>
+        <v>78.386</v>
       </c>
       <c r="D87" t="n">
-        <v>772.401</v>
+        <v>129.481</v>
       </c>
       <c r="E87" t="n">
-        <v>27.792</v>
+        <v>11.379</v>
       </c>
       <c r="F87" t="n">
-        <v>25.298</v>
+        <v>11.378</v>
       </c>
       <c r="G87" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>RF344</t>
+          <t>RF346</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1.679</v>
+        <v>-3.99</v>
       </c>
       <c r="C88" t="n">
-        <v>1.122</v>
+        <v>1.227</v>
       </c>
       <c r="D88" t="n">
-        <v>1.669</v>
+        <v>0.38</v>
       </c>
       <c r="E88" t="n">
-        <v>1.292</v>
+        <v>0.616</v>
       </c>
       <c r="F88" t="n">
-        <v>1.405</v>
+        <v>0.57</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -2643,26 +2643,26 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NN344</t>
+          <t>NN346</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-14.99</v>
+        <v>0.544</v>
       </c>
       <c r="C89" t="n">
-        <v>1.727</v>
+        <v>1.021</v>
       </c>
       <c r="D89" t="n">
-        <v>9.962999999999999</v>
+        <v>0.035</v>
       </c>
       <c r="E89" t="n">
-        <v>3.156</v>
+        <v>0.187</v>
       </c>
       <c r="F89" t="n">
-        <v>2.802</v>
+        <v>0.296</v>
       </c>
       <c r="G89" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-25.568</v>
+        <v>-63.954</v>
       </c>
       <c r="C90" t="n">
-        <v>3.415</v>
+        <v>6.905</v>
       </c>
       <c r="D90" t="n">
-        <v>16.553</v>
+        <v>4.94</v>
       </c>
       <c r="E90" t="n">
-        <v>4.069</v>
+        <v>2.223</v>
       </c>
       <c r="F90" t="n">
-        <v>3.814</v>
+        <v>1.743</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
@@ -2697,44 +2697,44 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-180.527</v>
+        <v>-114.191</v>
       </c>
       <c r="C91" t="n">
-        <v>9.250999999999999</v>
+        <v>6.236</v>
       </c>
       <c r="D91" t="n">
-        <v>113.099</v>
+        <v>8.760999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>10.635</v>
+        <v>2.96</v>
       </c>
       <c r="F91" t="n">
-        <v>9.731</v>
+        <v>2.957</v>
       </c>
       <c r="G91" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>LR346</t>
+          <t>LR348</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-1701.487</v>
+        <v>-96.373</v>
       </c>
       <c r="C92" t="n">
-        <v>78.386</v>
+        <v>5.426</v>
       </c>
       <c r="D92" t="n">
-        <v>129.481</v>
+        <v>1.951</v>
       </c>
       <c r="E92" t="n">
-        <v>11.379</v>
+        <v>1.397</v>
       </c>
       <c r="F92" t="n">
-        <v>11.378</v>
+        <v>1.308</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2743,23 +2743,23 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>RF346</t>
+          <t>RF348</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-3.726</v>
+        <v>0.216</v>
       </c>
       <c r="C93" t="n">
-        <v>1.215</v>
+        <v>1.036</v>
       </c>
       <c r="D93" t="n">
-        <v>0.359</v>
+        <v>0.016</v>
       </c>
       <c r="E93" t="n">
-        <v>0.599</v>
+        <v>0.126</v>
       </c>
       <c r="F93" t="n">
-        <v>0.575</v>
+        <v>0.174</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -2768,23 +2768,23 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>NN346</t>
+          <t>NN348</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-27.693</v>
+        <v>-2.173</v>
       </c>
       <c r="C94" t="n">
-        <v>2.304</v>
+        <v>1.144</v>
       </c>
       <c r="D94" t="n">
-        <v>2.182</v>
+        <v>0.064</v>
       </c>
       <c r="E94" t="n">
-        <v>1.477</v>
+        <v>0.253</v>
       </c>
       <c r="F94" t="n">
-        <v>1.465</v>
+        <v>0.245</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-3.367</v>
+        <v>-69.14400000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>1.397</v>
+        <v>7.377</v>
       </c>
       <c r="D95" t="n">
-        <v>0.332</v>
+        <v>1.405</v>
       </c>
       <c r="E95" t="n">
-        <v>0.576</v>
+        <v>1.185</v>
       </c>
       <c r="F95" t="n">
-        <v>0.57</v>
+        <v>1.169</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -2822,19 +2822,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-158.714</v>
+        <v>-3.104</v>
       </c>
       <c r="C96" t="n">
-        <v>8.26</v>
+        <v>1.187</v>
       </c>
       <c r="D96" t="n">
-        <v>12.147</v>
+        <v>0.082</v>
       </c>
       <c r="E96" t="n">
-        <v>3.485</v>
+        <v>0.286</v>
       </c>
       <c r="F96" t="n">
-        <v>3.479</v>
+        <v>0.324</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -2843,76 +2843,76 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>LR348</t>
+          <t>LR350</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-96.373</v>
+        <v>-33.427</v>
       </c>
       <c r="C97" t="n">
-        <v>5.426</v>
+        <v>2.565</v>
       </c>
       <c r="D97" t="n">
-        <v>1.951</v>
+        <v>1.738</v>
       </c>
       <c r="E97" t="n">
-        <v>1.397</v>
+        <v>1.318</v>
       </c>
       <c r="F97" t="n">
-        <v>1.308</v>
+        <v>1.296</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>RF348</t>
+          <t>RF350</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-2.66</v>
+        <v>-3.227</v>
       </c>
       <c r="C98" t="n">
-        <v>1.166</v>
+        <v>1.192</v>
       </c>
       <c r="D98" t="n">
-        <v>0.073</v>
+        <v>0.213</v>
       </c>
       <c r="E98" t="n">
-        <v>0.27</v>
+        <v>0.462</v>
       </c>
       <c r="F98" t="n">
-        <v>0.269</v>
+        <v>0.382</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NN348</t>
+          <t>NN350</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-27.883</v>
+        <v>0.036</v>
       </c>
       <c r="C99" t="n">
-        <v>2.313</v>
+        <v>1.044</v>
       </c>
       <c r="D99" t="n">
-        <v>0.579</v>
+        <v>0.049</v>
       </c>
       <c r="E99" t="n">
-        <v>0.761</v>
+        <v>0.221</v>
       </c>
       <c r="F99" t="n">
-        <v>0.72</v>
+        <v>0.225</v>
       </c>
       <c r="G99" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-6.766</v>
+        <v>-13.938</v>
       </c>
       <c r="C100" t="n">
-        <v>1.706</v>
+        <v>2.358</v>
       </c>
       <c r="D100" t="n">
-        <v>0.156</v>
+        <v>0.754</v>
       </c>
       <c r="E100" t="n">
-        <v>0.395</v>
+        <v>0.868</v>
       </c>
       <c r="F100" t="n">
-        <v>0.369</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -2947,69 +2947,69 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-2.666</v>
+        <v>-4.994</v>
       </c>
       <c r="C101" t="n">
-        <v>1.167</v>
+        <v>1.272</v>
       </c>
       <c r="D101" t="n">
-        <v>0.073</v>
+        <v>0.303</v>
       </c>
       <c r="E101" t="n">
-        <v>0.27</v>
+        <v>0.55</v>
       </c>
       <c r="F101" t="n">
-        <v>0.303</v>
+        <v>0.493</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LR350</t>
+          <t>LR352</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-33.427</v>
+        <v>-99.852</v>
       </c>
       <c r="C102" t="n">
-        <v>2.565</v>
+        <v>5.584</v>
       </c>
       <c r="D102" t="n">
-        <v>1.738</v>
+        <v>3.149</v>
       </c>
       <c r="E102" t="n">
-        <v>1.318</v>
+        <v>1.775</v>
       </c>
       <c r="F102" t="n">
-        <v>1.296</v>
+        <v>1.629</v>
       </c>
       <c r="G102" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>RF350</t>
+          <t>RF352</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-1.042</v>
+        <v>-12.16</v>
       </c>
       <c r="C103" t="n">
-        <v>1.093</v>
+        <v>1.598</v>
       </c>
       <c r="D103" t="n">
-        <v>0.103</v>
+        <v>0.411</v>
       </c>
       <c r="E103" t="n">
-        <v>0.321</v>
+        <v>0.641</v>
       </c>
       <c r="F103" t="n">
-        <v>0.257</v>
+        <v>0.641</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3018,23 +3018,23 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>NN350</t>
+          <t>NN352</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.012</v>
+        <v>-8.08</v>
       </c>
       <c r="C104" t="n">
-        <v>1.045</v>
+        <v>1.413</v>
       </c>
       <c r="D104" t="n">
-        <v>0.05</v>
+        <v>0.283</v>
       </c>
       <c r="E104" t="n">
-        <v>0.224</v>
+        <v>0.532</v>
       </c>
       <c r="F104" t="n">
-        <v>0.256</v>
+        <v>0.553</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-20.589</v>
+        <v>-28.917</v>
       </c>
       <c r="C105" t="n">
-        <v>2.963</v>
+        <v>3.72</v>
       </c>
       <c r="D105" t="n">
-        <v>1.09</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>1.044</v>
+        <v>0.966</v>
       </c>
       <c r="F105" t="n">
-        <v>1.035</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -3072,19 +3072,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1.849</v>
+        <v>-1.043</v>
       </c>
       <c r="C106" t="n">
-        <v>1.13</v>
+        <v>1.093</v>
       </c>
       <c r="D106" t="n">
-        <v>0.144</v>
+        <v>0.064</v>
       </c>
       <c r="E106" t="n">
-        <v>0.379</v>
+        <v>0.253</v>
       </c>
       <c r="F106" t="n">
-        <v>0.33</v>
+        <v>0.424</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3093,76 +3093,76 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>LR352</t>
+          <t>LR354</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-99.852</v>
+        <v>-14.246</v>
       </c>
       <c r="C107" t="n">
-        <v>5.584</v>
+        <v>1.693</v>
       </c>
       <c r="D107" t="n">
-        <v>3.149</v>
+        <v>0.412</v>
       </c>
       <c r="E107" t="n">
-        <v>1.775</v>
+        <v>0.642</v>
       </c>
       <c r="F107" t="n">
-        <v>1.629</v>
+        <v>0.539</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>RF352</t>
+          <t>RF354</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-15.384</v>
+        <v>-88.032</v>
       </c>
       <c r="C108" t="n">
-        <v>1.745</v>
+        <v>5.047</v>
       </c>
       <c r="D108" t="n">
-        <v>0.512</v>
+        <v>2.406</v>
       </c>
       <c r="E108" t="n">
-        <v>0.716</v>
+        <v>1.551</v>
       </c>
       <c r="F108" t="n">
-        <v>0.709</v>
+        <v>1.529</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>NN352</t>
+          <t>NN354</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-32.977</v>
+        <v>-42.094</v>
       </c>
       <c r="C109" t="n">
-        <v>2.544</v>
+        <v>2.959</v>
       </c>
       <c r="D109" t="n">
-        <v>1.061</v>
+        <v>1.165</v>
       </c>
       <c r="E109" t="n">
-        <v>1.03</v>
+        <v>1.079</v>
       </c>
       <c r="F109" t="n">
-        <v>1.026</v>
+        <v>1.013</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -3172,19 +3172,19 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-7.127</v>
+        <v>-119.6</v>
       </c>
       <c r="C110" t="n">
-        <v>1.739</v>
+        <v>11.964</v>
       </c>
       <c r="D110" t="n">
-        <v>0.254</v>
+        <v>3.259</v>
       </c>
       <c r="E110" t="n">
-        <v>0.504</v>
+        <v>1.805</v>
       </c>
       <c r="F110" t="n">
-        <v>0.522</v>
+        <v>1.797</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -3197,44 +3197,44 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.625</v>
+        <v>-44.411</v>
       </c>
       <c r="C111" t="n">
-        <v>1.074</v>
+        <v>3.064</v>
       </c>
       <c r="D111" t="n">
-        <v>0.051</v>
+        <v>1.227</v>
       </c>
       <c r="E111" t="n">
-        <v>0.226</v>
+        <v>1.108</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4</v>
+        <v>1.042</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>LR354</t>
+          <t>LR356</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-14.246</v>
+        <v>-38.886</v>
       </c>
       <c r="C112" t="n">
-        <v>1.693</v>
+        <v>2.813</v>
       </c>
       <c r="D112" t="n">
-        <v>0.412</v>
+        <v>1.356</v>
       </c>
       <c r="E112" t="n">
-        <v>0.642</v>
+        <v>1.164</v>
       </c>
       <c r="F112" t="n">
-        <v>0.539</v>
+        <v>1.052</v>
       </c>
       <c r="G112" t="n">
         <v>-1</v>
@@ -3243,48 +3243,48 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>RF354</t>
+          <t>RF356</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-74.342</v>
+        <v>-75.123</v>
       </c>
       <c r="C113" t="n">
-        <v>4.425</v>
+        <v>4.46</v>
       </c>
       <c r="D113" t="n">
-        <v>2.036</v>
+        <v>2.587</v>
       </c>
       <c r="E113" t="n">
-        <v>1.427</v>
+        <v>1.608</v>
       </c>
       <c r="F113" t="n">
-        <v>1.404</v>
+        <v>1.606</v>
       </c>
       <c r="G113" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NN354</t>
+          <t>NN356</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-29.405</v>
+        <v>-47.192</v>
       </c>
       <c r="C114" t="n">
-        <v>2.382</v>
+        <v>3.191</v>
       </c>
       <c r="D114" t="n">
-        <v>0.822</v>
+        <v>1.638</v>
       </c>
       <c r="E114" t="n">
-        <v>0.907</v>
+        <v>1.28</v>
       </c>
       <c r="F114" t="n">
-        <v>0.904</v>
+        <v>1.28</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -3297,22 +3297,22 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-98.291</v>
+        <v>-34.16</v>
       </c>
       <c r="C115" t="n">
-        <v>10.026</v>
+        <v>4.196</v>
       </c>
       <c r="D115" t="n">
-        <v>2.684</v>
+        <v>1.195</v>
       </c>
       <c r="E115" t="n">
-        <v>1.638</v>
+        <v>1.093</v>
       </c>
       <c r="F115" t="n">
-        <v>1.407</v>
+        <v>1.093</v>
       </c>
       <c r="G115" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -3322,19 +3322,19 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-28.347</v>
+        <v>-60.557</v>
       </c>
       <c r="C116" t="n">
-        <v>2.334</v>
+        <v>3.798</v>
       </c>
       <c r="D116" t="n">
-        <v>0.793</v>
+        <v>2.092</v>
       </c>
       <c r="E116" t="n">
-        <v>0.891</v>
+        <v>1.446</v>
       </c>
       <c r="F116" t="n">
-        <v>0.859</v>
+        <v>1.415</v>
       </c>
       <c r="G116" t="n">
         <v>-1</v>
@@ -3343,48 +3343,48 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>LR356</t>
+          <t>LR358</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-38.886</v>
+        <v>0.797</v>
       </c>
       <c r="C117" t="n">
-        <v>2.813</v>
+        <v>1.009</v>
       </c>
       <c r="D117" t="n">
-        <v>1.356</v>
+        <v>0.032</v>
       </c>
       <c r="E117" t="n">
-        <v>1.164</v>
+        <v>0.179</v>
       </c>
       <c r="F117" t="n">
-        <v>1.052</v>
+        <v>0.519</v>
       </c>
       <c r="G117" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>RF356</t>
+          <t>RF358</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-62.497</v>
+        <v>-3.789</v>
       </c>
       <c r="C118" t="n">
-        <v>3.886</v>
+        <v>1.218</v>
       </c>
       <c r="D118" t="n">
-        <v>2.158</v>
+        <v>0.756</v>
       </c>
       <c r="E118" t="n">
-        <v>1.469</v>
+        <v>0.869</v>
       </c>
       <c r="F118" t="n">
-        <v>1.459</v>
+        <v>0.792</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3393,23 +3393,23 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>NN356</t>
+          <t>NN358</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-49.257</v>
+        <v>-7.265</v>
       </c>
       <c r="C119" t="n">
-        <v>3.284</v>
+        <v>1.376</v>
       </c>
       <c r="D119" t="n">
-        <v>1.708</v>
+        <v>1.305</v>
       </c>
       <c r="E119" t="n">
-        <v>1.307</v>
+        <v>1.142</v>
       </c>
       <c r="F119" t="n">
-        <v>1.295</v>
+        <v>1.076</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3422,22 +3422,22 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-140.393</v>
+        <v>0.735</v>
       </c>
       <c r="C120" t="n">
-        <v>13.854</v>
+        <v>1.024</v>
       </c>
       <c r="D120" t="n">
-        <v>4.806</v>
+        <v>0.042</v>
       </c>
       <c r="E120" t="n">
-        <v>2.192</v>
+        <v>0.205</v>
       </c>
       <c r="F120" t="n">
-        <v>2.138</v>
+        <v>0.397</v>
       </c>
       <c r="G120" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -3447,44 +3447,44 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-58.803</v>
+        <v>0.606</v>
       </c>
       <c r="C121" t="n">
-        <v>3.718</v>
+        <v>1.018</v>
       </c>
       <c r="D121" t="n">
-        <v>2.033</v>
+        <v>0.062</v>
       </c>
       <c r="E121" t="n">
-        <v>1.426</v>
+        <v>0.249</v>
       </c>
       <c r="F121" t="n">
-        <v>1.407</v>
+        <v>0.443</v>
       </c>
       <c r="G121" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>LR358</t>
+          <t>LR360</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.797</v>
+        <v>-2.029</v>
       </c>
       <c r="C122" t="n">
-        <v>1.009</v>
+        <v>1.138</v>
       </c>
       <c r="D122" t="n">
-        <v>0.032</v>
+        <v>1.985</v>
       </c>
       <c r="E122" t="n">
-        <v>0.179</v>
+        <v>1.409</v>
       </c>
       <c r="F122" t="n">
-        <v>0.519</v>
+        <v>1.262</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -3493,51 +3493,51 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>RF358</t>
+          <t>RF360</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-2.344</v>
+        <v>-3.359</v>
       </c>
       <c r="C123" t="n">
-        <v>1.152</v>
+        <v>1.198</v>
       </c>
       <c r="D123" t="n">
-        <v>0.528</v>
+        <v>2.856</v>
       </c>
       <c r="E123" t="n">
-        <v>0.727</v>
+        <v>1.69</v>
       </c>
       <c r="F123" t="n">
-        <v>0.665</v>
+        <v>1.449</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>NN358</t>
+          <t>NN360</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-38.115</v>
+        <v>-6.145</v>
       </c>
       <c r="C124" t="n">
-        <v>2.778</v>
+        <v>1.325</v>
       </c>
       <c r="D124" t="n">
-        <v>6.175</v>
+        <v>4.683</v>
       </c>
       <c r="E124" t="n">
-        <v>2.485</v>
+        <v>2.164</v>
       </c>
       <c r="F124" t="n">
-        <v>2.124</v>
+        <v>2.027</v>
       </c>
       <c r="G124" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -3547,22 +3547,22 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-10.715</v>
+        <v>0.263</v>
       </c>
       <c r="C125" t="n">
-        <v>2.065</v>
+        <v>1.067</v>
       </c>
       <c r="D125" t="n">
-        <v>1.849</v>
+        <v>0.483</v>
       </c>
       <c r="E125" t="n">
-        <v>1.36</v>
+        <v>0.695</v>
       </c>
       <c r="F125" t="n">
-        <v>0.954</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3572,44 +3572,44 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.255</v>
+        <v>-2.367</v>
       </c>
       <c r="C126" t="n">
-        <v>1.034</v>
+        <v>1.153</v>
       </c>
       <c r="D126" t="n">
-        <v>0.118</v>
+        <v>2.207</v>
       </c>
       <c r="E126" t="n">
-        <v>0.344</v>
+        <v>1.486</v>
       </c>
       <c r="F126" t="n">
-        <v>0.46</v>
+        <v>1.229</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>LR360</t>
+          <t>LR362</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-2.029</v>
+        <v>0.506</v>
       </c>
       <c r="C127" t="n">
-        <v>1.138</v>
+        <v>1.022</v>
       </c>
       <c r="D127" t="n">
-        <v>1.985</v>
+        <v>0.035</v>
       </c>
       <c r="E127" t="n">
-        <v>1.409</v>
+        <v>0.187</v>
       </c>
       <c r="F127" t="n">
-        <v>1.262</v>
+        <v>0.376</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -3618,48 +3618,48 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RF360</t>
+          <t>RF362</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-3.039</v>
+        <v>-14.57</v>
       </c>
       <c r="C128" t="n">
-        <v>1.184</v>
+        <v>1.708</v>
       </c>
       <c r="D128" t="n">
-        <v>2.647</v>
+        <v>1.106</v>
       </c>
       <c r="E128" t="n">
-        <v>1.627</v>
+        <v>1.052</v>
       </c>
       <c r="F128" t="n">
-        <v>1.458</v>
+        <v>0.746</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>NN360</t>
+          <t>NN362</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-2.49</v>
+        <v>-15.983</v>
       </c>
       <c r="C129" t="n">
-        <v>1.159</v>
+        <v>1.772</v>
       </c>
       <c r="D129" t="n">
-        <v>2.287</v>
+        <v>1.206</v>
       </c>
       <c r="E129" t="n">
-        <v>1.512</v>
+        <v>1.098</v>
       </c>
       <c r="F129" t="n">
-        <v>1.213</v>
+        <v>0.801</v>
       </c>
       <c r="G129" t="n">
         <v>-1</v>
@@ -3672,22 +3672,22 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-2.916</v>
+        <v>-56.608</v>
       </c>
       <c r="C130" t="n">
-        <v>1.356</v>
+        <v>6.237</v>
       </c>
       <c r="D130" t="n">
-        <v>2.566</v>
+        <v>4.091</v>
       </c>
       <c r="E130" t="n">
-        <v>1.602</v>
+        <v>2.023</v>
       </c>
       <c r="F130" t="n">
-        <v>1.395</v>
+        <v>1.93</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -3697,44 +3697,44 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-1.966</v>
+        <v>-0.664</v>
       </c>
       <c r="C131" t="n">
-        <v>1.135</v>
+        <v>1.076</v>
       </c>
       <c r="D131" t="n">
-        <v>1.944</v>
+        <v>0.118</v>
       </c>
       <c r="E131" t="n">
-        <v>1.394</v>
+        <v>0.344</v>
       </c>
       <c r="F131" t="n">
-        <v>1.234</v>
+        <v>0.266</v>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>LR362</t>
+          <t>LR364</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.506</v>
+        <v>-1570.996</v>
       </c>
       <c r="C132" t="n">
-        <v>1.022</v>
+        <v>72.45399999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>0.035</v>
+        <v>17.05</v>
       </c>
       <c r="E132" t="n">
-        <v>0.187</v>
+        <v>4.129</v>
       </c>
       <c r="F132" t="n">
-        <v>0.376</v>
+        <v>3.539</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -3743,23 +3743,23 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RF362</t>
+          <t>RF364</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-11.405</v>
+        <v>-311.949</v>
       </c>
       <c r="C133" t="n">
-        <v>1.564</v>
+        <v>15.225</v>
       </c>
       <c r="D133" t="n">
-        <v>0.881</v>
+        <v>3.394</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9389999999999999</v>
+        <v>1.842</v>
       </c>
       <c r="F133" t="n">
-        <v>0.649</v>
+        <v>1.8</v>
       </c>
       <c r="G133" t="n">
         <v>-1</v>
@@ -3768,23 +3768,23 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>NN362</t>
+          <t>NN364</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-6.291</v>
+        <v>-423.889</v>
       </c>
       <c r="C134" t="n">
-        <v>1.331</v>
+        <v>20.313</v>
       </c>
       <c r="D134" t="n">
-        <v>0.518</v>
+        <v>4.608</v>
       </c>
       <c r="E134" t="n">
-        <v>0.72</v>
+        <v>2.147</v>
       </c>
       <c r="F134" t="n">
-        <v>0.658</v>
+        <v>1.83</v>
       </c>
       <c r="G134" t="n">
         <v>-1</v>
@@ -3797,19 +3797,19 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-11.727</v>
+        <v>-595.044</v>
       </c>
       <c r="C135" t="n">
-        <v>2.157</v>
+        <v>55.186</v>
       </c>
       <c r="D135" t="n">
-        <v>0.904</v>
+        <v>6.465</v>
       </c>
       <c r="E135" t="n">
-        <v>0.951</v>
+        <v>2.543</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9429999999999999</v>
+        <v>2.073</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -3822,69 +3822,69 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-0.728</v>
+        <v>-498.034</v>
       </c>
       <c r="C136" t="n">
-        <v>1.079</v>
+        <v>23.683</v>
       </c>
       <c r="D136" t="n">
-        <v>0.123</v>
+        <v>5.412</v>
       </c>
       <c r="E136" t="n">
-        <v>0.351</v>
+        <v>2.326</v>
       </c>
       <c r="F136" t="n">
-        <v>0.266</v>
+        <v>2.279</v>
       </c>
       <c r="G136" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LR364</t>
+          <t>LR366</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1570.996</v>
+        <v>-1.797</v>
       </c>
       <c r="C137" t="n">
-        <v>72.45399999999999</v>
+        <v>1.127</v>
       </c>
       <c r="D137" t="n">
-        <v>17.05</v>
+        <v>3.538</v>
       </c>
       <c r="E137" t="n">
-        <v>4.129</v>
+        <v>1.881</v>
       </c>
       <c r="F137" t="n">
-        <v>3.539</v>
+        <v>1.307</v>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RF364</t>
+          <t>RF366</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-221.229</v>
+        <v>-2.039</v>
       </c>
       <c r="C138" t="n">
-        <v>11.101</v>
+        <v>1.138</v>
       </c>
       <c r="D138" t="n">
-        <v>2.41</v>
+        <v>3.844</v>
       </c>
       <c r="E138" t="n">
-        <v>1.552</v>
+        <v>1.961</v>
       </c>
       <c r="F138" t="n">
-        <v>1.515</v>
+        <v>1.6</v>
       </c>
       <c r="G138" t="n">
         <v>-1</v>
@@ -3893,26 +3893,26 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>NN364</t>
+          <t>NN366</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-156.996</v>
+        <v>-3.308</v>
       </c>
       <c r="C139" t="n">
-        <v>8.182</v>
+        <v>1.196</v>
       </c>
       <c r="D139" t="n">
-        <v>1.714</v>
+        <v>5.449</v>
       </c>
       <c r="E139" t="n">
-        <v>1.309</v>
+        <v>2.334</v>
       </c>
       <c r="F139" t="n">
-        <v>1.276</v>
+        <v>1.715</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140">
@@ -3922,19 +3922,19 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-163.115</v>
+        <v>-1.275</v>
       </c>
       <c r="C140" t="n">
-        <v>15.92</v>
+        <v>1.207</v>
       </c>
       <c r="D140" t="n">
-        <v>1.78</v>
+        <v>2.878</v>
       </c>
       <c r="E140" t="n">
-        <v>1.334</v>
+        <v>1.696</v>
       </c>
       <c r="F140" t="n">
-        <v>1.268</v>
+        <v>1.539</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -3947,97 +3947,97 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-470.563</v>
+        <v>-1.971</v>
       </c>
       <c r="C141" t="n">
-        <v>22.435</v>
+        <v>1.135</v>
       </c>
       <c r="D141" t="n">
-        <v>5.115</v>
+        <v>3.758</v>
       </c>
       <c r="E141" t="n">
-        <v>2.262</v>
+        <v>1.939</v>
       </c>
       <c r="F141" t="n">
-        <v>2.165</v>
+        <v>1.469</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>LR366</t>
+          <t>LR368</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1.797</v>
+        <v>-47.939</v>
       </c>
       <c r="C142" t="n">
-        <v>1.127</v>
+        <v>3.224</v>
       </c>
       <c r="D142" t="n">
-        <v>3.538</v>
+        <v>7.546</v>
       </c>
       <c r="E142" t="n">
-        <v>1.881</v>
+        <v>2.747</v>
       </c>
       <c r="F142" t="n">
-        <v>1.307</v>
+        <v>2.689</v>
       </c>
       <c r="G142" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RF366</t>
+          <t>RF368</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1.593</v>
+        <v>-13.789</v>
       </c>
       <c r="C143" t="n">
-        <v>1.118</v>
+        <v>1.672</v>
       </c>
       <c r="D143" t="n">
-        <v>3.28</v>
+        <v>2.28</v>
       </c>
       <c r="E143" t="n">
-        <v>1.811</v>
+        <v>1.51</v>
       </c>
       <c r="F143" t="n">
-        <v>1.445</v>
+        <v>1.452</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NN366</t>
+          <t>NN368</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-0.679</v>
+        <v>-19.58</v>
       </c>
       <c r="C144" t="n">
-        <v>1.076</v>
+        <v>1.935</v>
       </c>
       <c r="D144" t="n">
-        <v>2.123</v>
+        <v>3.173</v>
       </c>
       <c r="E144" t="n">
-        <v>1.457</v>
+        <v>1.781</v>
       </c>
       <c r="F144" t="n">
-        <v>1.125</v>
+        <v>1.78</v>
       </c>
       <c r="G144" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4047,22 +4047,22 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1.96</v>
+        <v>-78.687</v>
       </c>
       <c r="C145" t="n">
-        <v>1.269</v>
+        <v>8.244</v>
       </c>
       <c r="D145" t="n">
-        <v>3.744</v>
+        <v>12.287</v>
       </c>
       <c r="E145" t="n">
-        <v>1.935</v>
+        <v>3.505</v>
       </c>
       <c r="F145" t="n">
-        <v>1.424</v>
+        <v>3.493</v>
       </c>
       <c r="G145" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4072,44 +4072,44 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-1.656</v>
+        <v>-31.024</v>
       </c>
       <c r="C146" t="n">
-        <v>1.121</v>
+        <v>2.456</v>
       </c>
       <c r="D146" t="n">
-        <v>3.359</v>
+        <v>4.938</v>
       </c>
       <c r="E146" t="n">
-        <v>1.833</v>
+        <v>2.222</v>
       </c>
       <c r="F146" t="n">
-        <v>1.292</v>
+        <v>2.222</v>
       </c>
       <c r="G146" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LR368</t>
+          <t>LR370</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-47.939</v>
+        <v>-2498.905</v>
       </c>
       <c r="C147" t="n">
-        <v>3.224</v>
+        <v>114.632</v>
       </c>
       <c r="D147" t="n">
-        <v>7.546</v>
+        <v>2.925</v>
       </c>
       <c r="E147" t="n">
-        <v>2.747</v>
+        <v>1.71</v>
       </c>
       <c r="F147" t="n">
-        <v>2.689</v>
+        <v>1.341</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -4118,23 +4118,23 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RF368</t>
+          <t>RF370</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-14.886</v>
+        <v>-2232.134</v>
       </c>
       <c r="C148" t="n">
-        <v>1.722</v>
+        <v>102.506</v>
       </c>
       <c r="D148" t="n">
-        <v>2.45</v>
+        <v>2.613</v>
       </c>
       <c r="E148" t="n">
-        <v>1.565</v>
+        <v>1.616</v>
       </c>
       <c r="F148" t="n">
-        <v>1.541</v>
+        <v>1.271</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -4143,23 +4143,23 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>NN368</t>
+          <t>NN370</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-6.661</v>
+        <v>-7465.302</v>
       </c>
       <c r="C149" t="n">
-        <v>1.348</v>
+        <v>340.377</v>
       </c>
       <c r="D149" t="n">
-        <v>1.181</v>
+        <v>8.734999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>1.087</v>
+        <v>2.956</v>
       </c>
       <c r="F149" t="n">
-        <v>1.074</v>
+        <v>2.761</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -4172,22 +4172,22 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-44.002</v>
+        <v>-491.602</v>
       </c>
       <c r="C150" t="n">
-        <v>5.091</v>
+        <v>45.782</v>
       </c>
       <c r="D150" t="n">
-        <v>6.939</v>
+        <v>0.576</v>
       </c>
       <c r="E150" t="n">
-        <v>2.634</v>
+        <v>0.759</v>
       </c>
       <c r="F150" t="n">
-        <v>2.437</v>
+        <v>0.749</v>
       </c>
       <c r="G150" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4197,19 +4197,19 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-24.992</v>
+        <v>-1992.635</v>
       </c>
       <c r="C151" t="n">
-        <v>2.181</v>
+        <v>91.62</v>
       </c>
       <c r="D151" t="n">
-        <v>4.008</v>
+        <v>2.332</v>
       </c>
       <c r="E151" t="n">
-        <v>2.002</v>
+        <v>1.527</v>
       </c>
       <c r="F151" t="n">
-        <v>2.002</v>
+        <v>1.278</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -4218,23 +4218,23 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>LR370</t>
+          <t>LR372</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-2498.905</v>
+        <v>-1.363</v>
       </c>
       <c r="C152" t="n">
-        <v>114.632</v>
+        <v>1.107</v>
       </c>
       <c r="D152" t="n">
-        <v>2.925</v>
+        <v>0.18</v>
       </c>
       <c r="E152" t="n">
-        <v>1.71</v>
+        <v>0.424</v>
       </c>
       <c r="F152" t="n">
-        <v>1.341</v>
+        <v>0.435</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -4243,23 +4243,23 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RF370</t>
+          <t>RF372</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-2650.188</v>
+        <v>-7.427</v>
       </c>
       <c r="C153" t="n">
-        <v>121.509</v>
+        <v>1.383</v>
       </c>
       <c r="D153" t="n">
-        <v>3.102</v>
+        <v>0.641</v>
       </c>
       <c r="E153" t="n">
-        <v>1.761</v>
+        <v>0.801</v>
       </c>
       <c r="F153" t="n">
-        <v>1.325</v>
+        <v>0.773</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -4268,26 +4268,26 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>NN370</t>
+          <t>NN372</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-16808.019</v>
+        <v>-18.014</v>
       </c>
       <c r="C154" t="n">
-        <v>765.046</v>
+        <v>1.864</v>
       </c>
       <c r="D154" t="n">
-        <v>19.666</v>
+        <v>1.447</v>
       </c>
       <c r="E154" t="n">
-        <v>4.435</v>
+        <v>1.203</v>
       </c>
       <c r="F154" t="n">
-        <v>4.433</v>
+        <v>1.188</v>
       </c>
       <c r="G154" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4297,22 +4297,22 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-160.24</v>
+        <v>-49.985</v>
       </c>
       <c r="C155" t="n">
-        <v>15.658</v>
+        <v>5.635</v>
       </c>
       <c r="D155" t="n">
-        <v>0.189</v>
+        <v>3.88</v>
       </c>
       <c r="E155" t="n">
-        <v>0.435</v>
+        <v>1.97</v>
       </c>
       <c r="F155" t="n">
-        <v>0.361</v>
+        <v>1.875</v>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -4322,19 +4322,19 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-2217.337</v>
+        <v>-0.797</v>
       </c>
       <c r="C156" t="n">
-        <v>101.834</v>
+        <v>1.082</v>
       </c>
       <c r="D156" t="n">
-        <v>2.595</v>
+        <v>0.137</v>
       </c>
       <c r="E156" t="n">
-        <v>1.611</v>
+        <v>0.37</v>
       </c>
       <c r="F156" t="n">
-        <v>1.373</v>
+        <v>0.406</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -4343,23 +4343,23 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>LR372</t>
+          <t>LR374</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1.363</v>
+        <v>-12.161</v>
       </c>
       <c r="C157" t="n">
-        <v>1.107</v>
+        <v>1.598</v>
       </c>
       <c r="D157" t="n">
-        <v>0.18</v>
+        <v>1.171</v>
       </c>
       <c r="E157" t="n">
-        <v>0.424</v>
+        <v>1.082</v>
       </c>
       <c r="F157" t="n">
-        <v>0.435</v>
+        <v>1.035</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -4368,23 +4368,23 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RF372</t>
+          <t>RF374</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-3.752</v>
+        <v>-16.105</v>
       </c>
       <c r="C158" t="n">
-        <v>1.216</v>
+        <v>1.777</v>
       </c>
       <c r="D158" t="n">
-        <v>0.362</v>
+        <v>1.521</v>
       </c>
       <c r="E158" t="n">
-        <v>0.602</v>
+        <v>1.233</v>
       </c>
       <c r="F158" t="n">
-        <v>0.646</v>
+        <v>1.17</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -4393,23 +4393,23 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>NN372</t>
+          <t>NN374</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-1.023</v>
+        <v>-21.646</v>
       </c>
       <c r="C159" t="n">
-        <v>1.092</v>
+        <v>2.029</v>
       </c>
       <c r="D159" t="n">
-        <v>0.154</v>
+        <v>2.014</v>
       </c>
       <c r="E159" t="n">
-        <v>0.392</v>
+        <v>1.419</v>
       </c>
       <c r="F159" t="n">
-        <v>0.435</v>
+        <v>1.419</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -4422,19 +4422,19 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-75.824</v>
+        <v>-5.167</v>
       </c>
       <c r="C160" t="n">
-        <v>7.984</v>
+        <v>1.561</v>
       </c>
       <c r="D160" t="n">
-        <v>5.847</v>
+        <v>0.548</v>
       </c>
       <c r="E160" t="n">
-        <v>2.418</v>
+        <v>0.74</v>
       </c>
       <c r="F160" t="n">
-        <v>2.402</v>
+        <v>0.517</v>
       </c>
       <c r="G160" t="n">
         <v>-1</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-7.39</v>
+        <v>-11.166</v>
       </c>
       <c r="C161" t="n">
-        <v>1.381</v>
+        <v>1.553</v>
       </c>
       <c r="D161" t="n">
-        <v>0.639</v>
+        <v>1.082</v>
       </c>
       <c r="E161" t="n">
-        <v>0.799</v>
+        <v>1.04</v>
       </c>
       <c r="F161" t="n">
-        <v>0.791</v>
+        <v>0.983</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -4468,76 +4468,76 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>LR374</t>
+          <t>LR376</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-12.161</v>
+        <v>-26.755</v>
       </c>
       <c r="C162" t="n">
-        <v>1.598</v>
+        <v>2.262</v>
       </c>
       <c r="D162" t="n">
-        <v>1.171</v>
+        <v>3.387</v>
       </c>
       <c r="E162" t="n">
-        <v>1.082</v>
+        <v>1.84</v>
       </c>
       <c r="F162" t="n">
-        <v>1.035</v>
+        <v>1.474</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RF374</t>
+          <t>RF376</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-18.135</v>
+        <v>-11.645</v>
       </c>
       <c r="C163" t="n">
-        <v>1.87</v>
+        <v>1.575</v>
       </c>
       <c r="D163" t="n">
-        <v>1.702</v>
+        <v>1.543</v>
       </c>
       <c r="E163" t="n">
-        <v>1.305</v>
+        <v>1.242</v>
       </c>
       <c r="F163" t="n">
-        <v>1.295</v>
+        <v>0.878</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>NN374</t>
+          <t>NN376</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-17.34</v>
+        <v>-20.715</v>
       </c>
       <c r="C164" t="n">
-        <v>1.834</v>
+        <v>1.987</v>
       </c>
       <c r="D164" t="n">
-        <v>1.631</v>
+        <v>2.65</v>
       </c>
       <c r="E164" t="n">
-        <v>1.277</v>
+        <v>1.628</v>
       </c>
       <c r="F164" t="n">
-        <v>1.272</v>
+        <v>1.183</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165">
@@ -4547,19 +4547,19 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-15.366</v>
+        <v>-65.30500000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>2.488</v>
+        <v>7.028</v>
       </c>
       <c r="D165" t="n">
-        <v>1.456</v>
+        <v>8.092000000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>1.207</v>
+        <v>2.845</v>
       </c>
       <c r="F165" t="n">
-        <v>0.836</v>
+        <v>2.788</v>
       </c>
       <c r="G165" t="n">
         <v>-1</v>
@@ -4572,522 +4572,397 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-13.16</v>
+        <v>-20.314</v>
       </c>
       <c r="C166" t="n">
-        <v>1.644</v>
+        <v>1.969</v>
       </c>
       <c r="D166" t="n">
-        <v>1.259</v>
+        <v>2.601</v>
       </c>
       <c r="E166" t="n">
-        <v>1.122</v>
+        <v>1.613</v>
       </c>
       <c r="F166" t="n">
-        <v>1.04</v>
+        <v>1.369</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>LR376</t>
+          <t>Pre2020LRavg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-26.755</v>
+        <v>-0.2202</v>
       </c>
       <c r="C167" t="n">
-        <v>2.262</v>
+        <v>1.7844</v>
       </c>
       <c r="D167" t="n">
-        <v>3.387</v>
+        <v>1.0552</v>
       </c>
       <c r="E167" t="n">
-        <v>1.84</v>
+        <v>0.9232666666666665</v>
       </c>
       <c r="F167" t="n">
-        <v>1.474</v>
+        <v>0.9626666666666668</v>
       </c>
       <c r="G167" t="n">
-        <v>-1</v>
+        <v>0.4394</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>RF376</t>
+          <t>Pre2020RFavg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-12.606</v>
+        <v>0.03520000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>1.618</v>
+        <v>1.6202</v>
       </c>
       <c r="D168" t="n">
-        <v>1.661</v>
+        <v>0.9638666666666665</v>
       </c>
       <c r="E168" t="n">
-        <v>1.289</v>
+        <v>0.8727333333333334</v>
       </c>
       <c r="F168" t="n">
-        <v>1.004</v>
+        <v>0.8789333333333335</v>
       </c>
       <c r="G168" t="n">
-        <v>-1</v>
+        <v>0.4921333333333334</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>NN376</t>
+          <t>Pre2020NNavg</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-31.8</v>
+        <v>-0.5762</v>
       </c>
       <c r="C169" t="n">
-        <v>2.491</v>
+        <v>3.641233333333334</v>
       </c>
       <c r="D169" t="n">
-        <v>4.003</v>
+        <v>1.484866666666667</v>
       </c>
       <c r="E169" t="n">
-        <v>2.001</v>
+        <v>0.9972666666666666</v>
       </c>
       <c r="F169" t="n">
-        <v>1.946</v>
+        <v>0.9499666666666666</v>
       </c>
       <c r="G169" t="n">
-        <v>-1</v>
+        <v>0.4392</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>Pre2020RNNavg</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-29.733</v>
+        <v>-0.3812666666666667</v>
       </c>
       <c r="C170" t="n">
-        <v>3.794</v>
+        <v>5.143800000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>3.751</v>
+        <v>1.340866666666667</v>
       </c>
       <c r="E170" t="n">
-        <v>1.937</v>
+        <v>0.9838000000000001</v>
       </c>
       <c r="F170" t="n">
-        <v>1.715</v>
+        <v>0.9368666666666665</v>
       </c>
       <c r="G170" t="n">
-        <v>-1</v>
+        <v>0.4271333333333333</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>Pre2020Ensembleavg</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-22.03</v>
+        <v>0.0766</v>
       </c>
       <c r="C171" t="n">
-        <v>2.047</v>
+        <v>1.5936</v>
       </c>
       <c r="D171" t="n">
-        <v>2.811</v>
+        <v>0.9475333333333334</v>
       </c>
       <c r="E171" t="n">
-        <v>1.677</v>
+        <v>0.8581333333333333</v>
       </c>
       <c r="F171" t="n">
-        <v>1.376</v>
+        <v>0.8523999999999998</v>
       </c>
       <c r="G171" t="n">
-        <v>-1</v>
+        <v>0.4893999999999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Pre2020LRavg</t>
+          <t>Post2020LRavg</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-0.2202</v>
+        <v>-2160.479888888889</v>
       </c>
       <c r="C172" t="n">
-        <v>1.7844</v>
+        <v>99.24899999999998</v>
       </c>
       <c r="D172" t="n">
-        <v>1.0552</v>
+        <v>798.9385555555556</v>
       </c>
       <c r="E172" t="n">
-        <v>0.9232666666666665</v>
+        <v>9.830777777777776</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9626666666666668</v>
+        <v>7.948722222222222</v>
       </c>
       <c r="G172" t="n">
-        <v>0.4394</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RFavg</t>
+          <t>Post2020RFavg</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.01100000000000001</v>
+        <v>-156.1747222222222</v>
       </c>
       <c r="C173" t="n">
-        <v>1.6358</v>
+        <v>8.14433333333333</v>
       </c>
       <c r="D173" t="n">
-        <v>0.9770000000000001</v>
+        <v>1.853222222222223</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8812</v>
+        <v>1.248777777777778</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8811333333333332</v>
+        <v>1.133777777777778</v>
       </c>
       <c r="G173" t="n">
-        <v>0.4792</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Pre2020NNavg</t>
+          <t>Post2020NNavg</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-0.2666666666666667</v>
+        <v>-276.8854444444445</v>
       </c>
       <c r="C174" t="n">
-        <v>3.0229</v>
+        <v>15.84180555555556</v>
       </c>
       <c r="D174" t="n">
-        <v>1.1963</v>
+        <v>5.176611111111112</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9527</v>
+        <v>1.772083333333333</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9326666666666666</v>
+        <v>1.624388888888889</v>
       </c>
       <c r="G174" t="n">
-        <v>0.4469666666666666</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RNNavg</t>
+          <t>Post2020RNNavg</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-0.02546666666666666</v>
+        <v>-96.26755555555556</v>
       </c>
       <c r="C175" t="n">
-        <v>4.0764</v>
+        <v>9.842555555555556</v>
       </c>
       <c r="D175" t="n">
-        <v>1.0334</v>
+        <v>4.9185</v>
       </c>
       <c r="E175" t="n">
-        <v>0.8940666666666668</v>
+        <v>1.830722222222222</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8604666666666669</v>
+        <v>1.715444444444445</v>
       </c>
       <c r="G175" t="n">
-        <v>0.4661333333333334</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Pre2020Ensembleavg</t>
+          <t>Post2020Ensembleavg</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.08106666666666668</v>
+        <v>-348.2182222222223</v>
       </c>
       <c r="C176" t="n">
-        <v>1.5908</v>
+        <v>16.87361111111111</v>
       </c>
       <c r="D176" t="n">
-        <v>0.9548666666666666</v>
+        <v>86.16666666666669</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8551333333333332</v>
+        <v>3.736</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8573333333333333</v>
+        <v>3.070222222222222</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4795333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>Post2020LRavg</t>
+          <t>TotalLRAvg</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-2047.427315789474</v>
+        <v>-360.2634814814815</v>
       </c>
       <c r="C177" t="n">
-        <v>94.11026315789472</v>
+        <v>18.0285</v>
       </c>
       <c r="D177" t="n">
-        <v>756.9084736842105</v>
+        <v>134.0357592592593</v>
       </c>
       <c r="E177" t="n">
-        <v>9.345263157894736</v>
+        <v>2.407851851851852</v>
       </c>
       <c r="F177" t="n">
-        <v>7.551736842105262</v>
+        <v>2.127009259259259</v>
       </c>
       <c r="G177" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.4217222222222223</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>Post2020RFavg</t>
+          <t>TotalRFAvg</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-163.8381052631579</v>
+        <v>-25.99978703703704</v>
       </c>
       <c r="C178" t="n">
-        <v>8.492684210526317</v>
+        <v>2.707555555555555</v>
       </c>
       <c r="D178" t="n">
-        <v>1.62</v>
+        <v>1.112092592592593</v>
       </c>
       <c r="E178" t="n">
-        <v>1.144789473684211</v>
+        <v>0.9354074074074075</v>
       </c>
       <c r="F178" t="n">
-        <v>1.047052631578947</v>
+        <v>0.9214074074074076</v>
       </c>
       <c r="G178" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4286296296296297</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>Post2020NNavg</t>
+          <t>TotalNNAvg</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-476.2793947368422</v>
+        <v>-46.62774074074074</v>
       </c>
       <c r="C179" t="n">
-        <v>23.71673684210527</v>
+        <v>5.674662037037038</v>
       </c>
       <c r="D179" t="n">
-        <v>3.056526315789474</v>
+        <v>2.100157407407407</v>
       </c>
       <c r="E179" t="n">
-        <v>1.468315789473684</v>
+        <v>1.126402777777778</v>
       </c>
       <c r="F179" t="n">
-        <v>1.360842105263158</v>
+        <v>1.06237037037037</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.4122962962962962</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>Post2020RNNavg</t>
+          <t>TotalRNNAvg</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-43.97852631578947</v>
+        <v>-16.36231481481482</v>
       </c>
       <c r="C180" t="n">
-        <v>5.088947368421052</v>
+        <v>5.926925925925926</v>
       </c>
       <c r="D180" t="n">
-        <v>3.111157894736842</v>
+        <v>1.937138888888889</v>
       </c>
       <c r="E180" t="n">
-        <v>1.513157894736842</v>
+        <v>1.124953703703704</v>
       </c>
       <c r="F180" t="n">
-        <v>1.366578947368421</v>
+        <v>1.06662962962963</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.3929814814814814</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>Post2020Ensembleavg</t>
+          <t>TotalEnsembleAvg</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-348.2573684210527</v>
+        <v>-57.97253703703705</v>
       </c>
       <c r="C181" t="n">
-        <v>16.87547368421053</v>
+        <v>4.140268518518519</v>
       </c>
       <c r="D181" t="n">
-        <v>84.61868421052631</v>
+        <v>15.15072222222223</v>
       </c>
       <c r="E181" t="n">
-        <v>3.652736842105264</v>
+        <v>1.337777777777778</v>
       </c>
       <c r="F181" t="n">
-        <v>2.998894736842105</v>
+        <v>1.222037037037037</v>
       </c>
       <c r="G181" t="n">
-        <v>0.2631578947368421</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>TotalLRAvg</t>
-        </is>
-      </c>
-      <c r="B182" t="n">
-        <v>-341.4213859649123</v>
-      </c>
-      <c r="C182" t="n">
-        <v>17.17204385964912</v>
-      </c>
-      <c r="D182" t="n">
-        <v>127.0307456140351</v>
-      </c>
-      <c r="E182" t="n">
-        <v>2.326932748538011</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2.060845029239766</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.4100263157894737</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>TotalRFAvg</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>-27.29718421052632</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2.778614035087719</v>
-      </c>
-      <c r="D183" t="n">
-        <v>1.084166666666667</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.9251315789473683</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0.9087865497076022</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.478280701754386</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>TotalNNAvg</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>-79.60212134502925</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.471872807017545</v>
-      </c>
-      <c r="D184" t="n">
-        <v>1.506337719298245</v>
-      </c>
-      <c r="E184" t="n">
-        <v>1.038635964912281</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1.004029239766082</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.3812441520467836</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>TotalRNNAvg</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>-7.350976608187135</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.245157894736842</v>
-      </c>
-      <c r="D185" t="n">
-        <v>1.379692982456141</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.9972485380116961</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0.9448187134502927</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.397216374269006</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>TotalEnsembleAvg</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>-57.97533918128656</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.138245614035088</v>
-      </c>
-      <c r="D186" t="n">
-        <v>14.89883625730994</v>
-      </c>
-      <c r="E186" t="n">
-        <v>1.321400584795322</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1.214260233918129</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.4434707602339181</v>
+        <v>0.4263518518518518</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics/rollingTestMetrics.xlsx
+++ b/Metrics/rollingTestMetrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.176</v>
+        <v>0.17</v>
       </c>
       <c r="C3" t="n">
-        <v>1.53</v>
+        <v>1.534</v>
       </c>
       <c r="D3" t="n">
-        <v>5.688</v>
+        <v>5.731</v>
       </c>
       <c r="E3" t="n">
-        <v>2.385</v>
+        <v>2.394</v>
       </c>
       <c r="F3" t="n">
         <v>2.26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.369</v>
+        <v>0.714</v>
       </c>
       <c r="C4" t="n">
-        <v>1.406</v>
+        <v>1.184</v>
       </c>
       <c r="D4" t="n">
-        <v>4.358</v>
+        <v>1.973</v>
       </c>
       <c r="E4" t="n">
-        <v>2.088</v>
+        <v>1.405</v>
       </c>
       <c r="F4" t="n">
-        <v>2.555</v>
+        <v>2.489</v>
       </c>
       <c r="G4" t="n">
-        <v>0.621</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.221</v>
+        <v>0.171</v>
       </c>
       <c r="C5" t="n">
-        <v>3.337</v>
+        <v>3.487</v>
       </c>
       <c r="D5" t="n">
-        <v>5.372</v>
+        <v>5.723</v>
       </c>
       <c r="E5" t="n">
-        <v>2.318</v>
+        <v>2.392</v>
       </c>
       <c r="F5" t="n">
-        <v>2.399</v>
+        <v>2.299</v>
       </c>
       <c r="G5" t="n">
-        <v>0.477</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.151</v>
+        <v>0.131</v>
       </c>
       <c r="C6" t="n">
-        <v>1.546</v>
+        <v>1.559</v>
       </c>
       <c r="D6" t="n">
-        <v>5.859</v>
+        <v>5.996</v>
       </c>
       <c r="E6" t="n">
-        <v>2.421</v>
+        <v>2.449</v>
       </c>
       <c r="F6" t="n">
-        <v>2.273</v>
+        <v>2.278</v>
       </c>
       <c r="G6" t="n">
-        <v>0.745</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="7">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.112</v>
+        <v>0.093</v>
       </c>
       <c r="C8" t="n">
-        <v>1.571</v>
+        <v>1.583</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="E8" t="n">
-        <v>0.751</v>
+        <v>0.759</v>
       </c>
       <c r="F8" t="n">
-        <v>0.62</v>
+        <v>0.646</v>
       </c>
       <c r="G8" t="n">
-        <v>0.37</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.173</v>
+        <v>-2.228</v>
       </c>
       <c r="C9" t="n">
-        <v>1.532</v>
+        <v>3.075</v>
       </c>
       <c r="D9" t="n">
-        <v>0.525</v>
+        <v>2.05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.725</v>
+        <v>1.432</v>
       </c>
       <c r="F9" t="n">
-        <v>0.712</v>
+        <v>0.955</v>
       </c>
       <c r="G9" t="n">
-        <v>0.444</v>
+        <v>-0.476</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.544</v>
+        <v>-1.025</v>
       </c>
       <c r="C10" t="n">
-        <v>5.632</v>
+        <v>7.075</v>
       </c>
       <c r="D10" t="n">
-        <v>0.981</v>
+        <v>1.286</v>
       </c>
       <c r="E10" t="n">
-        <v>0.99</v>
+        <v>1.134</v>
       </c>
       <c r="F10" t="n">
-        <v>0.741</v>
+        <v>0.841</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.299</v>
+        <v>-0.056</v>
       </c>
       <c r="C11" t="n">
-        <v>1.835</v>
+        <v>1.679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.825</v>
+        <v>0.67</v>
       </c>
       <c r="E11" t="n">
-        <v>0.908</v>
+        <v>0.819</v>
       </c>
       <c r="F11" t="n">
-        <v>0.634</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.173</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="12">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.987</v>
       </c>
       <c r="C13" t="n">
-        <v>2.164</v>
+        <v>2.277</v>
       </c>
       <c r="D13" t="n">
-        <v>0.316</v>
+        <v>0.347</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.589</v>
       </c>
       <c r="F13" t="n">
-        <v>0.514</v>
+        <v>0.497</v>
       </c>
       <c r="G13" t="n">
-        <v>0.141</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.359</v>
+        <v>-3.685</v>
       </c>
       <c r="C14" t="n">
-        <v>3.159</v>
+        <v>4.012</v>
       </c>
       <c r="D14" t="n">
-        <v>0.586</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.766</v>
+        <v>0.904</v>
       </c>
       <c r="F14" t="n">
-        <v>0.753</v>
+        <v>0.834</v>
       </c>
       <c r="G14" t="n">
-        <v>0.505</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.05</v>
+        <v>-1.401</v>
       </c>
       <c r="C15" t="n">
-        <v>7.15</v>
+        <v>8.202999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.358</v>
+        <v>0.419</v>
       </c>
       <c r="E15" t="n">
-        <v>0.598</v>
+        <v>0.647</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.591</v>
       </c>
       <c r="G15" t="n">
-        <v>0.32</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.875</v>
+        <v>-1.026</v>
       </c>
       <c r="C16" t="n">
-        <v>2.205</v>
+        <v>2.302</v>
       </c>
       <c r="D16" t="n">
-        <v>0.327</v>
+        <v>0.353</v>
       </c>
       <c r="E16" t="n">
-        <v>0.572</v>
+        <v>0.594</v>
       </c>
       <c r="F16" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.112</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="17">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.036</v>
+        <v>-0.014</v>
       </c>
       <c r="C18" t="n">
-        <v>1.666</v>
+        <v>1.652</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.797</v>
       </c>
       <c r="E18" t="n">
-        <v>0.902</v>
+        <v>0.893</v>
       </c>
       <c r="F18" t="n">
-        <v>0.916</v>
+        <v>0.953</v>
       </c>
       <c r="G18" t="n">
-        <v>0.47</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +897,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.214</v>
+        <v>0.269</v>
       </c>
       <c r="C19" t="n">
-        <v>1.505</v>
+        <v>1.47</v>
       </c>
       <c r="D19" t="n">
-        <v>0.618</v>
+        <v>0.575</v>
       </c>
       <c r="E19" t="n">
-        <v>0.786</v>
+        <v>0.758</v>
       </c>
       <c r="F19" t="n">
-        <v>0.839</v>
+        <v>1.011</v>
       </c>
       <c r="G19" t="n">
-        <v>0.723</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.282</v>
+        <v>0.128</v>
       </c>
       <c r="C20" t="n">
-        <v>3.154</v>
+        <v>3.616</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.751</v>
+        <v>0.828</v>
       </c>
       <c r="F20" t="n">
-        <v>0.842</v>
+        <v>0.784</v>
       </c>
       <c r="G20" t="n">
-        <v>0.673</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.076</v>
+        <v>0.113</v>
       </c>
       <c r="C21" t="n">
-        <v>1.594</v>
+        <v>1.57</v>
       </c>
       <c r="D21" t="n">
-        <v>0.726</v>
+        <v>0.697</v>
       </c>
       <c r="E21" t="n">
-        <v>0.852</v>
+        <v>0.835</v>
       </c>
       <c r="F21" t="n">
-        <v>0.844</v>
+        <v>0.872</v>
       </c>
       <c r="G21" t="n">
-        <v>0.615</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="22">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.229</v>
+        <v>0.156</v>
       </c>
       <c r="C23" t="n">
-        <v>1.496</v>
+        <v>1.543</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="E23" t="n">
-        <v>0.827</v>
+        <v>0.865</v>
       </c>
       <c r="F23" t="n">
-        <v>0.956</v>
+        <v>0.951</v>
       </c>
       <c r="G23" t="n">
-        <v>0.728</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.22</v>
+        <v>0.089</v>
       </c>
       <c r="C24" t="n">
-        <v>1.501</v>
+        <v>1.586</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.831</v>
+        <v>0.898</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.909</v>
       </c>
       <c r="G24" t="n">
-        <v>0.528</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.206</v>
+        <v>-0.117</v>
       </c>
       <c r="C25" t="n">
-        <v>3.382</v>
+        <v>4.351</v>
       </c>
       <c r="D25" t="n">
-        <v>0.704</v>
+        <v>0.99</v>
       </c>
       <c r="E25" t="n">
-        <v>0.839</v>
+        <v>0.995</v>
       </c>
       <c r="F25" t="n">
-        <v>1.003</v>
+        <v>0.994</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="C26" t="n">
-        <v>1.482</v>
+        <v>1.471</v>
       </c>
       <c r="D26" t="n">
-        <v>0.665</v>
+        <v>0.649</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.806</v>
       </c>
       <c r="F26" t="n">
-        <v>0.922</v>
+        <v>0.948</v>
       </c>
       <c r="G26" t="n">
-        <v>0.623</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="27">
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.166</v>
+        <v>0.17</v>
       </c>
       <c r="C28" t="n">
-        <v>1.536</v>
+        <v>1.534</v>
       </c>
       <c r="D28" t="n">
-        <v>1.045</v>
+        <v>1.039</v>
       </c>
       <c r="E28" t="n">
-        <v>1.022</v>
+        <v>1.019</v>
       </c>
       <c r="F28" t="n">
-        <v>1.019</v>
+        <v>1.024</v>
       </c>
       <c r="G28" t="n">
-        <v>0.466</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.415</v>
+        <v>0.422</v>
       </c>
       <c r="C29" t="n">
-        <v>1.376</v>
+        <v>1.372</v>
       </c>
       <c r="D29" t="n">
-        <v>0.733</v>
+        <v>0.725</v>
       </c>
       <c r="E29" t="n">
-        <v>0.856</v>
+        <v>0.851</v>
       </c>
       <c r="F29" t="n">
-        <v>1.021</v>
+        <v>1.081</v>
       </c>
       <c r="G29" t="n">
-        <v>0.757</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.068</v>
+        <v>0.263</v>
       </c>
       <c r="C30" t="n">
-        <v>3.796</v>
+        <v>3.211</v>
       </c>
       <c r="D30" t="n">
-        <v>1.168</v>
+        <v>0.924</v>
       </c>
       <c r="E30" t="n">
-        <v>1.081</v>
+        <v>0.961</v>
       </c>
       <c r="F30" t="n">
-        <v>1.122</v>
+        <v>1.098</v>
       </c>
       <c r="G30" t="n">
-        <v>0.593</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.285</v>
+        <v>0.311</v>
       </c>
       <c r="C31" t="n">
-        <v>1.46</v>
+        <v>1.443</v>
       </c>
       <c r="D31" t="n">
-        <v>0.896</v>
+        <v>0.863</v>
       </c>
       <c r="E31" t="n">
-        <v>0.947</v>
+        <v>0.929</v>
       </c>
       <c r="F31" t="n">
-        <v>1.024</v>
+        <v>1.035</v>
       </c>
       <c r="G31" t="n">
-        <v>0.588</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="32">
@@ -1247,22 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.032</v>
+        <v>0.108</v>
       </c>
       <c r="C33" t="n">
-        <v>1.622</v>
+        <v>1.573</v>
       </c>
       <c r="D33" t="n">
-        <v>0.332</v>
+        <v>0.306</v>
       </c>
       <c r="E33" t="n">
-        <v>0.576</v>
+        <v>0.553</v>
       </c>
       <c r="F33" t="n">
-        <v>0.626</v>
+        <v>0.612</v>
       </c>
       <c r="G33" t="n">
-        <v>0.579</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.163</v>
+        <v>-0.523</v>
       </c>
       <c r="C34" t="n">
-        <v>1.538</v>
+        <v>1.979</v>
       </c>
       <c r="D34" t="n">
-        <v>0.287</v>
+        <v>0.522</v>
       </c>
       <c r="E34" t="n">
-        <v>0.536</v>
+        <v>0.722</v>
       </c>
       <c r="F34" t="n">
-        <v>0.673</v>
+        <v>0.803</v>
       </c>
       <c r="G34" t="n">
-        <v>0.657</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.479</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>5.437</v>
+        <v>3.742</v>
       </c>
       <c r="D35" t="n">
-        <v>0.507</v>
+        <v>0.313</v>
       </c>
       <c r="E35" t="n">
-        <v>0.712</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>0.642</v>
+        <v>0.67</v>
       </c>
       <c r="G35" t="n">
-        <v>0.35</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.213</v>
+        <v>0.299</v>
       </c>
       <c r="C36" t="n">
-        <v>1.506</v>
+        <v>1.451</v>
       </c>
       <c r="D36" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="E36" t="n">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.596</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="37">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.272</v>
+        <v>0.198</v>
       </c>
       <c r="C38" t="n">
-        <v>1.468</v>
+        <v>1.516</v>
       </c>
       <c r="D38" t="n">
-        <v>0.849</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.921</v>
+        <v>0.967</v>
       </c>
       <c r="F38" t="n">
-        <v>1.032</v>
+        <v>1.041</v>
       </c>
       <c r="G38" t="n">
-        <v>0.832</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +1397,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.435</v>
+        <v>0.451</v>
       </c>
       <c r="C39" t="n">
-        <v>1.363</v>
+        <v>1.353</v>
       </c>
       <c r="D39" t="n">
-        <v>0.658</v>
+        <v>0.641</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.801</v>
       </c>
       <c r="F39" t="n">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="G39" t="n">
-        <v>0.735</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +1422,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.129</v>
+        <v>0.403</v>
       </c>
       <c r="C40" t="n">
-        <v>3.613</v>
+        <v>2.791</v>
       </c>
       <c r="D40" t="n">
-        <v>1.015</v>
+        <v>0.697</v>
       </c>
       <c r="E40" t="n">
-        <v>1.007</v>
+        <v>0.835</v>
       </c>
       <c r="F40" t="n">
-        <v>0.993</v>
+        <v>0.99</v>
       </c>
       <c r="G40" t="n">
-        <v>0.628</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.222</v>
+        <v>0.362</v>
       </c>
       <c r="C41" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="D41" t="n">
-        <v>0.907</v>
+        <v>0.744</v>
       </c>
       <c r="E41" t="n">
-        <v>0.952</v>
+        <v>0.863</v>
       </c>
       <c r="F41" t="n">
-        <v>0.99</v>
+        <v>1.007</v>
       </c>
       <c r="G41" t="n">
-        <v>0.876</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="42">
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.074</v>
+        <v>0.142</v>
       </c>
       <c r="C43" t="n">
-        <v>1.595</v>
+        <v>1.552</v>
       </c>
       <c r="D43" t="n">
-        <v>0.83</v>
+        <v>0.769</v>
       </c>
       <c r="E43" t="n">
-        <v>0.911</v>
+        <v>0.877</v>
       </c>
       <c r="F43" t="n">
         <v>0.925</v>
       </c>
       <c r="G43" t="n">
-        <v>0.432</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.138</v>
+        <v>0.013</v>
       </c>
       <c r="C44" t="n">
-        <v>1.732</v>
+        <v>1.634</v>
       </c>
       <c r="D44" t="n">
-        <v>1.02</v>
+        <v>0.884</v>
       </c>
       <c r="E44" t="n">
-        <v>1.01</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.904</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>0.165</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="45">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.222</v>
+        <v>0.329</v>
       </c>
       <c r="C45" t="n">
-        <v>3.334</v>
+        <v>3.013</v>
       </c>
       <c r="D45" t="n">
-        <v>0.697</v>
+        <v>0.601</v>
       </c>
       <c r="E45" t="n">
-        <v>0.835</v>
+        <v>0.775</v>
       </c>
       <c r="F45" t="n">
-        <v>0.869</v>
+        <v>0.879</v>
       </c>
       <c r="G45" t="n">
-        <v>0.474</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="46">
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.267</v>
+        <v>0.307</v>
       </c>
       <c r="C46" t="n">
-        <v>1.471</v>
+        <v>1.446</v>
       </c>
       <c r="D46" t="n">
-        <v>0.657</v>
+        <v>0.621</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.788</v>
       </c>
       <c r="F46" t="n">
-        <v>0.883</v>
+        <v>0.913</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="47">
@@ -1622,22 +1622,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.041</v>
+        <v>0.156</v>
       </c>
       <c r="C48" t="n">
-        <v>1.616</v>
+        <v>1.543</v>
       </c>
       <c r="D48" t="n">
-        <v>0.605</v>
+        <v>0.532</v>
       </c>
       <c r="E48" t="n">
-        <v>0.778</v>
+        <v>0.729</v>
       </c>
       <c r="F48" t="n">
-        <v>0.779</v>
+        <v>0.783</v>
       </c>
       <c r="G48" t="n">
-        <v>0.398</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="49">
@@ -1647,22 +1647,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.316</v>
+        <v>0.189</v>
       </c>
       <c r="C49" t="n">
-        <v>1.44</v>
+        <v>1.521</v>
       </c>
       <c r="D49" t="n">
-        <v>0.431</v>
+        <v>0.511</v>
       </c>
       <c r="E49" t="n">
-        <v>0.657</v>
+        <v>0.715</v>
       </c>
       <c r="F49" t="n">
-        <v>0.799</v>
+        <v>0.822</v>
       </c>
       <c r="G49" t="n">
-        <v>0.572</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="50">
@@ -1672,22 +1672,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.375</v>
+        <v>0.555</v>
       </c>
       <c r="C50" t="n">
-        <v>2.875</v>
+        <v>2.335</v>
       </c>
       <c r="D50" t="n">
-        <v>0.394</v>
+        <v>0.28</v>
       </c>
       <c r="E50" t="n">
-        <v>0.628</v>
+        <v>0.529</v>
       </c>
       <c r="F50" t="n">
-        <v>0.754</v>
+        <v>0.747</v>
       </c>
       <c r="G50" t="n">
-        <v>0.615</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="51">
@@ -1697,22 +1697,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.27</v>
+        <v>0.185</v>
       </c>
       <c r="C51" t="n">
-        <v>1.469</v>
+        <v>1.524</v>
       </c>
       <c r="D51" t="n">
-        <v>0.461</v>
+        <v>0.514</v>
       </c>
       <c r="E51" t="n">
-        <v>0.679</v>
+        <v>0.717</v>
       </c>
       <c r="F51" t="n">
-        <v>0.735</v>
+        <v>0.762</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="52">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.172</v>
+        <v>-0.244</v>
       </c>
       <c r="C53" t="n">
-        <v>1.753</v>
+        <v>1.8</v>
       </c>
       <c r="D53" t="n">
-        <v>0.354</v>
+        <v>0.376</v>
       </c>
       <c r="E53" t="n">
-        <v>0.595</v>
+        <v>0.613</v>
       </c>
       <c r="F53" t="n">
-        <v>0.601</v>
+        <v>0.607</v>
       </c>
       <c r="G53" t="n">
-        <v>0.362</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="54">
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.251</v>
+        <v>0.047</v>
       </c>
       <c r="C54" t="n">
-        <v>1.482</v>
+        <v>1.613</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226</v>
+        <v>0.288</v>
       </c>
       <c r="E54" t="n">
-        <v>0.475</v>
+        <v>0.537</v>
       </c>
       <c r="F54" t="n">
-        <v>0.551</v>
+        <v>0.601</v>
       </c>
       <c r="G54" t="n">
-        <v>0.582</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="55">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.116</v>
+        <v>-0.025</v>
       </c>
       <c r="C55" t="n">
-        <v>3.652</v>
+        <v>4.075</v>
       </c>
       <c r="D55" t="n">
-        <v>0.267</v>
+        <v>0.31</v>
       </c>
       <c r="E55" t="n">
-        <v>0.517</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="G55" t="n">
-        <v>0.506</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="56">
@@ -1822,22 +1822,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.029</v>
+        <v>-0.199</v>
       </c>
       <c r="C56" t="n">
-        <v>1.624</v>
+        <v>1.771</v>
       </c>
       <c r="D56" t="n">
-        <v>0.293</v>
+        <v>0.362</v>
       </c>
       <c r="E56" t="n">
-        <v>0.541</v>
+        <v>0.602</v>
       </c>
       <c r="F56" t="n">
-        <v>0.538</v>
+        <v>0.593</v>
       </c>
       <c r="G56" t="n">
-        <v>0.395</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="57">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.369</v>
+        <v>-0.297</v>
       </c>
       <c r="C58" t="n">
-        <v>1.88</v>
+        <v>1.834</v>
       </c>
       <c r="D58" t="n">
-        <v>0.668</v>
+        <v>0.633</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.796</v>
       </c>
       <c r="F58" t="n">
-        <v>0.752</v>
+        <v>0.747</v>
       </c>
       <c r="G58" t="n">
-        <v>0.192</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="59">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.099</v>
+        <v>0.118</v>
       </c>
       <c r="C59" t="n">
-        <v>1.707</v>
+        <v>1.567</v>
       </c>
       <c r="D59" t="n">
-        <v>0.536</v>
+        <v>0.43</v>
       </c>
       <c r="E59" t="n">
-        <v>0.732</v>
+        <v>0.656</v>
       </c>
       <c r="F59" t="n">
-        <v>0.738</v>
+        <v>0.729</v>
       </c>
       <c r="G59" t="n">
-        <v>0.353</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="60">
@@ -1922,22 +1922,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.14</v>
+        <v>-0.012</v>
       </c>
       <c r="C60" t="n">
-        <v>3.58</v>
+        <v>4.036</v>
       </c>
       <c r="D60" t="n">
-        <v>0.419</v>
+        <v>0.494</v>
       </c>
       <c r="E60" t="n">
-        <v>0.647</v>
+        <v>0.703</v>
       </c>
       <c r="F60" t="n">
-        <v>0.729</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>0.496</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="61">
@@ -1947,22 +1947,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.05</v>
+        <v>-0.115</v>
       </c>
       <c r="C61" t="n">
-        <v>1.675</v>
+        <v>1.717</v>
       </c>
       <c r="D61" t="n">
-        <v>0.512</v>
+        <v>0.544</v>
       </c>
       <c r="E61" t="n">
-        <v>0.716</v>
+        <v>0.738</v>
       </c>
       <c r="F61" t="n">
-        <v>0.695</v>
+        <v>0.738</v>
       </c>
       <c r="G61" t="n">
-        <v>0.246</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="62">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.52</v>
+        <v>0.426</v>
       </c>
       <c r="C63" t="n">
-        <v>1.309</v>
+        <v>1.369</v>
       </c>
       <c r="D63" t="n">
-        <v>0.24</v>
+        <v>0.287</v>
       </c>
       <c r="E63" t="n">
-        <v>0.49</v>
+        <v>0.536</v>
       </c>
       <c r="F63" t="n">
-        <v>0.67</v>
+        <v>0.658</v>
       </c>
       <c r="G63" t="n">
-        <v>0.799</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="64">
@@ -2022,22 +2022,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.121</v>
+        <v>-0.476</v>
       </c>
       <c r="C64" t="n">
-        <v>1.565</v>
+        <v>1.949</v>
       </c>
       <c r="D64" t="n">
-        <v>0.439</v>
+        <v>0.738</v>
       </c>
       <c r="E64" t="n">
-        <v>0.663</v>
+        <v>0.859</v>
       </c>
       <c r="F64" t="n">
-        <v>0.595</v>
+        <v>0.65</v>
       </c>
       <c r="G64" t="n">
-        <v>0.542</v>
+        <v>-0.101</v>
       </c>
     </row>
     <row r="65">
@@ -2047,22 +2047,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.172</v>
+        <v>-0.24</v>
       </c>
       <c r="C65" t="n">
-        <v>4.516</v>
+        <v>4.72</v>
       </c>
       <c r="D65" t="n">
-        <v>0.586</v>
+        <v>0.62</v>
       </c>
       <c r="E65" t="n">
-        <v>0.766</v>
+        <v>0.787</v>
       </c>
       <c r="F65" t="n">
-        <v>0.578</v>
+        <v>0.598</v>
       </c>
       <c r="G65" t="n">
-        <v>0.008</v>
+        <v>-0.074</v>
       </c>
     </row>
     <row r="66">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.302</v>
+        <v>0.282</v>
       </c>
       <c r="C66" t="n">
-        <v>1.449</v>
+        <v>1.462</v>
       </c>
       <c r="D66" t="n">
-        <v>0.349</v>
+        <v>0.359</v>
       </c>
       <c r="E66" t="n">
-        <v>0.591</v>
+        <v>0.599</v>
       </c>
       <c r="F66" t="n">
-        <v>0.613</v>
+        <v>0.635</v>
       </c>
       <c r="G66" t="n">
-        <v>0.712</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="67">
@@ -2122,19 +2122,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.588</v>
       </c>
       <c r="C68" t="n">
-        <v>1.283</v>
+        <v>1.265</v>
       </c>
       <c r="D68" t="n">
-        <v>0.173</v>
+        <v>0.162</v>
       </c>
       <c r="E68" t="n">
-        <v>0.416</v>
+        <v>0.402</v>
       </c>
       <c r="F68" t="n">
-        <v>0.638</v>
+        <v>0.626</v>
       </c>
       <c r="G68" t="n">
         <v>0.789</v>
@@ -2147,22 +2147,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.006</v>
+        <v>0.037</v>
       </c>
       <c r="C69" t="n">
-        <v>1.647</v>
+        <v>1.619</v>
       </c>
       <c r="D69" t="n">
-        <v>0.396</v>
+        <v>0.379</v>
       </c>
       <c r="E69" t="n">
-        <v>0.629</v>
+        <v>0.616</v>
       </c>
       <c r="F69" t="n">
-        <v>0.545</v>
+        <v>0.606</v>
       </c>
       <c r="G69" t="n">
-        <v>0.325</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="70">
@@ -2172,22 +2172,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.498</v>
+        <v>0.475</v>
       </c>
       <c r="C70" t="n">
-        <v>2.506</v>
+        <v>2.575</v>
       </c>
       <c r="D70" t="n">
-        <v>0.197</v>
+        <v>0.207</v>
       </c>
       <c r="E70" t="n">
-        <v>0.444</v>
+        <v>0.455</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="G70" t="n">
-        <v>0.752</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="71">
@@ -2197,97 +2197,97 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.579</v>
+        <v>0.549</v>
       </c>
       <c r="C71" t="n">
-        <v>1.271</v>
+        <v>1.29</v>
       </c>
       <c r="D71" t="n">
-        <v>0.166</v>
+        <v>0.178</v>
       </c>
       <c r="E71" t="n">
-        <v>0.407</v>
+        <v>0.422</v>
       </c>
       <c r="F71" t="n">
-        <v>0.581</v>
+        <v>0.607</v>
       </c>
       <c r="G71" t="n">
-        <v>0.831</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>LR340</t>
+          <t>LR335</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.524</v>
+        <v>-1.219</v>
       </c>
       <c r="C72" t="n">
-        <v>2.623</v>
+        <v>1.467</v>
       </c>
       <c r="D72" t="n">
-        <v>2.581</v>
+        <v>0.24</v>
       </c>
       <c r="E72" t="n">
-        <v>1.607</v>
+        <v>0.49</v>
       </c>
       <c r="F72" t="n">
-        <v>1.432</v>
+        <v>0.506</v>
       </c>
       <c r="G72" t="n">
-        <v>0.214</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>RF340</t>
+          <t>RF335</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.267</v>
+        <v>-1.033</v>
       </c>
       <c r="C73" t="n">
-        <v>1.814</v>
+        <v>1.428</v>
       </c>
       <c r="D73" t="n">
-        <v>1.296</v>
+        <v>0.22</v>
       </c>
       <c r="E73" t="n">
-        <v>1.138</v>
+        <v>0.469</v>
       </c>
       <c r="F73" t="n">
-        <v>0.876</v>
+        <v>0.5</v>
       </c>
       <c r="G73" t="n">
-        <v>0.014</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>NN340</t>
+          <t>NN335</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-11.642</v>
+        <v>-1.624</v>
       </c>
       <c r="C74" t="n">
-        <v>9.127000000000001</v>
+        <v>1.552</v>
       </c>
       <c r="D74" t="n">
-        <v>12.929</v>
+        <v>0.284</v>
       </c>
       <c r="E74" t="n">
-        <v>3.596</v>
+        <v>0.533</v>
       </c>
       <c r="F74" t="n">
-        <v>1.84</v>
+        <v>0.537</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.74</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="75">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-5.731</v>
+        <v>-1.411</v>
       </c>
       <c r="C75" t="n">
-        <v>21.193</v>
+        <v>2.206</v>
       </c>
       <c r="D75" t="n">
-        <v>6.884</v>
+        <v>0.261</v>
       </c>
       <c r="E75" t="n">
-        <v>2.624</v>
+        <v>0.511</v>
       </c>
       <c r="F75" t="n">
-        <v>1.69</v>
+        <v>0.342</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.186</v>
+        <v>-0.971</v>
       </c>
     </row>
     <row r="76">
@@ -2322,44 +2322,44 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.271</v>
+        <v>-1.11</v>
       </c>
       <c r="C76" t="n">
-        <v>1.817</v>
+        <v>1.444</v>
       </c>
       <c r="D76" t="n">
-        <v>1.3</v>
+        <v>0.229</v>
       </c>
       <c r="E76" t="n">
-        <v>1.14</v>
+        <v>0.479</v>
       </c>
       <c r="F76" t="n">
-        <v>1.055</v>
+        <v>0.462</v>
       </c>
       <c r="G76" t="n">
-        <v>0.272</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>LR342</t>
+          <t>LR346</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-31504.997</v>
+        <v>-1701.487</v>
       </c>
       <c r="C77" t="n">
-        <v>1433.091</v>
+        <v>78.386</v>
       </c>
       <c r="D77" t="n">
-        <v>13432.557</v>
+        <v>129.481</v>
       </c>
       <c r="E77" t="n">
-        <v>115.899</v>
+        <v>11.379</v>
       </c>
       <c r="F77" t="n">
-        <v>86.59999999999999</v>
+        <v>11.378</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -2368,23 +2368,23 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>RF342</t>
+          <t>RF346</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-8.895</v>
+        <v>-2.758</v>
       </c>
       <c r="C78" t="n">
-        <v>1.45</v>
+        <v>1.171</v>
       </c>
       <c r="D78" t="n">
-        <v>4.219</v>
+        <v>0.286</v>
       </c>
       <c r="E78" t="n">
-        <v>2.054</v>
+        <v>0.535</v>
       </c>
       <c r="F78" t="n">
-        <v>1.999</v>
+        <v>0.483</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -2393,26 +2393,26 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>NN342</t>
+          <t>NN346</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-129.008</v>
+        <v>-11.648</v>
       </c>
       <c r="C79" t="n">
-        <v>6.909</v>
+        <v>1.575</v>
       </c>
       <c r="D79" t="n">
-        <v>55.429</v>
+        <v>0.962</v>
       </c>
       <c r="E79" t="n">
-        <v>7.445</v>
+        <v>0.981</v>
       </c>
       <c r="F79" t="n">
-        <v>6.312</v>
+        <v>0.979</v>
       </c>
       <c r="G79" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-10.141</v>
+        <v>-39.996</v>
       </c>
       <c r="C80" t="n">
-        <v>2.013</v>
+        <v>4.727</v>
       </c>
       <c r="D80" t="n">
-        <v>4.75</v>
+        <v>3.118</v>
       </c>
       <c r="E80" t="n">
-        <v>2.179</v>
+        <v>1.766</v>
       </c>
       <c r="F80" t="n">
-        <v>2.064</v>
+        <v>1.381</v>
       </c>
       <c r="G80" t="n">
         <v>-1</v>
@@ -2447,19 +2447,19 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-3325.986</v>
+        <v>-147.31</v>
       </c>
       <c r="C81" t="n">
-        <v>152.227</v>
+        <v>7.741</v>
       </c>
       <c r="D81" t="n">
-        <v>1418.458</v>
+        <v>11.28</v>
       </c>
       <c r="E81" t="n">
-        <v>37.662</v>
+        <v>3.359</v>
       </c>
       <c r="F81" t="n">
-        <v>27.746</v>
+        <v>3.355</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -2468,48 +2468,48 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>LR344</t>
+          <t>LR348</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1238.728</v>
+        <v>-96.373</v>
       </c>
       <c r="C82" t="n">
-        <v>57.351</v>
+        <v>5.426</v>
       </c>
       <c r="D82" t="n">
-        <v>772.401</v>
+        <v>1.951</v>
       </c>
       <c r="E82" t="n">
-        <v>27.792</v>
+        <v>1.397</v>
       </c>
       <c r="F82" t="n">
-        <v>25.298</v>
+        <v>1.308</v>
       </c>
       <c r="G82" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>RF344</t>
+          <t>RF348</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-3.128</v>
+        <v>-3.906</v>
       </c>
       <c r="C83" t="n">
-        <v>1.188</v>
+        <v>1.223</v>
       </c>
       <c r="D83" t="n">
-        <v>2.572</v>
+        <v>0.098</v>
       </c>
       <c r="E83" t="n">
-        <v>1.604</v>
+        <v>0.313</v>
       </c>
       <c r="F83" t="n">
-        <v>1.576</v>
+        <v>0.324</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -2518,23 +2518,23 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>NN344</t>
+          <t>NN348</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-5.246</v>
+        <v>-8.932</v>
       </c>
       <c r="C84" t="n">
-        <v>1.284</v>
+        <v>1.451</v>
       </c>
       <c r="D84" t="n">
-        <v>3.892</v>
+        <v>0.199</v>
       </c>
       <c r="E84" t="n">
-        <v>1.973</v>
+        <v>0.446</v>
       </c>
       <c r="F84" t="n">
-        <v>1.896</v>
+        <v>0.442</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -2547,19 +2547,19 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-50.287</v>
+        <v>-20.971</v>
       </c>
       <c r="C85" t="n">
-        <v>5.662</v>
+        <v>2.997</v>
       </c>
       <c r="D85" t="n">
-        <v>31.954</v>
+        <v>0.44</v>
       </c>
       <c r="E85" t="n">
-        <v>5.653</v>
+        <v>0.663</v>
       </c>
       <c r="F85" t="n">
-        <v>5.349</v>
+        <v>0.626</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -2572,69 +2572,69 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-155.276</v>
+        <v>-3.081</v>
       </c>
       <c r="C86" t="n">
-        <v>8.103</v>
+        <v>1.186</v>
       </c>
       <c r="D86" t="n">
-        <v>97.366</v>
+        <v>0.082</v>
       </c>
       <c r="E86" t="n">
-        <v>9.867000000000001</v>
+        <v>0.286</v>
       </c>
       <c r="F86" t="n">
-        <v>8.919</v>
+        <v>0.343</v>
       </c>
       <c r="G86" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>LR346</t>
+          <t>LR350</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1701.487</v>
+        <v>-33.427</v>
       </c>
       <c r="C87" t="n">
-        <v>78.386</v>
+        <v>2.565</v>
       </c>
       <c r="D87" t="n">
-        <v>129.481</v>
+        <v>1.738</v>
       </c>
       <c r="E87" t="n">
-        <v>11.379</v>
+        <v>1.318</v>
       </c>
       <c r="F87" t="n">
-        <v>11.378</v>
+        <v>1.296</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>RF346</t>
+          <t>RF350</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-3.99</v>
+        <v>-1.968</v>
       </c>
       <c r="C88" t="n">
-        <v>1.227</v>
+        <v>1.135</v>
       </c>
       <c r="D88" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="E88" t="n">
-        <v>0.616</v>
+        <v>0.387</v>
       </c>
       <c r="F88" t="n">
-        <v>0.57</v>
+        <v>0.368</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -2643,26 +2643,26 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NN346</t>
+          <t>NN350</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.544</v>
+        <v>-11.695</v>
       </c>
       <c r="C89" t="n">
-        <v>1.021</v>
+        <v>1.577</v>
       </c>
       <c r="D89" t="n">
-        <v>0.035</v>
+        <v>0.641</v>
       </c>
       <c r="E89" t="n">
-        <v>0.187</v>
+        <v>0.801</v>
       </c>
       <c r="F89" t="n">
-        <v>0.296</v>
+        <v>0.746</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90">
@@ -2672,22 +2672,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-63.954</v>
+        <v>-60.054</v>
       </c>
       <c r="C90" t="n">
-        <v>6.905</v>
+        <v>6.55</v>
       </c>
       <c r="D90" t="n">
-        <v>4.94</v>
+        <v>3.082</v>
       </c>
       <c r="E90" t="n">
-        <v>2.223</v>
+        <v>1.756</v>
       </c>
       <c r="F90" t="n">
-        <v>1.743</v>
+        <v>1.62</v>
       </c>
       <c r="G90" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2697,44 +2697,44 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-114.191</v>
+        <v>-6.449</v>
       </c>
       <c r="C91" t="n">
-        <v>6.236</v>
+        <v>1.339</v>
       </c>
       <c r="D91" t="n">
-        <v>8.760999999999999</v>
+        <v>0.376</v>
       </c>
       <c r="E91" t="n">
-        <v>2.96</v>
+        <v>0.613</v>
       </c>
       <c r="F91" t="n">
-        <v>2.957</v>
+        <v>0.551</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>LR348</t>
+          <t>LR352</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-96.373</v>
+        <v>-99.852</v>
       </c>
       <c r="C92" t="n">
-        <v>5.426</v>
+        <v>5.584</v>
       </c>
       <c r="D92" t="n">
-        <v>1.951</v>
+        <v>3.149</v>
       </c>
       <c r="E92" t="n">
-        <v>1.397</v>
+        <v>1.775</v>
       </c>
       <c r="F92" t="n">
-        <v>1.308</v>
+        <v>1.629</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -2743,23 +2743,23 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>RF348</t>
+          <t>RF352</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.216</v>
+        <v>-11.376</v>
       </c>
       <c r="C93" t="n">
-        <v>1.036</v>
+        <v>1.563</v>
       </c>
       <c r="D93" t="n">
-        <v>0.016</v>
+        <v>0.386</v>
       </c>
       <c r="E93" t="n">
-        <v>0.126</v>
+        <v>0.621</v>
       </c>
       <c r="F93" t="n">
-        <v>0.174</v>
+        <v>0.62</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -2768,23 +2768,23 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>NN348</t>
+          <t>NN352</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-2.173</v>
+        <v>0.542</v>
       </c>
       <c r="C94" t="n">
-        <v>1.144</v>
+        <v>1.021</v>
       </c>
       <c r="D94" t="n">
-        <v>0.064</v>
+        <v>0.014</v>
       </c>
       <c r="E94" t="n">
-        <v>0.253</v>
+        <v>0.118</v>
       </c>
       <c r="F94" t="n">
-        <v>0.245</v>
+        <v>0.294</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -2797,19 +2797,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-69.14400000000001</v>
+        <v>-5.089</v>
       </c>
       <c r="C95" t="n">
-        <v>7.377</v>
+        <v>1.554</v>
       </c>
       <c r="D95" t="n">
-        <v>1.405</v>
+        <v>0.19</v>
       </c>
       <c r="E95" t="n">
-        <v>1.185</v>
+        <v>0.436</v>
       </c>
       <c r="F95" t="n">
-        <v>1.169</v>
+        <v>0.436</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -2822,19 +2822,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-3.104</v>
+        <v>-2.54</v>
       </c>
       <c r="C96" t="n">
-        <v>1.187</v>
+        <v>1.161</v>
       </c>
       <c r="D96" t="n">
-        <v>0.082</v>
+        <v>0.111</v>
       </c>
       <c r="E96" t="n">
-        <v>0.286</v>
+        <v>0.333</v>
       </c>
       <c r="F96" t="n">
-        <v>0.324</v>
+        <v>0.497</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -2843,23 +2843,23 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>LR350</t>
+          <t>LR354</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-33.427</v>
+        <v>-14.246</v>
       </c>
       <c r="C97" t="n">
-        <v>2.565</v>
+        <v>1.693</v>
       </c>
       <c r="D97" t="n">
-        <v>1.738</v>
+        <v>0.412</v>
       </c>
       <c r="E97" t="n">
-        <v>1.318</v>
+        <v>0.642</v>
       </c>
       <c r="F97" t="n">
-        <v>1.296</v>
+        <v>0.539</v>
       </c>
       <c r="G97" t="n">
         <v>-1</v>
@@ -2868,23 +2868,23 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>RF350</t>
+          <t>RF354</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-3.227</v>
+        <v>-81.432</v>
       </c>
       <c r="C98" t="n">
-        <v>1.192</v>
+        <v>4.747</v>
       </c>
       <c r="D98" t="n">
-        <v>0.213</v>
+        <v>2.228</v>
       </c>
       <c r="E98" t="n">
-        <v>0.462</v>
+        <v>1.493</v>
       </c>
       <c r="F98" t="n">
-        <v>0.382</v>
+        <v>1.469</v>
       </c>
       <c r="G98" t="n">
         <v>-1</v>
@@ -2893,23 +2893,23 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NN350</t>
+          <t>NN354</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.036</v>
+        <v>-44.752</v>
       </c>
       <c r="C99" t="n">
-        <v>1.044</v>
+        <v>3.08</v>
       </c>
       <c r="D99" t="n">
-        <v>0.049</v>
+        <v>1.237</v>
       </c>
       <c r="E99" t="n">
-        <v>0.221</v>
+        <v>1.112</v>
       </c>
       <c r="F99" t="n">
-        <v>0.225</v>
+        <v>1.054</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -2922,22 +2922,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-13.938</v>
+        <v>-128.446</v>
       </c>
       <c r="C100" t="n">
-        <v>2.358</v>
+        <v>12.768</v>
       </c>
       <c r="D100" t="n">
-        <v>0.754</v>
+        <v>3.499</v>
       </c>
       <c r="E100" t="n">
-        <v>0.868</v>
+        <v>1.871</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8090000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-4.994</v>
+        <v>-27.46</v>
       </c>
       <c r="C101" t="n">
-        <v>1.272</v>
+        <v>2.294</v>
       </c>
       <c r="D101" t="n">
-        <v>0.303</v>
+        <v>0.769</v>
       </c>
       <c r="E101" t="n">
-        <v>0.55</v>
+        <v>0.877</v>
       </c>
       <c r="F101" t="n">
-        <v>0.493</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="G101" t="n">
         <v>-1</v>
@@ -2968,48 +2968,48 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>LR352</t>
+          <t>LR356</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-99.852</v>
+        <v>-38.886</v>
       </c>
       <c r="C102" t="n">
-        <v>5.584</v>
+        <v>2.813</v>
       </c>
       <c r="D102" t="n">
-        <v>3.149</v>
+        <v>1.356</v>
       </c>
       <c r="E102" t="n">
-        <v>1.775</v>
+        <v>1.164</v>
       </c>
       <c r="F102" t="n">
-        <v>1.629</v>
+        <v>1.052</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>RF352</t>
+          <t>RF356</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-12.16</v>
+        <v>-76.482</v>
       </c>
       <c r="C103" t="n">
-        <v>1.598</v>
+        <v>4.522</v>
       </c>
       <c r="D103" t="n">
-        <v>0.411</v>
+        <v>2.634</v>
       </c>
       <c r="E103" t="n">
-        <v>0.641</v>
+        <v>1.623</v>
       </c>
       <c r="F103" t="n">
-        <v>0.641</v>
+        <v>1.618</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -3018,23 +3018,23 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>NN352</t>
+          <t>NN356</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-8.08</v>
+        <v>-21.202</v>
       </c>
       <c r="C104" t="n">
-        <v>1.413</v>
+        <v>2.009</v>
       </c>
       <c r="D104" t="n">
-        <v>0.283</v>
+        <v>0.755</v>
       </c>
       <c r="E104" t="n">
-        <v>0.532</v>
+        <v>0.869</v>
       </c>
       <c r="F104" t="n">
-        <v>0.553</v>
+        <v>0.857</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3047,22 +3047,22 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-28.917</v>
+        <v>-95.556</v>
       </c>
       <c r="C105" t="n">
-        <v>3.72</v>
+        <v>9.778</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9340000000000001</v>
+        <v>3.282</v>
       </c>
       <c r="E105" t="n">
-        <v>0.966</v>
+        <v>1.812</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6830000000000001</v>
+        <v>1.807</v>
       </c>
       <c r="G105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -3072,19 +3072,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-1.043</v>
+        <v>-61.579</v>
       </c>
       <c r="C106" t="n">
-        <v>1.093</v>
+        <v>3.844</v>
       </c>
       <c r="D106" t="n">
-        <v>0.064</v>
+        <v>2.127</v>
       </c>
       <c r="E106" t="n">
-        <v>0.253</v>
+        <v>1.458</v>
       </c>
       <c r="F106" t="n">
-        <v>0.424</v>
+        <v>1.458</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -3093,73 +3093,73 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>LR354</t>
+          <t>LR358</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-14.246</v>
+        <v>0.797</v>
       </c>
       <c r="C107" t="n">
-        <v>1.693</v>
+        <v>1.009</v>
       </c>
       <c r="D107" t="n">
-        <v>0.412</v>
+        <v>0.032</v>
       </c>
       <c r="E107" t="n">
-        <v>0.642</v>
+        <v>0.179</v>
       </c>
       <c r="F107" t="n">
-        <v>0.539</v>
+        <v>0.519</v>
       </c>
       <c r="G107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>RF354</t>
+          <t>RF358</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-88.032</v>
+        <v>-1.772</v>
       </c>
       <c r="C108" t="n">
-        <v>5.047</v>
+        <v>1.126</v>
       </c>
       <c r="D108" t="n">
-        <v>2.406</v>
+        <v>0.438</v>
       </c>
       <c r="E108" t="n">
-        <v>1.551</v>
+        <v>0.662</v>
       </c>
       <c r="F108" t="n">
-        <v>1.529</v>
+        <v>0.636</v>
       </c>
       <c r="G108" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>NN354</t>
+          <t>NN358</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-42.094</v>
+        <v>-18.762</v>
       </c>
       <c r="C109" t="n">
-        <v>2.959</v>
+        <v>1.898</v>
       </c>
       <c r="D109" t="n">
-        <v>1.165</v>
+        <v>3.12</v>
       </c>
       <c r="E109" t="n">
-        <v>1.079</v>
+        <v>1.766</v>
       </c>
       <c r="F109" t="n">
-        <v>1.013</v>
+        <v>1.633</v>
       </c>
       <c r="G109" t="n">
         <v>-1</v>
@@ -3172,22 +3172,22 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-119.6</v>
+        <v>-6.087</v>
       </c>
       <c r="C110" t="n">
-        <v>11.964</v>
+        <v>1.644</v>
       </c>
       <c r="D110" t="n">
-        <v>3.259</v>
+        <v>1.119</v>
       </c>
       <c r="E110" t="n">
-        <v>1.805</v>
+        <v>1.058</v>
       </c>
       <c r="F110" t="n">
-        <v>1.797</v>
+        <v>0.659</v>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111">
@@ -3197,94 +3197,94 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-44.411</v>
+        <v>0.734</v>
       </c>
       <c r="C111" t="n">
-        <v>3.064</v>
+        <v>1.012</v>
       </c>
       <c r="D111" t="n">
-        <v>1.227</v>
+        <v>0.042</v>
       </c>
       <c r="E111" t="n">
-        <v>1.108</v>
+        <v>0.205</v>
       </c>
       <c r="F111" t="n">
-        <v>1.042</v>
+        <v>0.452</v>
       </c>
       <c r="G111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>LR356</t>
+          <t>LR360</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-38.886</v>
+        <v>-2.029</v>
       </c>
       <c r="C112" t="n">
-        <v>2.813</v>
+        <v>1.138</v>
       </c>
       <c r="D112" t="n">
-        <v>1.356</v>
+        <v>1.985</v>
       </c>
       <c r="E112" t="n">
-        <v>1.164</v>
+        <v>1.409</v>
       </c>
       <c r="F112" t="n">
-        <v>1.052</v>
+        <v>1.262</v>
       </c>
       <c r="G112" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>RF356</t>
+          <t>RF360</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-75.123</v>
+        <v>-2.986</v>
       </c>
       <c r="C113" t="n">
-        <v>4.46</v>
+        <v>1.181</v>
       </c>
       <c r="D113" t="n">
-        <v>2.587</v>
+        <v>2.612</v>
       </c>
       <c r="E113" t="n">
-        <v>1.608</v>
+        <v>1.616</v>
       </c>
       <c r="F113" t="n">
-        <v>1.606</v>
+        <v>1.381</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>NN356</t>
+          <t>NN360</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-47.192</v>
+        <v>-0.745</v>
       </c>
       <c r="C114" t="n">
-        <v>3.191</v>
+        <v>1.079</v>
       </c>
       <c r="D114" t="n">
-        <v>1.638</v>
+        <v>1.143</v>
       </c>
       <c r="E114" t="n">
-        <v>1.28</v>
+        <v>1.069</v>
       </c>
       <c r="F114" t="n">
-        <v>1.28</v>
+        <v>0.97</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -3297,22 +3297,22 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-34.16</v>
+        <v>-7.636</v>
       </c>
       <c r="C115" t="n">
-        <v>4.196</v>
+        <v>1.785</v>
       </c>
       <c r="D115" t="n">
-        <v>1.195</v>
+        <v>5.66</v>
       </c>
       <c r="E115" t="n">
-        <v>1.093</v>
+        <v>2.379</v>
       </c>
       <c r="F115" t="n">
-        <v>1.093</v>
+        <v>2.008</v>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116">
@@ -3322,44 +3322,44 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-60.557</v>
+        <v>-2.072</v>
       </c>
       <c r="C116" t="n">
-        <v>3.798</v>
+        <v>1.14</v>
       </c>
       <c r="D116" t="n">
-        <v>2.092</v>
+        <v>2.013</v>
       </c>
       <c r="E116" t="n">
-        <v>1.446</v>
+        <v>1.419</v>
       </c>
       <c r="F116" t="n">
-        <v>1.415</v>
+        <v>1.209</v>
       </c>
       <c r="G116" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>LR358</t>
+          <t>LR362</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.797</v>
+        <v>0.506</v>
       </c>
       <c r="C117" t="n">
-        <v>1.009</v>
+        <v>1.022</v>
       </c>
       <c r="D117" t="n">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="E117" t="n">
-        <v>0.179</v>
+        <v>0.187</v>
       </c>
       <c r="F117" t="n">
-        <v>0.519</v>
+        <v>0.376</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -3368,48 +3368,48 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>RF358</t>
+          <t>RF362</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-3.789</v>
+        <v>-32.976</v>
       </c>
       <c r="C118" t="n">
-        <v>1.218</v>
+        <v>2.544</v>
       </c>
       <c r="D118" t="n">
-        <v>0.756</v>
+        <v>2.413</v>
       </c>
       <c r="E118" t="n">
-        <v>0.869</v>
+        <v>1.553</v>
       </c>
       <c r="F118" t="n">
-        <v>0.792</v>
+        <v>1.093</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>NN358</t>
+          <t>NN362</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-7.265</v>
+        <v>-7.125</v>
       </c>
       <c r="C119" t="n">
-        <v>1.376</v>
+        <v>1.369</v>
       </c>
       <c r="D119" t="n">
-        <v>1.305</v>
+        <v>0.577</v>
       </c>
       <c r="E119" t="n">
-        <v>1.142</v>
+        <v>0.76</v>
       </c>
       <c r="F119" t="n">
-        <v>1.076</v>
+        <v>0.737</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3422,19 +3422,19 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.735</v>
+        <v>-37.929</v>
       </c>
       <c r="C120" t="n">
-        <v>1.024</v>
+        <v>4.539</v>
       </c>
       <c r="D120" t="n">
-        <v>0.042</v>
+        <v>2.765</v>
       </c>
       <c r="E120" t="n">
-        <v>0.205</v>
+        <v>1.663</v>
       </c>
       <c r="F120" t="n">
-        <v>0.397</v>
+        <v>1.656</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -3447,44 +3447,44 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.606</v>
+        <v>-1.003</v>
       </c>
       <c r="C121" t="n">
-        <v>1.018</v>
+        <v>1.091</v>
       </c>
       <c r="D121" t="n">
-        <v>0.062</v>
+        <v>0.142</v>
       </c>
       <c r="E121" t="n">
-        <v>0.249</v>
+        <v>0.377</v>
       </c>
       <c r="F121" t="n">
-        <v>0.443</v>
+        <v>0.266</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>LR360</t>
+          <t>LR364</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-2.029</v>
+        <v>-1570.996</v>
       </c>
       <c r="C122" t="n">
-        <v>1.138</v>
+        <v>72.45399999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>1.985</v>
+        <v>17.05</v>
       </c>
       <c r="E122" t="n">
-        <v>1.409</v>
+        <v>4.129</v>
       </c>
       <c r="F122" t="n">
-        <v>1.262</v>
+        <v>3.539</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -3493,23 +3493,23 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>RF360</t>
+          <t>RF364</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-3.359</v>
+        <v>-247.123</v>
       </c>
       <c r="C123" t="n">
-        <v>1.198</v>
+        <v>12.278</v>
       </c>
       <c r="D123" t="n">
-        <v>2.856</v>
+        <v>2.691</v>
       </c>
       <c r="E123" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="F123" t="n">
-        <v>1.449</v>
+        <v>1.596</v>
       </c>
       <c r="G123" t="n">
         <v>-1</v>
@@ -3518,23 +3518,23 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>NN360</t>
+          <t>NN364</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-6.145</v>
+        <v>-519.2670000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>1.325</v>
+        <v>24.649</v>
       </c>
       <c r="D124" t="n">
-        <v>4.683</v>
+        <v>5.643</v>
       </c>
       <c r="E124" t="n">
-        <v>2.164</v>
+        <v>2.375</v>
       </c>
       <c r="F124" t="n">
-        <v>2.027</v>
+        <v>1.97</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -3547,19 +3547,19 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.263</v>
+        <v>-308.997</v>
       </c>
       <c r="C125" t="n">
-        <v>1.067</v>
+        <v>29.182</v>
       </c>
       <c r="D125" t="n">
-        <v>0.483</v>
+        <v>3.362</v>
       </c>
       <c r="E125" t="n">
-        <v>0.695</v>
+        <v>1.834</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.911</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -3572,94 +3572,94 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-2.367</v>
+        <v>-529.462</v>
       </c>
       <c r="C126" t="n">
-        <v>1.153</v>
+        <v>25.112</v>
       </c>
       <c r="D126" t="n">
-        <v>2.207</v>
+        <v>5.753</v>
       </c>
       <c r="E126" t="n">
-        <v>1.486</v>
+        <v>2.399</v>
       </c>
       <c r="F126" t="n">
-        <v>1.229</v>
+        <v>2.291</v>
       </c>
       <c r="G126" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>LR362</t>
+          <t>LR366</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.506</v>
+        <v>-1.797</v>
       </c>
       <c r="C127" t="n">
-        <v>1.022</v>
+        <v>1.127</v>
       </c>
       <c r="D127" t="n">
-        <v>0.035</v>
+        <v>3.538</v>
       </c>
       <c r="E127" t="n">
-        <v>0.187</v>
+        <v>1.881</v>
       </c>
       <c r="F127" t="n">
-        <v>0.376</v>
+        <v>1.307</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>RF362</t>
+          <t>RF366</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-14.57</v>
+        <v>-1.341</v>
       </c>
       <c r="C128" t="n">
-        <v>1.708</v>
+        <v>1.106</v>
       </c>
       <c r="D128" t="n">
-        <v>1.106</v>
+        <v>2.961</v>
       </c>
       <c r="E128" t="n">
-        <v>1.052</v>
+        <v>1.721</v>
       </c>
       <c r="F128" t="n">
-        <v>0.746</v>
+        <v>1.37</v>
       </c>
       <c r="G128" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>NN362</t>
+          <t>NN366</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-15.983</v>
+        <v>-0.6820000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>1.772</v>
+        <v>1.076</v>
       </c>
       <c r="D129" t="n">
-        <v>1.206</v>
+        <v>2.128</v>
       </c>
       <c r="E129" t="n">
-        <v>1.098</v>
+        <v>1.459</v>
       </c>
       <c r="F129" t="n">
-        <v>0.801</v>
+        <v>1.125</v>
       </c>
       <c r="G129" t="n">
         <v>-1</v>
@@ -3672,19 +3672,19 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-56.608</v>
+        <v>-3.228</v>
       </c>
       <c r="C130" t="n">
-        <v>6.237</v>
+        <v>1.384</v>
       </c>
       <c r="D130" t="n">
-        <v>4.091</v>
+        <v>5.348</v>
       </c>
       <c r="E130" t="n">
-        <v>2.023</v>
+        <v>2.313</v>
       </c>
       <c r="F130" t="n">
-        <v>1.93</v>
+        <v>1.972</v>
       </c>
       <c r="G130" t="n">
         <v>-1</v>
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.664</v>
+        <v>-1.757</v>
       </c>
       <c r="C131" t="n">
-        <v>1.076</v>
+        <v>1.125</v>
       </c>
       <c r="D131" t="n">
-        <v>0.118</v>
+        <v>3.488</v>
       </c>
       <c r="E131" t="n">
-        <v>0.344</v>
+        <v>1.868</v>
       </c>
       <c r="F131" t="n">
-        <v>0.266</v>
+        <v>1.339</v>
       </c>
       <c r="G131" t="n">
         <v>-1</v>
@@ -3718,23 +3718,23 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>LR364</t>
+          <t>LR368</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-1570.996</v>
+        <v>-47.939</v>
       </c>
       <c r="C132" t="n">
-        <v>72.45399999999999</v>
+        <v>3.224</v>
       </c>
       <c r="D132" t="n">
-        <v>17.05</v>
+        <v>7.546</v>
       </c>
       <c r="E132" t="n">
-        <v>4.129</v>
+        <v>2.747</v>
       </c>
       <c r="F132" t="n">
-        <v>3.539</v>
+        <v>2.689</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -3743,23 +3743,23 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>RF364</t>
+          <t>RF368</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-311.949</v>
+        <v>-14.975</v>
       </c>
       <c r="C133" t="n">
-        <v>15.225</v>
+        <v>1.726</v>
       </c>
       <c r="D133" t="n">
-        <v>3.394</v>
+        <v>2.463</v>
       </c>
       <c r="E133" t="n">
-        <v>1.842</v>
+        <v>1.569</v>
       </c>
       <c r="F133" t="n">
-        <v>1.8</v>
+        <v>1.513</v>
       </c>
       <c r="G133" t="n">
         <v>-1</v>
@@ -3768,26 +3768,26 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>NN364</t>
+          <t>NN368</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-423.889</v>
+        <v>-11.536</v>
       </c>
       <c r="C134" t="n">
-        <v>20.313</v>
+        <v>1.57</v>
       </c>
       <c r="D134" t="n">
-        <v>4.608</v>
+        <v>1.933</v>
       </c>
       <c r="E134" t="n">
-        <v>2.147</v>
+        <v>1.39</v>
       </c>
       <c r="F134" t="n">
-        <v>1.83</v>
+        <v>1.355</v>
       </c>
       <c r="G134" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3797,22 +3797,22 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-595.044</v>
+        <v>-82.786</v>
       </c>
       <c r="C135" t="n">
-        <v>55.186</v>
+        <v>8.617000000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>6.465</v>
+        <v>12.92</v>
       </c>
       <c r="E135" t="n">
-        <v>2.543</v>
+        <v>3.594</v>
       </c>
       <c r="F135" t="n">
-        <v>2.073</v>
+        <v>3.447</v>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136">
@@ -3822,19 +3822,19 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-498.034</v>
+        <v>-32.772</v>
       </c>
       <c r="C136" t="n">
-        <v>23.683</v>
+        <v>2.535</v>
       </c>
       <c r="D136" t="n">
-        <v>5.412</v>
+        <v>5.208</v>
       </c>
       <c r="E136" t="n">
-        <v>2.326</v>
+        <v>2.282</v>
       </c>
       <c r="F136" t="n">
-        <v>2.279</v>
+        <v>2.28</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -3843,76 +3843,76 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LR366</t>
+          <t>LR370</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1.797</v>
+        <v>-2498.905</v>
       </c>
       <c r="C137" t="n">
-        <v>1.127</v>
+        <v>114.632</v>
       </c>
       <c r="D137" t="n">
-        <v>3.538</v>
+        <v>2.925</v>
       </c>
       <c r="E137" t="n">
-        <v>1.881</v>
+        <v>1.71</v>
       </c>
       <c r="F137" t="n">
-        <v>1.307</v>
+        <v>1.341</v>
       </c>
       <c r="G137" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>RF366</t>
+          <t>RF370</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-2.039</v>
+        <v>-2162.178</v>
       </c>
       <c r="C138" t="n">
-        <v>1.138</v>
+        <v>99.32599999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>3.844</v>
+        <v>2.531</v>
       </c>
       <c r="E138" t="n">
-        <v>1.961</v>
+        <v>1.591</v>
       </c>
       <c r="F138" t="n">
-        <v>1.6</v>
+        <v>1.359</v>
       </c>
       <c r="G138" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>NN366</t>
+          <t>NN370</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-3.308</v>
+        <v>-9149.177</v>
       </c>
       <c r="C139" t="n">
-        <v>1.196</v>
+        <v>416.917</v>
       </c>
       <c r="D139" t="n">
-        <v>5.449</v>
+        <v>10.705</v>
       </c>
       <c r="E139" t="n">
-        <v>2.334</v>
+        <v>3.272</v>
       </c>
       <c r="F139" t="n">
-        <v>1.715</v>
+        <v>3.27</v>
       </c>
       <c r="G139" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3922,19 +3922,19 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-1.275</v>
+        <v>-1097.707</v>
       </c>
       <c r="C140" t="n">
-        <v>1.207</v>
+        <v>100.882</v>
       </c>
       <c r="D140" t="n">
-        <v>2.878</v>
+        <v>1.285</v>
       </c>
       <c r="E140" t="n">
-        <v>1.696</v>
+        <v>1.134</v>
       </c>
       <c r="F140" t="n">
-        <v>1.539</v>
+        <v>0.836</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -3947,44 +3947,44 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1.971</v>
+        <v>-2420.177</v>
       </c>
       <c r="C141" t="n">
-        <v>1.135</v>
+        <v>111.054</v>
       </c>
       <c r="D141" t="n">
-        <v>3.758</v>
+        <v>2.833</v>
       </c>
       <c r="E141" t="n">
-        <v>1.939</v>
+        <v>1.683</v>
       </c>
       <c r="F141" t="n">
-        <v>1.469</v>
+        <v>1.307</v>
       </c>
       <c r="G141" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>LR368</t>
+          <t>LR372</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-47.939</v>
+        <v>-1.363</v>
       </c>
       <c r="C142" t="n">
-        <v>3.224</v>
+        <v>1.107</v>
       </c>
       <c r="D142" t="n">
-        <v>7.546</v>
+        <v>0.18</v>
       </c>
       <c r="E142" t="n">
-        <v>2.747</v>
+        <v>0.424</v>
       </c>
       <c r="F142" t="n">
-        <v>2.689</v>
+        <v>0.435</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -3993,48 +3993,48 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>RF368</t>
+          <t>RF372</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-13.789</v>
+        <v>-3.32</v>
       </c>
       <c r="C143" t="n">
-        <v>1.672</v>
+        <v>1.196</v>
       </c>
       <c r="D143" t="n">
-        <v>2.28</v>
+        <v>0.329</v>
       </c>
       <c r="E143" t="n">
-        <v>1.51</v>
+        <v>0.574</v>
       </c>
       <c r="F143" t="n">
-        <v>1.452</v>
+        <v>0.592</v>
       </c>
       <c r="G143" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>NN368</t>
+          <t>NN372</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-19.58</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C144" t="n">
-        <v>1.935</v>
+        <v>1.042</v>
       </c>
       <c r="D144" t="n">
-        <v>3.173</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>1.781</v>
+        <v>0.266</v>
       </c>
       <c r="F144" t="n">
-        <v>1.78</v>
+        <v>0.276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -4047,22 +4047,22 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-78.687</v>
+        <v>-186.123</v>
       </c>
       <c r="C145" t="n">
-        <v>8.244</v>
+        <v>18.011</v>
       </c>
       <c r="D145" t="n">
-        <v>12.287</v>
+        <v>14.242</v>
       </c>
       <c r="E145" t="n">
-        <v>3.505</v>
+        <v>3.774</v>
       </c>
       <c r="F145" t="n">
-        <v>3.493</v>
+        <v>3.743</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -4072,19 +4072,19 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-31.024</v>
+        <v>-4.847</v>
       </c>
       <c r="C146" t="n">
-        <v>2.456</v>
+        <v>1.266</v>
       </c>
       <c r="D146" t="n">
-        <v>4.938</v>
+        <v>0.445</v>
       </c>
       <c r="E146" t="n">
-        <v>2.222</v>
+        <v>0.667</v>
       </c>
       <c r="F146" t="n">
-        <v>2.222</v>
+        <v>0.665</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -4093,23 +4093,23 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LR370</t>
+          <t>LR374</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-2498.905</v>
+        <v>-12.161</v>
       </c>
       <c r="C147" t="n">
-        <v>114.632</v>
+        <v>1.598</v>
       </c>
       <c r="D147" t="n">
-        <v>2.925</v>
+        <v>1.171</v>
       </c>
       <c r="E147" t="n">
-        <v>1.71</v>
+        <v>1.082</v>
       </c>
       <c r="F147" t="n">
-        <v>1.341</v>
+        <v>1.035</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -4118,23 +4118,23 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>RF370</t>
+          <t>RF374</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-2232.134</v>
+        <v>-27.793</v>
       </c>
       <c r="C148" t="n">
-        <v>102.506</v>
+        <v>2.309</v>
       </c>
       <c r="D148" t="n">
-        <v>2.613</v>
+        <v>2.561</v>
       </c>
       <c r="E148" t="n">
-        <v>1.616</v>
+        <v>1.6</v>
       </c>
       <c r="F148" t="n">
-        <v>1.271</v>
+        <v>1.429</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -4143,23 +4143,23 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>NN370</t>
+          <t>NN374</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-7465.302</v>
+        <v>-29.575</v>
       </c>
       <c r="C149" t="n">
-        <v>340.377</v>
+        <v>2.39</v>
       </c>
       <c r="D149" t="n">
-        <v>8.734999999999999</v>
+        <v>2.719</v>
       </c>
       <c r="E149" t="n">
-        <v>2.956</v>
+        <v>1.649</v>
       </c>
       <c r="F149" t="n">
-        <v>2.761</v>
+        <v>1.639</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -4172,22 +4172,22 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-491.602</v>
+        <v>-9.058</v>
       </c>
       <c r="C150" t="n">
-        <v>45.782</v>
+        <v>1.914</v>
       </c>
       <c r="D150" t="n">
-        <v>0.576</v>
+        <v>0.895</v>
       </c>
       <c r="E150" t="n">
-        <v>0.759</v>
+        <v>0.946</v>
       </c>
       <c r="F150" t="n">
-        <v>0.749</v>
+        <v>0.642</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -4197,19 +4197,19 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1992.635</v>
+        <v>-15.122</v>
       </c>
       <c r="C151" t="n">
-        <v>91.62</v>
+        <v>1.733</v>
       </c>
       <c r="D151" t="n">
-        <v>2.332</v>
+        <v>1.434</v>
       </c>
       <c r="E151" t="n">
-        <v>1.527</v>
+        <v>1.197</v>
       </c>
       <c r="F151" t="n">
-        <v>1.278</v>
+        <v>1.104</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -4218,76 +4218,76 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>LR372</t>
+          <t>LR376</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1.363</v>
+        <v>-26.755</v>
       </c>
       <c r="C152" t="n">
-        <v>1.107</v>
+        <v>2.262</v>
       </c>
       <c r="D152" t="n">
-        <v>0.18</v>
+        <v>3.387</v>
       </c>
       <c r="E152" t="n">
-        <v>0.424</v>
+        <v>1.84</v>
       </c>
       <c r="F152" t="n">
-        <v>0.435</v>
+        <v>1.474</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RF372</t>
+          <t>RF376</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-7.427</v>
+        <v>-18.874</v>
       </c>
       <c r="C153" t="n">
-        <v>1.383</v>
+        <v>1.903</v>
       </c>
       <c r="D153" t="n">
-        <v>0.641</v>
+        <v>2.426</v>
       </c>
       <c r="E153" t="n">
-        <v>0.801</v>
+        <v>1.558</v>
       </c>
       <c r="F153" t="n">
-        <v>0.773</v>
+        <v>1.176</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>NN372</t>
+          <t>NN376</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-18.014</v>
+        <v>-30.938</v>
       </c>
       <c r="C154" t="n">
-        <v>1.864</v>
+        <v>2.452</v>
       </c>
       <c r="D154" t="n">
-        <v>1.447</v>
+        <v>3.898</v>
       </c>
       <c r="E154" t="n">
-        <v>1.203</v>
+        <v>1.974</v>
       </c>
       <c r="F154" t="n">
-        <v>1.188</v>
+        <v>1.788</v>
       </c>
       <c r="G154" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -4297,22 +4297,22 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-49.985</v>
+        <v>-34.736</v>
       </c>
       <c r="C155" t="n">
-        <v>5.635</v>
+        <v>4.249</v>
       </c>
       <c r="D155" t="n">
-        <v>3.88</v>
+        <v>4.361</v>
       </c>
       <c r="E155" t="n">
-        <v>1.97</v>
+        <v>2.088</v>
       </c>
       <c r="F155" t="n">
-        <v>1.875</v>
+        <v>2.07</v>
       </c>
       <c r="G155" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4322,647 +4322,522 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-0.797</v>
+        <v>-20.724</v>
       </c>
       <c r="C156" t="n">
-        <v>1.082</v>
+        <v>1.987</v>
       </c>
       <c r="D156" t="n">
-        <v>0.137</v>
+        <v>2.651</v>
       </c>
       <c r="E156" t="n">
-        <v>0.37</v>
+        <v>1.628</v>
       </c>
       <c r="F156" t="n">
-        <v>0.406</v>
+        <v>1.284</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>LR374</t>
+          <t>Pre2020LRavg</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-12.161</v>
+        <v>-0.1270714285714286</v>
       </c>
       <c r="C157" t="n">
-        <v>1.598</v>
+        <v>1.7245</v>
       </c>
       <c r="D157" t="n">
-        <v>1.171</v>
+        <v>0.9462142857142857</v>
       </c>
       <c r="E157" t="n">
-        <v>1.082</v>
+        <v>0.8744285714285712</v>
       </c>
       <c r="F157" t="n">
-        <v>1.035</v>
+        <v>0.9291428571428572</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0.4555</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>RF374</t>
+          <t>Pre2020RFavg</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-16.105</v>
+        <v>0.0475</v>
       </c>
       <c r="C158" t="n">
-        <v>1.777</v>
+        <v>1.6125</v>
       </c>
       <c r="D158" t="n">
-        <v>1.521</v>
+        <v>0.9456428571428572</v>
       </c>
       <c r="E158" t="n">
-        <v>1.233</v>
+        <v>0.8565714285714284</v>
       </c>
       <c r="F158" t="n">
-        <v>1.17</v>
+        <v>0.8807142857142856</v>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>NN374</t>
+          <t>Pre2020NNavg</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-21.646</v>
+        <v>-0.1776071428571429</v>
       </c>
       <c r="C159" t="n">
-        <v>2.029</v>
+        <v>2.970142857142857</v>
       </c>
       <c r="D159" t="n">
-        <v>2.014</v>
+        <v>0.8889285714285714</v>
       </c>
       <c r="E159" t="n">
-        <v>1.419</v>
+        <v>0.8661071428571427</v>
       </c>
       <c r="F159" t="n">
-        <v>1.419</v>
+        <v>0.924</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0.4441428571428571</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>Pre2020RNNavg</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-5.167</v>
+        <v>-0.02928571428571427</v>
       </c>
       <c r="C160" t="n">
-        <v>1.561</v>
+        <v>4.087857142857144</v>
       </c>
       <c r="D160" t="n">
-        <v>0.548</v>
+        <v>0.9677857142857141</v>
       </c>
       <c r="E160" t="n">
-        <v>0.74</v>
+        <v>0.8683571428571428</v>
       </c>
       <c r="F160" t="n">
-        <v>0.517</v>
+        <v>0.8902857142857143</v>
       </c>
       <c r="G160" t="n">
-        <v>-1</v>
+        <v>0.4625714285714286</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>Pre2020Ensembleavg</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-11.166</v>
+        <v>0.1007142857142857</v>
       </c>
       <c r="C161" t="n">
-        <v>1.553</v>
+        <v>1.578214285714286</v>
       </c>
       <c r="D161" t="n">
-        <v>1.082</v>
+        <v>0.9135714285714286</v>
       </c>
       <c r="E161" t="n">
-        <v>1.04</v>
+        <v>0.8322142857142857</v>
       </c>
       <c r="F161" t="n">
-        <v>0.983</v>
+        <v>0.862142857142857</v>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>0.5040714285714286</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>LR376</t>
+          <t>TransLRavg</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-26.755</v>
+        <v>-1.219</v>
       </c>
       <c r="C162" t="n">
-        <v>2.262</v>
+        <v>1.467</v>
       </c>
       <c r="D162" t="n">
-        <v>3.387</v>
+        <v>0.24</v>
       </c>
       <c r="E162" t="n">
-        <v>1.84</v>
+        <v>0.49</v>
       </c>
       <c r="F162" t="n">
-        <v>1.474</v>
+        <v>0.506</v>
       </c>
       <c r="G162" t="n">
-        <v>-1</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>RF376</t>
+          <t>TransRFavg</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-11.645</v>
+        <v>-1.033</v>
       </c>
       <c r="C163" t="n">
-        <v>1.575</v>
+        <v>1.428</v>
       </c>
       <c r="D163" t="n">
-        <v>1.543</v>
+        <v>0.22</v>
       </c>
       <c r="E163" t="n">
-        <v>1.242</v>
+        <v>0.469</v>
       </c>
       <c r="F163" t="n">
-        <v>0.878</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="n">
-        <v>-1</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>NN376</t>
+          <t>TransNNavg</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-20.715</v>
+        <v>-1.5175</v>
       </c>
       <c r="C164" t="n">
-        <v>1.987</v>
+        <v>1.879</v>
       </c>
       <c r="D164" t="n">
-        <v>2.65</v>
+        <v>0.2725</v>
       </c>
       <c r="E164" t="n">
-        <v>1.628</v>
+        <v>0.522</v>
       </c>
       <c r="F164" t="n">
-        <v>1.183</v>
+        <v>0.4395</v>
       </c>
       <c r="G164" t="n">
-        <v>-1</v>
+        <v>-0.274</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>RNN</t>
+          <t>TransRNNavg</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-65.30500000000001</v>
+        <v>-1.411</v>
       </c>
       <c r="C165" t="n">
-        <v>7.028</v>
+        <v>2.206</v>
       </c>
       <c r="D165" t="n">
-        <v>8.092000000000001</v>
+        <v>0.261</v>
       </c>
       <c r="E165" t="n">
-        <v>2.845</v>
+        <v>0.511</v>
       </c>
       <c r="F165" t="n">
-        <v>2.788</v>
+        <v>0.342</v>
       </c>
       <c r="G165" t="n">
-        <v>-1</v>
+        <v>-0.971</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>Ensemble</t>
+          <t>TransEnsembleavg</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-20.314</v>
+        <v>-1.11</v>
       </c>
       <c r="C166" t="n">
-        <v>1.969</v>
+        <v>1.444</v>
       </c>
       <c r="D166" t="n">
-        <v>2.601</v>
+        <v>0.229</v>
       </c>
       <c r="E166" t="n">
-        <v>1.613</v>
+        <v>0.479</v>
       </c>
       <c r="F166" t="n">
-        <v>1.369</v>
+        <v>0.462</v>
       </c>
       <c r="G166" t="n">
-        <v>-1</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>Pre2020LRavg</t>
+          <t>Post2020LRavg</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-0.2202</v>
+        <v>-384.0570625</v>
       </c>
       <c r="C167" t="n">
-        <v>1.7844</v>
+        <v>18.5025</v>
       </c>
       <c r="D167" t="n">
-        <v>1.0552</v>
+        <v>10.996</v>
       </c>
       <c r="E167" t="n">
-        <v>0.9232666666666665</v>
+        <v>2.0789375</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9626666666666668</v>
+        <v>1.9486875</v>
       </c>
       <c r="G167" t="n">
-        <v>0.4394</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RFavg</t>
+          <t>Post2020RFavg</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.03520000000000001</v>
+        <v>-168.20375</v>
       </c>
       <c r="C168" t="n">
-        <v>1.6202</v>
+        <v>8.691000000000001</v>
       </c>
       <c r="D168" t="n">
-        <v>0.9638666666666665</v>
+        <v>1.7004375</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8727333333333334</v>
+        <v>1.191</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8789333333333335</v>
+        <v>1.0641875</v>
       </c>
       <c r="G168" t="n">
-        <v>0.4921333333333334</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>Pre2020NNavg</t>
+          <t>Post2020NNavg</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-0.5762</v>
+        <v>-374.68196875</v>
       </c>
       <c r="C169" t="n">
-        <v>3.641233333333334</v>
+        <v>21.11675</v>
       </c>
       <c r="D169" t="n">
-        <v>1.484866666666667</v>
+        <v>3.16603125</v>
       </c>
       <c r="E169" t="n">
-        <v>0.9972666666666666</v>
+        <v>1.5435625</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9499666666666666</v>
+        <v>1.43028125</v>
       </c>
       <c r="G169" t="n">
-        <v>0.4392</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>Pre2020RNNavg</t>
+          <t>Post2020RNNavg</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-0.3812666666666667</v>
+        <v>-132.7749375</v>
       </c>
       <c r="C170" t="n">
-        <v>5.143800000000001</v>
+        <v>13.1613125</v>
       </c>
       <c r="D170" t="n">
-        <v>1.340866666666667</v>
+        <v>4.098000000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>0.9838000000000001</v>
+        <v>1.8179375</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9368666666666665</v>
+        <v>1.664625</v>
       </c>
       <c r="G170" t="n">
-        <v>0.4271333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>Pre2020Ensembleavg</t>
+          <t>Post2020Ensembleavg</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.0766</v>
+        <v>-204.7263125</v>
       </c>
       <c r="C171" t="n">
-        <v>1.5936</v>
+        <v>10.35125</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9475333333333334</v>
+        <v>2.422125</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8581333333333333</v>
+        <v>1.2906875</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8523999999999998</v>
+        <v>1.2008125</v>
       </c>
       <c r="G171" t="n">
-        <v>0.4893999999999999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>Post2020LRavg</t>
+          <t>TotalLRAvg</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-2160.479888888889</v>
+        <v>-45.61646113445379</v>
       </c>
       <c r="C172" t="n">
-        <v>99.24899999999998</v>
+        <v>3.62264705882353</v>
       </c>
       <c r="D172" t="n">
-        <v>798.9385555555556</v>
+        <v>1.920831932773109</v>
       </c>
       <c r="E172" t="n">
-        <v>9.830777777777776</v>
+        <v>0.9030682773109243</v>
       </c>
       <c r="F172" t="n">
-        <v>7.948722222222222</v>
+        <v>0.9246355042016807</v>
       </c>
       <c r="G172" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>Post2020RFavg</t>
+          <t>TotalRFAvg</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-156.1747222222222</v>
+        <v>-20.06455882352941</v>
       </c>
       <c r="C173" t="n">
-        <v>8.14433333333333</v>
+        <v>2.391</v>
       </c>
       <c r="D173" t="n">
-        <v>1.853222222222223</v>
+        <v>0.8210178571428571</v>
       </c>
       <c r="E173" t="n">
-        <v>1.248777777777778</v>
+        <v>0.781924369747899</v>
       </c>
       <c r="F173" t="n">
-        <v>1.133777777777778</v>
+        <v>0.7903245798319327</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.5091176470588236</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>Post2020NNavg</t>
+          <t>TotalNNAvg</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-276.8854444444445</v>
+        <v>-44.63102993697478</v>
       </c>
       <c r="C174" t="n">
-        <v>15.84180555555556</v>
+        <v>4.784113445378151</v>
       </c>
       <c r="D174" t="n">
-        <v>5.176611111111112</v>
+        <v>0.9755204831932772</v>
       </c>
       <c r="E174" t="n">
-        <v>1.772083333333333</v>
+        <v>0.8445997899159664</v>
       </c>
       <c r="F174" t="n">
-        <v>1.624388888888889</v>
+        <v>0.8410625</v>
       </c>
       <c r="G174" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2100840336134454</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>Post2020RNNavg</t>
+          <t>TotalRNNAvg</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-96.26755555555556</v>
+        <v>-16.05280777310924</v>
       </c>
       <c r="C175" t="n">
-        <v>9.842555555555556</v>
+        <v>4.601835084033614</v>
       </c>
       <c r="D175" t="n">
-        <v>4.9185</v>
+        <v>1.128168067226891</v>
       </c>
       <c r="E175" t="n">
-        <v>1.830722222222222</v>
+        <v>0.8749674369747898</v>
       </c>
       <c r="F175" t="n">
-        <v>1.715444444444445</v>
+        <v>0.820123949579832</v>
       </c>
       <c r="G175" t="n">
-        <v>0.2222222222222222</v>
+        <v>-0.01348739495798313</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>Post2020Ensembleavg</t>
+          <t>TotalEnsembleAvg</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-348.2182222222223</v>
+        <v>-0.2672268907563026</v>
       </c>
       <c r="C176" t="n">
-        <v>16.87361111111111</v>
+        <v>1.353067226890756</v>
       </c>
       <c r="D176" t="n">
-        <v>86.16666666666669</v>
+        <v>0.6047478991596639</v>
       </c>
       <c r="E176" t="n">
-        <v>3.736</v>
+        <v>0.6304201680672269</v>
       </c>
       <c r="F176" t="n">
-        <v>3.070222222222222</v>
+        <v>0.6430252100840336</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>TotalLRAvg</t>
-        </is>
-      </c>
-      <c r="B177" t="n">
-        <v>-360.2634814814815</v>
-      </c>
-      <c r="C177" t="n">
-        <v>18.0285</v>
-      </c>
-      <c r="D177" t="n">
-        <v>134.0357592592593</v>
-      </c>
-      <c r="E177" t="n">
-        <v>2.407851851851852</v>
-      </c>
-      <c r="F177" t="n">
-        <v>2.127009259259259</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.4217222222222223</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>TotalRFAvg</t>
-        </is>
-      </c>
-      <c r="B178" t="n">
-        <v>-25.99978703703704</v>
-      </c>
-      <c r="C178" t="n">
-        <v>2.707555555555555</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.112092592592593</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.9354074074074075</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0.9214074074074076</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.4286296296296297</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>TotalNNAvg</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>-46.62774074074074</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.674662037037038</v>
-      </c>
-      <c r="D179" t="n">
-        <v>2.100157407407407</v>
-      </c>
-      <c r="E179" t="n">
-        <v>1.126402777777778</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1.06237037037037</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.4122962962962962</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>TotalRNNAvg</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>-16.36231481481482</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.926925925925926</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.937138888888889</v>
-      </c>
-      <c r="E180" t="n">
-        <v>1.124953703703704</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1.06662962962963</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.3929814814814814</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>TotalEnsembleAvg</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>-57.97253703703705</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.140268518518519</v>
-      </c>
-      <c r="D181" t="n">
-        <v>15.15072222222223</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.337777777777778</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1.222037037037037</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.4263518518518518</v>
+        <v>0.4000420168067227</v>
       </c>
     </row>
   </sheetData>
